--- a/data/Excel Workbooks/UnitedStatesDataWorkbook.xlsx
+++ b/data/Excel Workbooks/UnitedStatesDataWorkbook.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="18195" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="18195" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="United States Workbook" sheetId="1" r:id="rId1"/>
-    <sheet name="US Indices Comparison" sheetId="11" r:id="rId2"/>
-    <sheet name="Labour calculations" sheetId="3" r:id="rId3"/>
-    <sheet name="Exergy calcs" sheetId="14" r:id="rId4"/>
-    <sheet name="Useful work calcs" sheetId="15" r:id="rId5"/>
-    <sheet name="Capital Stock Comparison Graph" sheetId="5" r:id="rId6"/>
-    <sheet name="Capital Stock Comparison" sheetId="4" r:id="rId7"/>
-    <sheet name="GDP Comparison Graph" sheetId="8" r:id="rId8"/>
-    <sheet name="GDP Comparison" sheetId="7" r:id="rId9"/>
+    <sheet name="USData" sheetId="16" r:id="rId2"/>
+    <sheet name="US Indices Comparison" sheetId="11" r:id="rId3"/>
+    <sheet name="Labour calculations" sheetId="3" r:id="rId4"/>
+    <sheet name="Exergy calcs" sheetId="14" r:id="rId5"/>
+    <sheet name="Useful work calcs" sheetId="15" r:id="rId6"/>
+    <sheet name="Capital Stock Comparison Graph" sheetId="5" r:id="rId7"/>
+    <sheet name="Capital Stock Comparison" sheetId="4" r:id="rId8"/>
+    <sheet name="GDP Comparison Graph" sheetId="8" r:id="rId9"/>
+    <sheet name="GDP Comparison" sheetId="7" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="k_1">[1]Parameters!$B$11</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
   <si>
     <t>Year</t>
   </si>
@@ -1051,12 +1052,39 @@
       <t xml:space="preserve">compiled by World Bank. </t>
     </r>
   </si>
+  <si>
+    <t>iGDP</t>
+  </si>
+  <si>
+    <t>iLabor</t>
+  </si>
+  <si>
+    <t>iCapStk</t>
+  </si>
+  <si>
+    <t>iQ</t>
+  </si>
+  <si>
+    <t>iX</t>
+  </si>
+  <si>
+    <t>iU</t>
+  </si>
+  <si>
+    <t>iYear</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - The 'USData' tab has the indexed data from this page formatted for direct exporting into R (a statistical analysis program).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1066,6 +1094,7 @@
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1426,6 +1455,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="47">
@@ -3274,7 +3304,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3583,6 +3613,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3619,6 +3652,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4796,7 +4835,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$A$8:$A$39</c:f>
+              <c:f>'United States Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4901,7 +4940,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$H$8:$H$39</c:f>
+              <c:f>'United States Workbook'!$I$10:$I$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5024,7 +5063,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$A$8:$A$39</c:f>
+              <c:f>'United States Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5129,7 +5168,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$J$8:$J$39</c:f>
+              <c:f>'United States Workbook'!$K$10:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5254,7 +5293,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$A$8:$A$39</c:f>
+              <c:f>'United States Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5359,7 +5398,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$I$8:$I$39</c:f>
+              <c:f>'United States Workbook'!$J$10:$J$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5484,7 +5523,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$A$8:$A$39</c:f>
+              <c:f>'United States Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5589,7 +5628,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$L$8:$L$40</c:f>
+              <c:f>'United States Workbook'!$L$10:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="33"/>
@@ -5597,97 +5636,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97642733276965432</c:v>
+                  <c:v>0.97675457762464424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93792480115235277</c:v>
+                  <c:v>0.93893758076404543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93269982330788503</c:v>
+                  <c:v>0.93368099180744046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97898428758509615</c:v>
+                  <c:v>0.97986843314985783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97820693123439895</c:v>
+                  <c:v>0.97904834959387554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98083165159731767</c:v>
+                  <c:v>0.98176546651016883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0125679375140006</c:v>
+                  <c:v>1.0133869021190081</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0582013088612934</c:v>
+                  <c:v>1.0590044480422212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0896878096945122</c:v>
+                  <c:v>1.091477096137206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0947824920207399</c:v>
+                  <c:v>1.0973116942545786</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0940935849901903</c:v>
+                  <c:v>1.0970304534357245</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1098333657897044</c:v>
+                  <c:v>1.1126031845324349</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1311864847021107</c:v>
+                  <c:v>1.1340206277761917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1531941458390789</c:v>
+                  <c:v>1.1561006055992233</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1778527588845169</c:v>
+                  <c:v>1.1815576361804059</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2164062756398868</c:v>
+                  <c:v>1.2199552231190838</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2270879520392413</c:v>
+                  <c:v>1.2302531525034239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2353135766143875</c:v>
+                  <c:v>1.2383866028607038</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2550090678857349</c:v>
+                  <c:v>1.2584310420845322</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.281612659475486</c:v>
+                  <c:v>1.2848444717051239</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2515643473730997</c:v>
+                  <c:v>1.2548085558849991</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.27394464375247</c:v>
+                  <c:v>1.2778694037101019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2768751563230547</c:v>
+                  <c:v>1.280636008695303</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2981167171143662</c:v>
+                  <c:v>1.3017800375398247</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.299674124901856</c:v>
+                  <c:v>1.3035617627864231</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2915581805555536</c:v>
+                  <c:v>1.2960281726867848</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3131968037019068</c:v>
+                  <c:v>1.3178356817386681</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2818966426816121</c:v>
+                  <c:v>1.2874053531174439</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2239240991088314</c:v>
+                  <c:v>1.2307039228526457</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2647333525525213</c:v>
+                  <c:v>1.2710421181977825</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.250758076487557</c:v>
+                  <c:v>1.2586181364292732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5719,7 +5758,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$A$8:$A$39</c:f>
+              <c:f>'United States Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5824,7 +5863,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$K$8:$K$39</c:f>
+              <c:f>'United States Workbook'!$L$10:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5953,7 +5992,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$A$8:$A$39</c:f>
+              <c:f>'United States Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6058,7 +6097,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'United States Workbook'!$M$8:$M$28</c:f>
+              <c:f>'United States Workbook'!$N$10:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -6138,11 +6177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201624192"/>
-        <c:axId val="207459456"/>
+        <c:axId val="200451584"/>
+        <c:axId val="200454144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201624192"/>
+        <c:axId val="200451584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -6166,7 +6205,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6183,12 +6221,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207459456"/>
+        <c:crossAx val="200454144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207459456"/>
+        <c:axId val="200454144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -6236,7 +6274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201624192"/>
+        <c:crossAx val="200451584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -6285,7 +6323,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7180,11 +7217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89460096"/>
-        <c:axId val="89466752"/>
+        <c:axId val="200514560"/>
+        <c:axId val="200623616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89460096"/>
+        <c:axId val="200514560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011"/>
@@ -7208,20 +7245,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89466752"/>
+        <c:crossAx val="200623616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89466752"/>
+        <c:axId val="200623616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7243,21 +7279,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89460096"/>
+        <c:crossAx val="200514560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7302,7 +7336,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8305,11 +8338,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89512960"/>
-        <c:axId val="89515520"/>
+        <c:axId val="200682112"/>
+        <c:axId val="200692864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89512960"/>
+        <c:axId val="200682112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011"/>
@@ -8338,20 +8371,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89515520"/>
+        <c:crossAx val="200692864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89515520"/>
+        <c:axId val="200692864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8378,21 +8410,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89512960"/>
+        <c:crossAx val="200682112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8406,7 +8436,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8439,7 +8469,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8669694" cy="6288444"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9359,10 +9389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9373,7 +9403,7 @@
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="59" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
     <col min="10" max="10" width="25.85546875" customWidth="1"/>
@@ -9397,7 +9427,7 @@
     <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -9416,7 +9446,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
         <v>129</v>
@@ -9441,7 +9471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="123" customFormat="1">
+    <row r="3" spans="1:20" s="123" customFormat="1">
       <c r="A3" s="124"/>
       <c r="B3" s="126" t="s">
         <v>126</v>
@@ -9459,7 +9489,7 @@
       <c r="M3" s="122"/>
       <c r="N3" s="125"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1">
+    <row r="4" spans="1:20" s="1" customFormat="1">
       <c r="A4" s="16"/>
       <c r="B4" s="16" t="s">
         <v>117</v>
@@ -9476,1857 +9506,1983 @@
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="134" t="s">
+    <row r="5" spans="1:20" s="123" customFormat="1">
+      <c r="A5" s="133"/>
+      <c r="B5" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+    </row>
+    <row r="6" spans="1:20" s="123" customFormat="1">
+      <c r="A6" s="133"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="133" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C8" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D8" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E8" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="134" t="s">
+      <c r="F8" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="134" t="s">
+      <c r="G8" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="134" t="s">
+      <c r="J8" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="134" t="s">
+      <c r="K8" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="134" t="s">
+      <c r="L8" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="L6" s="134" t="s">
+      <c r="M8" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="M6" s="134" t="s">
+      <c r="N8" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="O8" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="20" t="s">
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="21">
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="21">
         <v>1980</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B10" s="25">
         <v>5833975</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C10" s="8">
         <v>184008</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D10" s="25">
         <v>7353330</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E10" s="11">
         <v>83205517.49215737</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F10" s="8">
         <v>87690946.660051346</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G10" s="8">
         <v>9202100.19521356</v>
       </c>
-      <c r="H8" s="15">
-        <f>B8/$B$8</f>
+      <c r="H10" s="62">
+        <f>A10-$A$10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <f>B10/$B$10</f>
         <v>1</v>
       </c>
-      <c r="I8" s="15">
-        <f>C8/$C$8</f>
+      <c r="J10" s="15">
+        <f>C10/$C$10</f>
         <v>1</v>
       </c>
-      <c r="J8" s="15">
-        <f>D8/$D$8</f>
+      <c r="K10" s="15">
+        <f>D10/$D$10</f>
         <v>1</v>
       </c>
-      <c r="K8" s="15">
-        <f>E8/$E$8</f>
+      <c r="L10" s="15">
+        <f>E10/$E$10</f>
         <v>1</v>
       </c>
-      <c r="L8" s="15">
-        <f>F8/$F$8</f>
+      <c r="M10" s="15">
+        <f>F10/$F$10</f>
         <v>1</v>
       </c>
-      <c r="M8" s="15">
-        <f>G8/$G$8</f>
+      <c r="N10" s="15">
+        <f>G10/$G$10</f>
         <v>1</v>
       </c>
-      <c r="N8" s="19">
-        <f t="shared" ref="N8:N19" si="0">B8/D8</f>
+      <c r="O10" s="19">
+        <f t="shared" ref="O10:O21" si="0">B10/D10</f>
         <v>0.79337864613719222</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="21">
+      <c r="P10" s="36"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="21">
         <v>1981</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B11" s="25">
         <v>5982075</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C11" s="8">
         <v>184394</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D11" s="25">
         <v>7590122</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E11" s="11">
         <v>81271370.094092116</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F11" s="8">
         <v>85623837.155319959</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G11" s="8">
         <v>8849541.7620262094</v>
       </c>
-      <c r="H9" s="15">
-        <f t="shared" ref="H9:H39" si="1">B9/$B$8</f>
+      <c r="H11" s="62">
+        <f t="shared" ref="H11:H41" si="1">A11-$A$10</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" ref="I11:I41" si="2">B11/$B$10</f>
         <v>1.0253857789928822</v>
       </c>
-      <c r="I9" s="15">
-        <f t="shared" ref="I9:I39" si="2">C9/$C$8</f>
+      <c r="J11" s="15">
+        <f t="shared" ref="J11:J41" si="3">C11/$C$10</f>
         <v>1.0020977348810922</v>
       </c>
-      <c r="J9" s="15">
-        <f t="shared" ref="J9:J39" si="3">D9/$D$8</f>
+      <c r="K11" s="15">
+        <f t="shared" ref="K11:K41" si="4">D11/$D$10</f>
         <v>1.0322020091577557</v>
       </c>
-      <c r="K9" s="15">
-        <f t="shared" ref="K9:K39" si="4">E9/$E$8</f>
+      <c r="L11" s="15">
+        <f t="shared" ref="L11:L41" si="5">E11/$E$10</f>
         <v>0.97675457762464424</v>
       </c>
-      <c r="L9" s="15">
-        <f t="shared" ref="L9:L39" si="5">F9/$F$8</f>
+      <c r="M11" s="15">
+        <f t="shared" ref="M11:M41" si="6">F11/$F$10</f>
         <v>0.97642733276965432</v>
       </c>
-      <c r="M9" s="15">
-        <f t="shared" ref="M9:M39" si="6">G9/$G$8</f>
+      <c r="N11" s="15">
+        <f t="shared" ref="N11:N30" si="7">G11/$G$10</f>
         <v>0.96168717730646613</v>
       </c>
-      <c r="N9" s="19">
+      <c r="O11" s="19">
         <f t="shared" si="0"/>
         <v>0.78813950553100465</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="21">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="21">
         <v>1982</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B12" s="25">
         <v>5865925</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C12" s="8">
         <v>181648</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D12" s="25">
         <v>7758605</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E12" s="11">
         <v>78124787.300306708</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F12" s="8">
         <v>82247513.708990231</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G12" s="8">
         <v>8418352.4144289196</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H12" s="62">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="2"/>
         <v>1.0054765404376946</v>
       </c>
-      <c r="I10" s="15">
-        <f t="shared" si="2"/>
+      <c r="J12" s="15">
+        <f t="shared" si="3"/>
         <v>0.98717447067518804</v>
       </c>
-      <c r="J10" s="15">
-        <f t="shared" si="3"/>
+      <c r="K12" s="15">
+        <f t="shared" si="4"/>
         <v>1.0551144855460044</v>
       </c>
-      <c r="K10" s="15">
-        <f t="shared" si="4"/>
+      <c r="L12" s="15">
+        <f t="shared" si="5"/>
         <v>0.93893758076404543</v>
       </c>
-      <c r="L10" s="15">
-        <f t="shared" si="5"/>
+      <c r="M12" s="15">
+        <f t="shared" si="6"/>
         <v>0.93792480115235277</v>
       </c>
-      <c r="M10" s="15">
-        <f t="shared" si="6"/>
+      <c r="N12" s="15">
+        <f t="shared" si="7"/>
         <v>0.9148294667349629</v>
       </c>
-      <c r="N10" s="19">
+      <c r="O12" s="19">
         <f t="shared" si="0"/>
         <v>0.75605408446492639</v>
       </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="21">
+      <c r="P12" s="36"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="21">
         <v>1983</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B13" s="25">
         <v>6130925</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C13" s="8">
         <v>184908</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D13" s="25">
         <v>7963158</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E13" s="11">
         <v>77687410.095928833</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F13" s="8">
         <v>81789330.455531061</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G13" s="8">
         <v>8388455.8860690147</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H13" s="62">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="2"/>
         <v>1.0509001152730342</v>
       </c>
-      <c r="I11" s="15">
-        <f t="shared" si="2"/>
+      <c r="J13" s="15">
+        <f t="shared" si="3"/>
         <v>1.0048910916916656</v>
       </c>
-      <c r="J11" s="15">
-        <f t="shared" si="3"/>
+      <c r="K13" s="15">
+        <f t="shared" si="4"/>
         <v>1.0829322225440718</v>
       </c>
-      <c r="K11" s="15">
-        <f t="shared" si="4"/>
+      <c r="L13" s="15">
+        <f t="shared" si="5"/>
         <v>0.93368099180744046</v>
       </c>
-      <c r="L11" s="15">
-        <f t="shared" si="5"/>
+      <c r="M13" s="15">
+        <f t="shared" si="6"/>
         <v>0.93269982330788503</v>
       </c>
-      <c r="M11" s="15">
-        <f t="shared" si="6"/>
+      <c r="N13" s="15">
+        <f t="shared" si="7"/>
         <v>0.91158058574848388</v>
       </c>
-      <c r="N11" s="19">
+      <c r="O13" s="19">
         <f t="shared" si="0"/>
         <v>0.76991125882470246</v>
       </c>
-      <c r="O11" s="36"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="21">
+      <c r="P13" s="36"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="21">
         <v>1984</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B14" s="25">
         <v>6571525</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C14" s="8">
         <v>194236</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D14" s="25">
         <v>8274440</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E14" s="11">
         <v>81530460.054463327</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F14" s="8">
         <v>85848058.943653032</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G14" s="8">
         <v>8886721.0417956971</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H14" s="62">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="2"/>
         <v>1.1264232363011497</v>
       </c>
-      <c r="I12" s="15">
-        <f t="shared" si="2"/>
+      <c r="J14" s="15">
+        <f t="shared" si="3"/>
         <v>1.0555845398026173</v>
       </c>
-      <c r="J12" s="15">
-        <f t="shared" si="3"/>
+      <c r="K14" s="15">
+        <f t="shared" si="4"/>
         <v>1.1252643360219112</v>
       </c>
-      <c r="K12" s="15">
-        <f t="shared" si="4"/>
+      <c r="L14" s="15">
+        <f t="shared" si="5"/>
         <v>0.97986843314985783</v>
       </c>
-      <c r="L12" s="15">
-        <f t="shared" si="5"/>
+      <c r="M14" s="15">
+        <f t="shared" si="6"/>
         <v>0.97898428758509615</v>
       </c>
-      <c r="M12" s="15">
-        <f t="shared" si="6"/>
+      <c r="N14" s="15">
+        <f t="shared" si="7"/>
         <v>0.96572748103939288</v>
       </c>
-      <c r="N12" s="19">
+      <c r="O14" s="19">
         <f t="shared" si="0"/>
         <v>0.79419574013467986</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="21">
+      <c r="P14" s="36"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="21">
         <v>1985</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B15" s="25">
         <v>6843400</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C15" s="8">
         <v>198678</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D15" s="25">
         <v>8616339</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E15" s="11">
         <v>81462224.577801019</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F15" s="8">
         <v>85779891.829368189</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G15" s="8">
         <v>9001336.2427200843</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H15" s="62">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="2"/>
         <v>1.1730252529364626</v>
       </c>
-      <c r="I13" s="15">
-        <f t="shared" si="2"/>
+      <c r="J15" s="15">
+        <f t="shared" si="3"/>
         <v>1.079724794574149</v>
       </c>
-      <c r="J13" s="15">
-        <f t="shared" si="3"/>
+      <c r="K15" s="15">
+        <f t="shared" si="4"/>
         <v>1.1717601413237269</v>
       </c>
-      <c r="K13" s="15">
-        <f t="shared" si="4"/>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
         <v>0.97904834959387554</v>
       </c>
-      <c r="L13" s="15">
-        <f t="shared" si="5"/>
+      <c r="M15" s="15">
+        <f t="shared" si="6"/>
         <v>0.97820693123439895</v>
       </c>
-      <c r="M13" s="15">
-        <f t="shared" si="6"/>
+      <c r="N15" s="15">
+        <f t="shared" si="7"/>
         <v>0.97818281172401245</v>
       </c>
-      <c r="N13" s="19">
+      <c r="O15" s="19">
         <f t="shared" si="0"/>
         <v>0.79423523145967212</v>
       </c>
-      <c r="O13" s="36"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="21">
+      <c r="P15" s="36"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="21">
         <v>1986</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B16" s="25">
         <v>7080500</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C16" s="8">
         <v>201005</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D16" s="25">
         <v>8950457</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E16" s="11">
         <v>81688303.696907893</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F16" s="8">
         <v>86010056.042710453</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G16" s="8">
         <v>8937276.1980013065</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H16" s="62">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="2"/>
         <v>1.2136664966853645</v>
       </c>
-      <c r="I14" s="15">
-        <f t="shared" si="2"/>
+      <c r="J16" s="15">
+        <f t="shared" si="3"/>
         <v>1.0923709838702664</v>
       </c>
-      <c r="J14" s="15">
-        <f t="shared" si="3"/>
+      <c r="K16" s="15">
+        <f t="shared" si="4"/>
         <v>1.2171977865810455</v>
       </c>
-      <c r="K14" s="15">
-        <f t="shared" si="4"/>
+      <c r="L16" s="15">
+        <f t="shared" si="5"/>
         <v>0.98176546651016883</v>
       </c>
-      <c r="L14" s="15">
-        <f t="shared" si="5"/>
+      <c r="M16" s="15">
+        <f t="shared" si="6"/>
         <v>0.98083165159731767</v>
       </c>
-      <c r="M14" s="15">
-        <f t="shared" si="6"/>
+      <c r="N16" s="15">
+        <f t="shared" si="7"/>
         <v>0.97122135256145103</v>
       </c>
-      <c r="N14" s="19">
+      <c r="O16" s="19">
         <f t="shared" si="0"/>
         <v>0.79107692489891857</v>
       </c>
-      <c r="O14" s="36"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="21">
+      <c r="P16" s="36"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="21">
         <v>1987</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B17" s="25">
         <v>7307050</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C17" s="8">
         <v>206453</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D17" s="25">
         <v>9271196</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E17" s="11">
         <v>84319381.6105863</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F17" s="8">
         <v>88793040.998218432</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G17" s="8">
         <v>9248631.5792361163</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H17" s="62">
         <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="2"/>
         <v>1.2524993679266709</v>
       </c>
-      <c r="I15" s="15">
-        <f t="shared" si="2"/>
+      <c r="J17" s="15">
+        <f t="shared" si="3"/>
         <v>1.1219783922438156</v>
       </c>
-      <c r="J15" s="15">
-        <f t="shared" si="3"/>
+      <c r="K17" s="15">
+        <f t="shared" si="4"/>
         <v>1.2608159840507633</v>
       </c>
-      <c r="K15" s="15">
-        <f t="shared" si="4"/>
+      <c r="L17" s="15">
+        <f t="shared" si="5"/>
         <v>1.0133869021190081</v>
       </c>
-      <c r="L15" s="15">
-        <f t="shared" si="5"/>
+      <c r="M17" s="15">
+        <f t="shared" si="6"/>
         <v>1.0125679375140006</v>
       </c>
-      <c r="M15" s="15">
-        <f t="shared" si="6"/>
+      <c r="N17" s="15">
+        <f t="shared" si="7"/>
         <v>1.0050566048005822</v>
       </c>
-      <c r="N15" s="19">
+      <c r="O17" s="19">
         <f t="shared" si="0"/>
         <v>0.7881453482377031</v>
       </c>
-      <c r="O15" s="36"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="21">
+      <c r="P17" s="36"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="21">
         <v>1988</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B18" s="25">
         <v>7607400</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C18" s="8">
         <v>212615</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D18" s="25">
         <v>9599009</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E18" s="11">
         <v>88115013.125849485</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F18" s="8">
         <v>92794674.5309522</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G18" s="8">
         <v>9875370.2562607825</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H18" s="62">
         <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="2"/>
         <v>1.3039822762353284</v>
       </c>
-      <c r="I16" s="15">
-        <f t="shared" si="2"/>
+      <c r="J18" s="15">
+        <f t="shared" si="3"/>
         <v>1.1554660666927525</v>
       </c>
-      <c r="J16" s="15">
-        <f t="shared" si="3"/>
+      <c r="K18" s="15">
+        <f t="shared" si="4"/>
         <v>1.305396194649227</v>
       </c>
-      <c r="K16" s="15">
-        <f t="shared" si="4"/>
+      <c r="L18" s="15">
+        <f t="shared" si="5"/>
         <v>1.0590044480422212</v>
       </c>
-      <c r="L16" s="15">
-        <f t="shared" si="5"/>
+      <c r="M18" s="15">
+        <f t="shared" si="6"/>
         <v>1.0582013088612934</v>
       </c>
-      <c r="M16" s="15">
-        <f t="shared" si="6"/>
+      <c r="N18" s="15">
+        <f t="shared" si="7"/>
         <v>1.0731648261553837</v>
       </c>
-      <c r="N16" s="19">
+      <c r="O18" s="19">
         <f t="shared" si="0"/>
         <v>0.79251931110805296</v>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="21">
+      <c r="P18" s="36"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="21">
         <v>1989</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B19" s="25">
         <v>7879175</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C19" s="8">
         <v>218492</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D19" s="25">
         <v>9935253</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E19" s="11">
         <v>90816916.614933416</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F19" s="8">
         <v>95555755.596029654</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G19" s="8">
         <v>10423790.195036408</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H19" s="62">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="2"/>
         <v>1.3505671518990054</v>
       </c>
-      <c r="I17" s="15">
-        <f t="shared" si="2"/>
+      <c r="J19" s="15">
+        <f t="shared" si="3"/>
         <v>1.1874048954393288</v>
       </c>
-      <c r="J17" s="15">
-        <f t="shared" si="3"/>
+      <c r="K19" s="15">
+        <f t="shared" si="4"/>
         <v>1.3511229606178425</v>
       </c>
-      <c r="K17" s="15">
-        <f t="shared" si="4"/>
+      <c r="L19" s="15">
+        <f t="shared" si="5"/>
         <v>1.091477096137206</v>
       </c>
-      <c r="L17" s="15">
-        <f t="shared" si="5"/>
+      <c r="M19" s="15">
+        <f t="shared" si="6"/>
         <v>1.0896878096945122</v>
       </c>
-      <c r="M17" s="15">
-        <f t="shared" si="6"/>
+      <c r="N19" s="15">
+        <f t="shared" si="7"/>
         <v>1.132762084079274</v>
       </c>
-      <c r="N17" s="19">
+      <c r="O19" s="19">
         <f t="shared" si="0"/>
         <v>0.79305227556862412</v>
       </c>
-      <c r="O17" s="36"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="21">
+      <c r="P19" s="36"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="21">
         <v>1990</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B20" s="25">
         <v>8027025</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C20" s="8">
         <v>218868</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D20" s="25">
         <v>10241313</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E20" s="11">
         <v>91302387.37064819</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F20" s="8">
         <v>96002513.112148792</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G20" s="8">
         <v>10597026.606813608</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H20" s="62">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="2"/>
         <v>1.3759100784627976</v>
       </c>
-      <c r="I18" s="15">
-        <f t="shared" si="2"/>
+      <c r="J20" s="15">
+        <f t="shared" si="3"/>
         <v>1.1894482848571801</v>
       </c>
-      <c r="J18" s="15">
-        <f t="shared" si="3"/>
+      <c r="K20" s="15">
+        <f t="shared" si="4"/>
         <v>1.392744919648649</v>
       </c>
-      <c r="K18" s="15">
-        <f t="shared" si="4"/>
+      <c r="L20" s="15">
+        <f t="shared" si="5"/>
         <v>1.0973116942545786</v>
       </c>
-      <c r="L18" s="15">
-        <f t="shared" si="5"/>
+      <c r="M20" s="15">
+        <f t="shared" si="6"/>
         <v>1.0947824920207399</v>
       </c>
-      <c r="M18" s="15">
-        <f t="shared" si="6"/>
+      <c r="N20" s="15">
+        <f t="shared" si="7"/>
         <v>1.1515878312567835</v>
       </c>
-      <c r="N18" s="19">
+      <c r="O20" s="19">
         <f t="shared" si="0"/>
         <v>0.7837886606922374</v>
       </c>
-      <c r="O18" s="36"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="21">
+      <c r="P20" s="36"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="21">
         <v>1991</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B21" s="25">
         <v>8008325</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C21" s="8">
         <v>215771</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D21" s="25">
         <v>10475394</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E21" s="11">
         <v>91278986.582775503</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F21" s="8">
         <v>95942102.202479124</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G21" s="8">
         <v>10479932.205794752</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H21" s="62">
         <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="2"/>
         <v>1.37270471676687</v>
       </c>
-      <c r="I19" s="15">
-        <f t="shared" si="2"/>
+      <c r="J21" s="15">
+        <f t="shared" si="3"/>
         <v>1.1726174948915264</v>
       </c>
-      <c r="J19" s="15">
-        <f t="shared" si="3"/>
+      <c r="K21" s="15">
+        <f t="shared" si="4"/>
         <v>1.4245782523020183</v>
       </c>
-      <c r="K19" s="15">
-        <f t="shared" si="4"/>
+      <c r="L21" s="15">
+        <f t="shared" si="5"/>
         <v>1.0970304534357245</v>
       </c>
-      <c r="L19" s="15">
-        <f t="shared" si="5"/>
+      <c r="M21" s="15">
+        <f t="shared" si="6"/>
         <v>1.0940935849901903</v>
       </c>
-      <c r="M19" s="15">
-        <f t="shared" si="6"/>
+      <c r="N21" s="15">
+        <f t="shared" si="7"/>
         <v>1.1388630838040485</v>
       </c>
-      <c r="N19" s="19">
+      <c r="O21" s="19">
         <f t="shared" si="0"/>
         <v>0.76448914475197782</v>
       </c>
-      <c r="O19" s="36"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="21">
-        <v>1992</v>
-      </c>
-      <c r="B20" s="25">
-        <v>8280025</v>
-      </c>
-      <c r="C20" s="8">
-        <v>215945</v>
-      </c>
-      <c r="D20" s="25">
-        <v>10744570</v>
-      </c>
-      <c r="E20" s="90">
-        <v>92574723.732443511</v>
-      </c>
-      <c r="F20" s="8">
-        <v>97322338.481010213</v>
-      </c>
-      <c r="G20" s="8">
-        <v>10926748.232467163</v>
-      </c>
-      <c r="H20" s="15">
-        <f t="shared" si="1"/>
-        <v>1.41927673670182</v>
-      </c>
-      <c r="I20" s="15">
-        <f t="shared" si="2"/>
-        <v>1.1735631059519152</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="3"/>
-        <v>1.4611842525767238</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="4"/>
-        <v>1.1126031845324349</v>
-      </c>
-      <c r="L20" s="15">
-        <f t="shared" si="5"/>
-        <v>1.1098333657897044</v>
-      </c>
-      <c r="M20" s="15">
-        <f t="shared" si="6"/>
-        <v>1.1874189587884159</v>
-      </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="21">
-        <v>1993</v>
-      </c>
-      <c r="B21" s="25">
-        <v>8516175</v>
-      </c>
-      <c r="C21" s="8">
-        <v>221000</v>
-      </c>
-      <c r="D21" s="25">
-        <v>11065312</v>
-      </c>
-      <c r="E21" s="90">
-        <v>94356773.180899203</v>
-      </c>
-      <c r="F21" s="8">
-        <v>99194813.69258377</v>
-      </c>
-      <c r="G21" s="8">
-        <v>11038510.494581115</v>
-      </c>
-      <c r="H21" s="15">
-        <f t="shared" si="1"/>
-        <v>1.4597551412201801</v>
-      </c>
-      <c r="I21" s="15">
-        <f t="shared" si="2"/>
-        <v>1.2010347376201034</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="3"/>
-        <v>1.5048028580248676</v>
-      </c>
-      <c r="K21" s="15">
-        <f t="shared" si="4"/>
-        <v>1.1340206277761917</v>
-      </c>
-      <c r="L21" s="15">
-        <f t="shared" si="5"/>
-        <v>1.1311864847021107</v>
-      </c>
-      <c r="M21" s="15">
-        <f t="shared" si="6"/>
-        <v>1.1995642582030086</v>
-      </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="36"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="21">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B22" s="25">
-        <v>8863125</v>
+        <v>8280025</v>
       </c>
       <c r="C22" s="8">
-        <v>227916</v>
+        <v>215945</v>
       </c>
       <c r="D22" s="25">
-        <v>11449320</v>
+        <v>10744570</v>
       </c>
       <c r="E22" s="90">
-        <v>96193949.161879912</v>
+        <v>92574723.732443511</v>
       </c>
       <c r="F22" s="8">
-        <v>101124686.33145814</v>
+        <v>97322338.481010213</v>
       </c>
       <c r="G22" s="8">
-        <v>11398691.229186527</v>
-      </c>
-      <c r="H22" s="15">
+        <v>10926748.232467163</v>
+      </c>
+      <c r="H22" s="62">
         <f t="shared" si="1"/>
-        <v>1.519225742311203</v>
+        <v>12</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="2"/>
-        <v>1.2386200599973913</v>
+        <v>1.41927673670182</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="3"/>
-        <v>1.5570251845082432</v>
+        <v>1.1735631059519152</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>1.1561006055992233</v>
+        <v>1.4611842525767238</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" si="5"/>
-        <v>1.1531941458390789</v>
+        <v>1.1126031845324349</v>
       </c>
       <c r="M22" s="15">
         <f t="shared" si="6"/>
-        <v>1.2387054028291842</v>
-      </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="36"/>
+        <v>1.1098333657897044</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="7"/>
+        <v>1.1874189587884159</v>
+      </c>
+      <c r="O22" s="19"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="10"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="36"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="21">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B23" s="25">
-        <v>9085975</v>
+        <v>8516175</v>
       </c>
       <c r="C23" s="8">
-        <v>233531</v>
+        <v>221000</v>
       </c>
       <c r="D23" s="25">
-        <v>11879042</v>
+        <v>11065312</v>
       </c>
       <c r="E23" s="90">
-        <v>98312114.56520088</v>
+        <v>94356773.180899203</v>
       </c>
       <c r="F23" s="8">
-        <v>103287023.4527365</v>
+        <v>99194813.69258377</v>
       </c>
       <c r="G23" s="8">
-        <v>11888784.844354192</v>
-      </c>
-      <c r="H23" s="15">
+        <v>11038510.494581115</v>
+      </c>
+      <c r="H23" s="62">
         <f t="shared" si="1"/>
-        <v>1.5574243976019781</v>
+        <v>13</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="2"/>
-        <v>1.2691350376070605</v>
+        <v>1.4597551412201801</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="3"/>
-        <v>1.6154642862485431</v>
+        <v>1.2010347376201034</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>1.1815576361804059</v>
+        <v>1.5048028580248676</v>
       </c>
       <c r="L23" s="15">
         <f t="shared" si="5"/>
-        <v>1.1778527588845169</v>
+        <v>1.1340206277761917</v>
       </c>
       <c r="M23" s="15">
         <f t="shared" si="6"/>
-        <v>1.2919642899061348</v>
-      </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="36"/>
+        <v>1.1311864847021107</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="7"/>
+        <v>1.1995642582030086</v>
+      </c>
+      <c r="O23" s="19"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="10"/>
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="36"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="21">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B24" s="25">
-        <v>9425850</v>
+        <v>8863125</v>
       </c>
       <c r="C24" s="8">
-        <v>236446</v>
+        <v>227916</v>
       </c>
       <c r="D24" s="25">
-        <v>12389110</v>
+        <v>11449320</v>
       </c>
       <c r="E24" s="90">
-        <v>101507005.65688367</v>
+        <v>96193949.161879912</v>
       </c>
       <c r="F24" s="8">
-        <v>106667817.83408903</v>
+        <v>101124686.33145814</v>
       </c>
       <c r="G24" s="8">
-        <v>12271389.881406408</v>
-      </c>
-      <c r="H24" s="15">
+        <v>11398691.229186527</v>
+      </c>
+      <c r="H24" s="62">
         <f t="shared" si="1"/>
-        <v>1.6156822749497555</v>
+        <v>14</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="2"/>
-        <v>1.2849767401417329</v>
+        <v>1.519225742311203</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>1.6848298661966756</v>
+        <v>1.2386200599973913</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>1.2199552231190838</v>
+        <v>1.5570251845082432</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="5"/>
-        <v>1.2164062756398868</v>
+        <v>1.1561006055992233</v>
       </c>
       <c r="M24" s="15">
         <f t="shared" si="6"/>
-        <v>1.3335423024180206</v>
-      </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="36"/>
+        <v>1.1531941458390789</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="7"/>
+        <v>1.2387054028291842</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="10"/>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="36"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="21">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B25" s="25">
-        <v>9845925</v>
+        <v>9085975</v>
       </c>
       <c r="C25" s="8">
-        <v>243372</v>
+        <v>233531</v>
       </c>
       <c r="D25" s="25">
-        <v>12987247</v>
-      </c>
-      <c r="E25" s="120">
-        <v>102363850.20040539</v>
+        <v>11879042</v>
+      </c>
+      <c r="E25" s="90">
+        <v>98312114.56520088</v>
       </c>
       <c r="F25" s="8">
-        <v>107604504.14946476</v>
+        <v>103287023.4527365</v>
       </c>
       <c r="G25" s="8">
-        <v>12443891.330489788</v>
-      </c>
-      <c r="H25" s="15">
+        <v>11888784.844354192</v>
+      </c>
+      <c r="H25" s="62">
         <f t="shared" si="1"/>
-        <v>1.6876872115495867</v>
+        <v>15</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="2"/>
-        <v>1.3226164079822615</v>
+        <v>1.5574243976019781</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="3"/>
-        <v>1.7661721968142325</v>
+        <v>1.2691350376070605</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>1.2302531525034239</v>
+        <v>1.6154642862485431</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="5"/>
-        <v>1.2270879520392413</v>
+        <v>1.1815576361804059</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="6"/>
-        <v>1.3522881805788678</v>
-      </c>
-      <c r="N25" s="19"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="36"/>
+        <v>1.1778527588845169</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="7"/>
+        <v>1.2919642899061348</v>
+      </c>
+      <c r="O25" s="19"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="10"/>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="36"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="21">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B26" s="25">
-        <v>10274750</v>
+        <v>9425850</v>
       </c>
       <c r="C26" s="8">
-        <v>248610</v>
+        <v>236446</v>
       </c>
       <c r="D26" s="25">
-        <v>13702515</v>
-      </c>
-      <c r="E26" s="120">
-        <v>103040598.14637963</v>
+        <v>12389110</v>
+      </c>
+      <c r="E26" s="90">
+        <v>101507005.65688367</v>
       </c>
       <c r="F26" s="8">
-        <v>108325816.95532951</v>
+        <v>106667817.83408903</v>
       </c>
       <c r="G26" s="8">
-        <v>12578133.102405187</v>
-      </c>
-      <c r="H26" s="15">
+        <v>12271389.881406408</v>
+      </c>
+      <c r="H26" s="62">
         <f t="shared" si="1"/>
-        <v>1.7611919831675658</v>
+        <v>16</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="2"/>
-        <v>1.3510825616277553</v>
+        <v>1.6156822749497555</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="3"/>
-        <v>1.8634435011076613</v>
+        <v>1.2849767401417329</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>1.2383866028607038</v>
+        <v>1.6848298661966756</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="5"/>
-        <v>1.2353135766143875</v>
+        <v>1.2199552231190838</v>
       </c>
       <c r="M26" s="15">
         <f t="shared" si="6"/>
-        <v>1.3668763473090262</v>
-      </c>
-      <c r="N26" s="19"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="36"/>
+        <v>1.2164062756398868</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="7"/>
+        <v>1.3335423024180206</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="10"/>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="36"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="21">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B27" s="25">
-        <v>10770625</v>
+        <v>9845925</v>
       </c>
       <c r="C27" s="8">
-        <v>253474</v>
+        <v>243372</v>
       </c>
       <c r="D27" s="25">
-        <v>14518814</v>
-      </c>
-      <c r="E27" s="90">
-        <v>104708406.08483838</v>
+        <v>12987247</v>
+      </c>
+      <c r="E27" s="120">
+        <v>102363850.20040539</v>
       </c>
       <c r="F27" s="8">
-        <v>110052933.22984874</v>
+        <v>107604504.14946476</v>
       </c>
       <c r="G27" s="8">
-        <v>12966851.94307409</v>
-      </c>
-      <c r="H27" s="15">
+        <v>12443891.330489788</v>
+      </c>
+      <c r="H27" s="62">
         <f t="shared" si="1"/>
-        <v>1.8461897762674677</v>
+        <v>17</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="2"/>
-        <v>1.3775161949480457</v>
+        <v>1.6876872115495867</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="3"/>
-        <v>1.9744542948568879</v>
+        <v>1.3226164079822615</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="4"/>
-        <v>1.2584310420845322</v>
+        <v>1.7661721968142325</v>
       </c>
       <c r="L27" s="15">
         <f t="shared" si="5"/>
-        <v>1.2550090678857349</v>
+        <v>1.2302531525034239</v>
       </c>
       <c r="M27" s="15">
         <f t="shared" si="6"/>
-        <v>1.4091187520234514</v>
-      </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="36"/>
+        <v>1.2270879520392413</v>
+      </c>
+      <c r="N27" s="15">
+        <f t="shared" si="7"/>
+        <v>1.3522881805788678</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="10"/>
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="36"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="21">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B28" s="25">
-        <v>11216425</v>
+        <v>10274750</v>
       </c>
       <c r="C28" s="8">
-        <v>256851.99999999997</v>
+        <v>248610</v>
       </c>
       <c r="D28" s="25">
-        <v>15409247</v>
-      </c>
-      <c r="E28" s="90">
-        <v>106906149.16516238</v>
-      </c>
-      <c r="F28" s="62">
-        <v>112385827.36091138</v>
+        <v>13702515</v>
+      </c>
+      <c r="E28" s="120">
+        <v>103040598.14637963</v>
+      </c>
+      <c r="F28" s="8">
+        <v>108325816.95532951</v>
       </c>
       <c r="G28" s="8">
-        <v>12850224.373886647</v>
-      </c>
-      <c r="H28" s="15">
+        <v>12578133.102405187</v>
+      </c>
+      <c r="H28" s="62">
         <f t="shared" si="1"/>
-        <v>1.9226042278206541</v>
+        <v>18</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="2"/>
-        <v>1.3958740924307638</v>
+        <v>1.7611919831675658</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="3"/>
-        <v>2.095546779486301</v>
+        <v>1.3510825616277553</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="4"/>
-        <v>1.2848444717051239</v>
+        <v>1.8634435011076613</v>
       </c>
       <c r="L28" s="15">
         <f t="shared" si="5"/>
-        <v>1.281612659475486</v>
+        <v>1.2383866028607038</v>
       </c>
       <c r="M28" s="15">
         <f t="shared" si="6"/>
-        <v>1.3964447355801066</v>
-      </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="36"/>
+        <v>1.2353135766143875</v>
+      </c>
+      <c r="N28" s="15">
+        <f t="shared" si="7"/>
+        <v>1.3668763473090262</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="10"/>
       <c r="R28" s="36"/>
       <c r="S28" s="36"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="36"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="21">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B29" s="25">
-        <v>11337475</v>
-      </c>
-      <c r="C29" s="14">
-        <v>253714</v>
+        <v>10770625</v>
+      </c>
+      <c r="C29" s="8">
+        <v>253474</v>
       </c>
       <c r="D29" s="25">
-        <v>16201274</v>
+        <v>14518814</v>
       </c>
       <c r="E29" s="90">
-        <v>104406995.24599802</v>
-      </c>
-      <c r="F29" s="61">
-        <v>109750862.42711647</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15">
+        <v>104708406.08483838</v>
+      </c>
+      <c r="F29" s="8">
+        <v>110052933.22984874</v>
+      </c>
+      <c r="G29" s="8">
+        <v>12966851.94307409</v>
+      </c>
+      <c r="H29" s="62">
         <f t="shared" si="1"/>
-        <v>1.9433533739860045</v>
+        <v>19</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="2"/>
-        <v>1.3788204860658233</v>
+        <v>1.8461897762674677</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="3"/>
-        <v>2.2032567557827543</v>
+        <v>1.3775161949480457</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>1.2548085558849991</v>
+        <v>1.9744542948568879</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="5"/>
-        <v>1.2515643473730997</v>
+        <v>1.2584310420845322</v>
       </c>
       <c r="M29" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="36"/>
+        <v>1.2550090678857349</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="7"/>
+        <v>1.4091187520234514</v>
+      </c>
+      <c r="O29" s="19"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="10"/>
       <c r="R29" s="36"/>
       <c r="S29" s="36"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" s="36"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="21">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B30" s="25">
-        <v>11543100</v>
-      </c>
-      <c r="C30" s="14">
-        <v>250412</v>
+        <v>11216425</v>
+      </c>
+      <c r="C30" s="8">
+        <v>256851.99999999997</v>
       </c>
       <c r="D30" s="25">
-        <v>16858685</v>
+        <v>15409247</v>
       </c>
       <c r="E30" s="90">
-        <v>106325785.0230936</v>
-      </c>
-      <c r="F30" s="60">
-        <v>111713411.80315596</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15">
+        <v>106906149.16516238</v>
+      </c>
+      <c r="F30" s="62">
+        <v>112385827.36091138</v>
+      </c>
+      <c r="G30" s="8">
+        <v>12850224.373886647</v>
+      </c>
+      <c r="H30" s="62">
         <f t="shared" si="1"/>
-        <v>1.9785994969124825</v>
+        <v>20</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="2"/>
-        <v>1.3608756141037346</v>
+        <v>1.9226042278206541</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="3"/>
-        <v>2.2926599241432113</v>
+        <v>1.3958740924307638</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>1.2778694037101019</v>
+        <v>2.095546779486301</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="5"/>
-        <v>1.27394464375247</v>
+        <v>1.2848444717051239</v>
       </c>
       <c r="M30" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="19"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="36"/>
+        <v>1.281612659475486</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="7"/>
+        <v>1.3964447355801066</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="10"/>
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30" s="36"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="21">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B31" s="25">
-        <v>11836425</v>
+        <v>11337475</v>
       </c>
       <c r="C31" s="14">
-        <v>249114</v>
+        <v>253714</v>
       </c>
       <c r="D31" s="25">
-        <v>17533302</v>
+        <v>16201274</v>
       </c>
       <c r="E31" s="90">
-        <v>106555981.82258363</v>
-      </c>
-      <c r="F31" s="60">
-        <v>111970391.22466971</v>
+        <v>104406995.24599802</v>
+      </c>
+      <c r="F31" s="61">
+        <v>109750862.42711647</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="15">
+      <c r="H31" s="62">
         <f t="shared" si="1"/>
-        <v>2.0288782519637127</v>
+        <v>21</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="2"/>
-        <v>1.353821572975088</v>
+        <v>1.9433533739860045</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="3"/>
-        <v>2.3844029847701655</v>
+        <v>1.3788204860658233</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>1.280636008695303</v>
+        <v>2.2032567557827543</v>
       </c>
       <c r="L31" s="15">
         <f t="shared" si="5"/>
-        <v>1.2768751563230547</v>
+        <v>1.2548085558849991</v>
       </c>
       <c r="M31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="36"/>
+        <v>1.2515643473730997</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O31" s="19"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="10"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31" s="36"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="21">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B32" s="25">
-        <v>12246925</v>
+        <v>11543100</v>
       </c>
       <c r="C32" s="14">
-        <v>251911</v>
+        <v>250412</v>
       </c>
       <c r="D32" s="25">
-        <v>18298446</v>
+        <v>16858685</v>
       </c>
       <c r="E32" s="90">
-        <v>108315281.68446116</v>
+        <v>106325785.0230936</v>
       </c>
       <c r="F32" s="60">
-        <v>113833083.79899685</v>
+        <v>111713411.80315596</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="15">
+      <c r="H32" s="62">
         <f t="shared" si="1"/>
-        <v>2.0992419405293989</v>
+        <v>22</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="2"/>
-        <v>1.36902199904352</v>
+        <v>1.9785994969124825</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="3"/>
-        <v>2.4884570663903292</v>
+        <v>1.3608756141037346</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>1.3017800375398247</v>
+        <v>2.2926599241432113</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="5"/>
-        <v>1.2981167171143662</v>
+        <v>1.2778694037101019</v>
       </c>
       <c r="M32" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="36"/>
+        <v>1.27394464375247</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="10"/>
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="21">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B33" s="25">
-        <v>12622950</v>
+        <v>11836425</v>
       </c>
       <c r="C33" s="14">
-        <v>255787</v>
+        <v>249114</v>
       </c>
       <c r="D33" s="25">
-        <v>19139880</v>
+        <v>17533302</v>
       </c>
       <c r="E33" s="90">
-        <v>108463531.05563322</v>
+        <v>106555981.82258363</v>
       </c>
       <c r="F33" s="60">
-        <v>113969654.36221756</v>
+        <v>111970391.22466971</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="15">
+      <c r="H33" s="62">
         <f t="shared" si="1"/>
-        <v>2.1636962791235823</v>
+        <v>23</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="2"/>
-        <v>1.3900863005956263</v>
+        <v>2.0288782519637127</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="3"/>
-        <v>2.6028860393862372</v>
+        <v>1.353821572975088</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>1.3035617627864231</v>
+        <v>2.3844029847701655</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="5"/>
-        <v>1.299674124901856</v>
+        <v>1.280636008695303</v>
       </c>
       <c r="M33" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="19"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="36"/>
+        <v>1.2768751563230547</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O33" s="19"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="10"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="21">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B34" s="25">
-        <v>12958475</v>
+        <v>12246925</v>
       </c>
       <c r="C34" s="14">
-        <v>260462</v>
+        <v>251911</v>
       </c>
       <c r="D34" s="25">
-        <v>19972838</v>
+        <v>18298446</v>
       </c>
       <c r="E34" s="90">
-        <v>107836694.79281902</v>
+        <v>108315281.68446116</v>
       </c>
       <c r="F34" s="60">
-        <v>113257959.51945002</v>
+        <v>113833083.79899685</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="15">
+      <c r="H34" s="62">
         <f t="shared" si="1"/>
-        <v>2.2212085242051947</v>
+        <v>24</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="2"/>
-        <v>1.415492804660667</v>
+        <v>2.0992419405293989</v>
       </c>
       <c r="J34" s="15">
         <f t="shared" si="3"/>
-        <v>2.7161623373356019</v>
+        <v>1.36902199904352</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>1.2960281726867848</v>
+        <v>2.4884570663903292</v>
       </c>
       <c r="L34" s="15">
         <f t="shared" si="5"/>
-        <v>1.2915581805555536</v>
+        <v>1.3017800375398247</v>
       </c>
       <c r="M34" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="36"/>
+        <v>1.2981167171143662</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="10"/>
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="21">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B35" s="25">
-        <v>13206375</v>
+        <v>12622950</v>
       </c>
       <c r="C35" s="14">
-        <v>262271</v>
+        <v>255787</v>
       </c>
       <c r="D35" s="25">
-        <v>20705340</v>
+        <v>19139880</v>
       </c>
       <c r="E35" s="90">
-        <v>109651199.86869588</v>
+        <v>108463531.05563322</v>
       </c>
       <c r="F35" s="60">
-        <v>115155470.86757383</v>
+        <v>113969654.36221756</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="15">
+      <c r="H35" s="62">
         <f t="shared" si="1"/>
-        <v>2.2637009928907821</v>
+        <v>25</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="2"/>
-        <v>1.4253238989609147</v>
+        <v>2.1636962791235823</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="3"/>
-        <v>2.8157773416941714</v>
+        <v>1.3900863005956263</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>1.3178356817386681</v>
+        <v>2.6028860393862372</v>
       </c>
       <c r="L35" s="15">
         <f t="shared" si="5"/>
-        <v>1.3131968037019068</v>
+        <v>1.3035617627864231</v>
       </c>
       <c r="M35" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="19"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="36"/>
+        <v>1.299674124901856</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="10"/>
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="21">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B36" s="25">
-        <v>13161925</v>
+        <v>12958475</v>
       </c>
       <c r="C36" s="14">
-        <v>259440</v>
+        <v>260462</v>
       </c>
       <c r="D36" s="25">
-        <v>21234566</v>
+        <v>19972838</v>
       </c>
       <c r="E36" s="90">
-        <v>107119228.62831052</v>
+        <v>107836694.79281902</v>
       </c>
       <c r="F36" s="60">
-        <v>112410730.11709215</v>
+        <v>113257959.51945002</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="15">
+      <c r="H36" s="62">
         <f t="shared" si="1"/>
-        <v>2.2560818309985899</v>
+        <v>26</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="2"/>
-        <v>1.4099386983174644</v>
+        <v>2.2212085242051947</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="3"/>
-        <v>2.8877482718713834</v>
+        <v>1.415492804660667</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="4"/>
-        <v>1.2874053531174439</v>
+        <v>2.7161623373356019</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="5"/>
-        <v>1.2818966426816121</v>
+        <v>1.2960281726867848</v>
       </c>
       <c r="M36" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="19"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="36"/>
+        <v>1.2915581805555536</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="10"/>
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="21">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B37" s="25">
-        <v>12703125</v>
+        <v>13206375</v>
       </c>
       <c r="C37" s="14">
-        <v>245157</v>
+        <v>262271</v>
       </c>
       <c r="D37" s="25">
-        <v>21354496</v>
+        <v>20705340</v>
       </c>
       <c r="E37" s="90">
-        <v>102401356.7805825</v>
+        <v>109651199.86869588</v>
       </c>
       <c r="F37" s="60">
-        <v>107327062.89090393</v>
+        <v>115155470.86757383</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="15">
+      <c r="H37" s="62">
         <f t="shared" si="1"/>
-        <v>2.1774390531327268</v>
+        <v>27</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="2"/>
-        <v>1.3323170731707317</v>
+        <v>2.2637009928907821</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="3"/>
-        <v>2.9040578894188074</v>
+        <v>1.4253238989609147</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>1.2307039228526457</v>
+        <v>2.8157773416941714</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="5"/>
-        <v>1.2239240991088314</v>
+        <v>1.3178356817386681</v>
       </c>
       <c r="M37" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="19"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="36"/>
+        <v>1.3131968037019068</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O37" s="19"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="10"/>
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="21">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B38" s="25">
-        <v>13087975</v>
+        <v>13161925</v>
       </c>
       <c r="C38" s="14">
-        <v>245055</v>
+        <v>259440</v>
       </c>
       <c r="D38" s="25">
-        <v>21508031</v>
+        <v>21234566</v>
       </c>
       <c r="E38" s="90">
-        <v>105757717.19897434</v>
+        <v>107119228.62831052</v>
       </c>
       <c r="F38" s="60">
-        <v>110905664.95787106</v>
+        <v>112410730.11709215</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="15">
+      <c r="H38" s="62">
         <f t="shared" si="1"/>
-        <v>2.2434060824737849</v>
+        <v>28</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="2"/>
-        <v>1.3317627494456763</v>
+        <v>2.2560818309985899</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="3"/>
-        <v>2.9249375453026043</v>
+        <v>1.4099386983174644</v>
       </c>
       <c r="K38" s="15">
         <f t="shared" si="4"/>
-        <v>1.2710421181977825</v>
+        <v>2.8877482718713834</v>
       </c>
       <c r="L38" s="15">
         <f t="shared" si="5"/>
-        <v>1.2647333525525213</v>
+        <v>1.2874053531174439</v>
       </c>
       <c r="M38" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="19"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="36"/>
+        <v>1.2818966426816121</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O38" s="19"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="10"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="21">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B39" s="25">
-        <v>13315075</v>
+        <v>12703125</v>
       </c>
       <c r="C39" s="14">
-        <v>252860.5</v>
+        <v>245157</v>
       </c>
       <c r="D39" s="25">
-        <v>21763469</v>
+        <v>21354496</v>
       </c>
       <c r="E39" s="90">
-        <v>104723973.3666124</v>
+        <v>102401356.7805825</v>
       </c>
       <c r="F39" s="60">
-        <v>109680159.76989877</v>
+        <v>107327062.89090393</v>
       </c>
       <c r="G39" s="14"/>
-      <c r="H39" s="15">
+      <c r="H39" s="62">
         <f t="shared" si="1"/>
-        <v>2.2823332290590894</v>
+        <v>29</v>
       </c>
       <c r="I39" s="15">
         <f t="shared" si="2"/>
-        <v>1.3741821007782271</v>
+        <v>2.1774390531327268</v>
       </c>
       <c r="J39" s="15">
         <f t="shared" si="3"/>
-        <v>2.9596752763713856</v>
+        <v>1.3323170731707317</v>
       </c>
       <c r="K39" s="15">
         <f t="shared" si="4"/>
-        <v>1.2586181364292732</v>
+        <v>2.9040578894188074</v>
       </c>
       <c r="L39" s="15">
         <f t="shared" si="5"/>
-        <v>1.250758076487557</v>
+        <v>1.2307039228526457</v>
       </c>
       <c r="M39" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="19"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="36"/>
+        <v>1.2239240991088314</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="10"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
     </row>
     <row r="40" spans="1:33">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
+      <c r="A40" s="21">
+        <v>2010</v>
+      </c>
+      <c r="B40" s="25">
+        <v>13087975</v>
+      </c>
+      <c r="C40" s="14">
+        <v>245055</v>
+      </c>
+      <c r="D40" s="25">
+        <v>21508031</v>
+      </c>
+      <c r="E40" s="90">
+        <v>105757717.19897434</v>
+      </c>
+      <c r="F40" s="60">
+        <v>110905664.95787106</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="62">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I40" s="15">
+        <f t="shared" si="2"/>
+        <v>2.2434060824737849</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="3"/>
+        <v>1.3317627494456763</v>
+      </c>
+      <c r="K40" s="15">
+        <f t="shared" si="4"/>
+        <v>2.9249375453026043</v>
+      </c>
+      <c r="L40" s="15">
+        <f t="shared" si="5"/>
+        <v>1.2710421181977825</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" si="6"/>
+        <v>1.2647333525525213</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O40" s="19"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
     </row>
     <row r="41" spans="1:33">
-      <c r="A41" s="2"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
+      <c r="A41" s="21">
+        <v>2011</v>
+      </c>
+      <c r="B41" s="25">
+        <v>13315075</v>
+      </c>
+      <c r="C41" s="14">
+        <v>252860.5</v>
+      </c>
+      <c r="D41" s="25">
+        <v>21763469</v>
+      </c>
+      <c r="E41" s="90">
+        <v>104723973.3666124</v>
+      </c>
+      <c r="F41" s="60">
+        <v>109680159.76989877</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="62">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" si="2"/>
+        <v>2.2823332290590894</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="3"/>
+        <v>1.3741821007782271</v>
+      </c>
+      <c r="K41" s="15">
+        <f t="shared" si="4"/>
+        <v>2.9596752763713856</v>
+      </c>
+      <c r="L41" s="15">
+        <f t="shared" si="5"/>
+        <v>1.2586181364292732</v>
+      </c>
+      <c r="M41" s="15">
+        <f t="shared" si="6"/>
+        <v>1.250758076487557</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O41" s="19"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
     </row>
     <row r="42" spans="1:33">
-      <c r="A42" s="21"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="2"/>
@@ -11334,31 +11490,71 @@
       <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:33">
-      <c r="A44" s="2"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="2"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:33">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:33">
+      <c r="A47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="L8:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11366,6 +11562,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="46" t="str">
+        <f>'United States Workbook'!H7</f>
+        <v>iYear</v>
+      </c>
+      <c r="B1" s="46" t="str">
+        <f>'United States Workbook'!I7</f>
+        <v>iGDP</v>
+      </c>
+      <c r="C1" s="46" t="str">
+        <f>'United States Workbook'!J7</f>
+        <v>iLabor</v>
+      </c>
+      <c r="D1" s="46" t="str">
+        <f>'United States Workbook'!K7</f>
+        <v>iCapStk</v>
+      </c>
+      <c r="E1" s="46" t="str">
+        <f>'United States Workbook'!L7</f>
+        <v>iQ</v>
+      </c>
+      <c r="F1" s="46" t="str">
+        <f>'United States Workbook'!M7</f>
+        <v>iX</v>
+      </c>
+      <c r="G1" s="46" t="str">
+        <f>'United States Workbook'!N7</f>
+        <v>iU</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="149">
+        <f>'United States Workbook'!H10</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="150">
+        <f>'United States Workbook'!I10</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="150">
+        <f>'United States Workbook'!J10</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="150">
+        <f>'United States Workbook'!K10</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="150">
+        <f>'United States Workbook'!L10</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="150">
+        <f>'United States Workbook'!M10</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="150">
+        <f>'United States Workbook'!N10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="149">
+        <f>'United States Workbook'!H11</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="150">
+        <f>'United States Workbook'!I11</f>
+        <v>1.0253857789928822</v>
+      </c>
+      <c r="C3" s="150">
+        <f>'United States Workbook'!J11</f>
+        <v>1.0020977348810922</v>
+      </c>
+      <c r="D3" s="150">
+        <f>'United States Workbook'!K11</f>
+        <v>1.0322020091577557</v>
+      </c>
+      <c r="E3" s="150">
+        <f>'United States Workbook'!L11</f>
+        <v>0.97675457762464424</v>
+      </c>
+      <c r="F3" s="150">
+        <f>'United States Workbook'!M11</f>
+        <v>0.97642733276965432</v>
+      </c>
+      <c r="G3" s="150">
+        <f>'United States Workbook'!N11</f>
+        <v>0.96168717730646613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="149">
+        <f>'United States Workbook'!H12</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="150">
+        <f>'United States Workbook'!I12</f>
+        <v>1.0054765404376946</v>
+      </c>
+      <c r="C4" s="150">
+        <f>'United States Workbook'!J12</f>
+        <v>0.98717447067518804</v>
+      </c>
+      <c r="D4" s="150">
+        <f>'United States Workbook'!K12</f>
+        <v>1.0551144855460044</v>
+      </c>
+      <c r="E4" s="150">
+        <f>'United States Workbook'!L12</f>
+        <v>0.93893758076404543</v>
+      </c>
+      <c r="F4" s="150">
+        <f>'United States Workbook'!M12</f>
+        <v>0.93792480115235277</v>
+      </c>
+      <c r="G4" s="150">
+        <f>'United States Workbook'!N12</f>
+        <v>0.9148294667349629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="149">
+        <f>'United States Workbook'!H13</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="150">
+        <f>'United States Workbook'!I13</f>
+        <v>1.0509001152730342</v>
+      </c>
+      <c r="C5" s="150">
+        <f>'United States Workbook'!J13</f>
+        <v>1.0048910916916656</v>
+      </c>
+      <c r="D5" s="150">
+        <f>'United States Workbook'!K13</f>
+        <v>1.0829322225440718</v>
+      </c>
+      <c r="E5" s="150">
+        <f>'United States Workbook'!L13</f>
+        <v>0.93368099180744046</v>
+      </c>
+      <c r="F5" s="150">
+        <f>'United States Workbook'!M13</f>
+        <v>0.93269982330788503</v>
+      </c>
+      <c r="G5" s="150">
+        <f>'United States Workbook'!N13</f>
+        <v>0.91158058574848388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="149">
+        <f>'United States Workbook'!H14</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="150">
+        <f>'United States Workbook'!I14</f>
+        <v>1.1264232363011497</v>
+      </c>
+      <c r="C6" s="150">
+        <f>'United States Workbook'!J14</f>
+        <v>1.0555845398026173</v>
+      </c>
+      <c r="D6" s="150">
+        <f>'United States Workbook'!K14</f>
+        <v>1.1252643360219112</v>
+      </c>
+      <c r="E6" s="150">
+        <f>'United States Workbook'!L14</f>
+        <v>0.97986843314985783</v>
+      </c>
+      <c r="F6" s="150">
+        <f>'United States Workbook'!M14</f>
+        <v>0.97898428758509615</v>
+      </c>
+      <c r="G6" s="150">
+        <f>'United States Workbook'!N14</f>
+        <v>0.96572748103939288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="149">
+        <f>'United States Workbook'!H15</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="150">
+        <f>'United States Workbook'!I15</f>
+        <v>1.1730252529364626</v>
+      </c>
+      <c r="C7" s="150">
+        <f>'United States Workbook'!J15</f>
+        <v>1.079724794574149</v>
+      </c>
+      <c r="D7" s="150">
+        <f>'United States Workbook'!K15</f>
+        <v>1.1717601413237269</v>
+      </c>
+      <c r="E7" s="150">
+        <f>'United States Workbook'!L15</f>
+        <v>0.97904834959387554</v>
+      </c>
+      <c r="F7" s="150">
+        <f>'United States Workbook'!M15</f>
+        <v>0.97820693123439895</v>
+      </c>
+      <c r="G7" s="150">
+        <f>'United States Workbook'!N15</f>
+        <v>0.97818281172401245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="149">
+        <f>'United States Workbook'!H16</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="150">
+        <f>'United States Workbook'!I16</f>
+        <v>1.2136664966853645</v>
+      </c>
+      <c r="C8" s="150">
+        <f>'United States Workbook'!J16</f>
+        <v>1.0923709838702664</v>
+      </c>
+      <c r="D8" s="150">
+        <f>'United States Workbook'!K16</f>
+        <v>1.2171977865810455</v>
+      </c>
+      <c r="E8" s="150">
+        <f>'United States Workbook'!L16</f>
+        <v>0.98176546651016883</v>
+      </c>
+      <c r="F8" s="150">
+        <f>'United States Workbook'!M16</f>
+        <v>0.98083165159731767</v>
+      </c>
+      <c r="G8" s="150">
+        <f>'United States Workbook'!N16</f>
+        <v>0.97122135256145103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="149">
+        <f>'United States Workbook'!H17</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="150">
+        <f>'United States Workbook'!I17</f>
+        <v>1.2524993679266709</v>
+      </c>
+      <c r="C9" s="150">
+        <f>'United States Workbook'!J17</f>
+        <v>1.1219783922438156</v>
+      </c>
+      <c r="D9" s="150">
+        <f>'United States Workbook'!K17</f>
+        <v>1.2608159840507633</v>
+      </c>
+      <c r="E9" s="150">
+        <f>'United States Workbook'!L17</f>
+        <v>1.0133869021190081</v>
+      </c>
+      <c r="F9" s="150">
+        <f>'United States Workbook'!M17</f>
+        <v>1.0125679375140006</v>
+      </c>
+      <c r="G9" s="150">
+        <f>'United States Workbook'!N17</f>
+        <v>1.0050566048005822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="149">
+        <f>'United States Workbook'!H18</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="150">
+        <f>'United States Workbook'!I18</f>
+        <v>1.3039822762353284</v>
+      </c>
+      <c r="C10" s="150">
+        <f>'United States Workbook'!J18</f>
+        <v>1.1554660666927525</v>
+      </c>
+      <c r="D10" s="150">
+        <f>'United States Workbook'!K18</f>
+        <v>1.305396194649227</v>
+      </c>
+      <c r="E10" s="150">
+        <f>'United States Workbook'!L18</f>
+        <v>1.0590044480422212</v>
+      </c>
+      <c r="F10" s="150">
+        <f>'United States Workbook'!M18</f>
+        <v>1.0582013088612934</v>
+      </c>
+      <c r="G10" s="150">
+        <f>'United States Workbook'!N18</f>
+        <v>1.0731648261553837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="149">
+        <f>'United States Workbook'!H19</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="150">
+        <f>'United States Workbook'!I19</f>
+        <v>1.3505671518990054</v>
+      </c>
+      <c r="C11" s="150">
+        <f>'United States Workbook'!J19</f>
+        <v>1.1874048954393288</v>
+      </c>
+      <c r="D11" s="150">
+        <f>'United States Workbook'!K19</f>
+        <v>1.3511229606178425</v>
+      </c>
+      <c r="E11" s="150">
+        <f>'United States Workbook'!L19</f>
+        <v>1.091477096137206</v>
+      </c>
+      <c r="F11" s="150">
+        <f>'United States Workbook'!M19</f>
+        <v>1.0896878096945122</v>
+      </c>
+      <c r="G11" s="150">
+        <f>'United States Workbook'!N19</f>
+        <v>1.132762084079274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="149">
+        <f>'United States Workbook'!H20</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="150">
+        <f>'United States Workbook'!I20</f>
+        <v>1.3759100784627976</v>
+      </c>
+      <c r="C12" s="150">
+        <f>'United States Workbook'!J20</f>
+        <v>1.1894482848571801</v>
+      </c>
+      <c r="D12" s="150">
+        <f>'United States Workbook'!K20</f>
+        <v>1.392744919648649</v>
+      </c>
+      <c r="E12" s="150">
+        <f>'United States Workbook'!L20</f>
+        <v>1.0973116942545786</v>
+      </c>
+      <c r="F12" s="150">
+        <f>'United States Workbook'!M20</f>
+        <v>1.0947824920207399</v>
+      </c>
+      <c r="G12" s="150">
+        <f>'United States Workbook'!N20</f>
+        <v>1.1515878312567835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="149">
+        <f>'United States Workbook'!H21</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="150">
+        <f>'United States Workbook'!I21</f>
+        <v>1.37270471676687</v>
+      </c>
+      <c r="C13" s="150">
+        <f>'United States Workbook'!J21</f>
+        <v>1.1726174948915264</v>
+      </c>
+      <c r="D13" s="150">
+        <f>'United States Workbook'!K21</f>
+        <v>1.4245782523020183</v>
+      </c>
+      <c r="E13" s="150">
+        <f>'United States Workbook'!L21</f>
+        <v>1.0970304534357245</v>
+      </c>
+      <c r="F13" s="150">
+        <f>'United States Workbook'!M21</f>
+        <v>1.0940935849901903</v>
+      </c>
+      <c r="G13" s="150">
+        <f>'United States Workbook'!N21</f>
+        <v>1.1388630838040485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="149">
+        <f>'United States Workbook'!H22</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="150">
+        <f>'United States Workbook'!I22</f>
+        <v>1.41927673670182</v>
+      </c>
+      <c r="C14" s="150">
+        <f>'United States Workbook'!J22</f>
+        <v>1.1735631059519152</v>
+      </c>
+      <c r="D14" s="150">
+        <f>'United States Workbook'!K22</f>
+        <v>1.4611842525767238</v>
+      </c>
+      <c r="E14" s="150">
+        <f>'United States Workbook'!L22</f>
+        <v>1.1126031845324349</v>
+      </c>
+      <c r="F14" s="150">
+        <f>'United States Workbook'!M22</f>
+        <v>1.1098333657897044</v>
+      </c>
+      <c r="G14" s="150">
+        <f>'United States Workbook'!N22</f>
+        <v>1.1874189587884159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="149">
+        <f>'United States Workbook'!H23</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="150">
+        <f>'United States Workbook'!I23</f>
+        <v>1.4597551412201801</v>
+      </c>
+      <c r="C15" s="150">
+        <f>'United States Workbook'!J23</f>
+        <v>1.2010347376201034</v>
+      </c>
+      <c r="D15" s="150">
+        <f>'United States Workbook'!K23</f>
+        <v>1.5048028580248676</v>
+      </c>
+      <c r="E15" s="150">
+        <f>'United States Workbook'!L23</f>
+        <v>1.1340206277761917</v>
+      </c>
+      <c r="F15" s="150">
+        <f>'United States Workbook'!M23</f>
+        <v>1.1311864847021107</v>
+      </c>
+      <c r="G15" s="150">
+        <f>'United States Workbook'!N23</f>
+        <v>1.1995642582030086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="149">
+        <f>'United States Workbook'!H24</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="150">
+        <f>'United States Workbook'!I24</f>
+        <v>1.519225742311203</v>
+      </c>
+      <c r="C16" s="150">
+        <f>'United States Workbook'!J24</f>
+        <v>1.2386200599973913</v>
+      </c>
+      <c r="D16" s="150">
+        <f>'United States Workbook'!K24</f>
+        <v>1.5570251845082432</v>
+      </c>
+      <c r="E16" s="150">
+        <f>'United States Workbook'!L24</f>
+        <v>1.1561006055992233</v>
+      </c>
+      <c r="F16" s="150">
+        <f>'United States Workbook'!M24</f>
+        <v>1.1531941458390789</v>
+      </c>
+      <c r="G16" s="150">
+        <f>'United States Workbook'!N24</f>
+        <v>1.2387054028291842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="149">
+        <f>'United States Workbook'!H25</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="150">
+        <f>'United States Workbook'!I25</f>
+        <v>1.5574243976019781</v>
+      </c>
+      <c r="C17" s="150">
+        <f>'United States Workbook'!J25</f>
+        <v>1.2691350376070605</v>
+      </c>
+      <c r="D17" s="150">
+        <f>'United States Workbook'!K25</f>
+        <v>1.6154642862485431</v>
+      </c>
+      <c r="E17" s="150">
+        <f>'United States Workbook'!L25</f>
+        <v>1.1815576361804059</v>
+      </c>
+      <c r="F17" s="150">
+        <f>'United States Workbook'!M25</f>
+        <v>1.1778527588845169</v>
+      </c>
+      <c r="G17" s="150">
+        <f>'United States Workbook'!N25</f>
+        <v>1.2919642899061348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="149">
+        <f>'United States Workbook'!H26</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="150">
+        <f>'United States Workbook'!I26</f>
+        <v>1.6156822749497555</v>
+      </c>
+      <c r="C18" s="150">
+        <f>'United States Workbook'!J26</f>
+        <v>1.2849767401417329</v>
+      </c>
+      <c r="D18" s="150">
+        <f>'United States Workbook'!K26</f>
+        <v>1.6848298661966756</v>
+      </c>
+      <c r="E18" s="150">
+        <f>'United States Workbook'!L26</f>
+        <v>1.2199552231190838</v>
+      </c>
+      <c r="F18" s="150">
+        <f>'United States Workbook'!M26</f>
+        <v>1.2164062756398868</v>
+      </c>
+      <c r="G18" s="150">
+        <f>'United States Workbook'!N26</f>
+        <v>1.3335423024180206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="149">
+        <f>'United States Workbook'!H27</f>
+        <v>17</v>
+      </c>
+      <c r="B19" s="150">
+        <f>'United States Workbook'!I27</f>
+        <v>1.6876872115495867</v>
+      </c>
+      <c r="C19" s="150">
+        <f>'United States Workbook'!J27</f>
+        <v>1.3226164079822615</v>
+      </c>
+      <c r="D19" s="150">
+        <f>'United States Workbook'!K27</f>
+        <v>1.7661721968142325</v>
+      </c>
+      <c r="E19" s="150">
+        <f>'United States Workbook'!L27</f>
+        <v>1.2302531525034239</v>
+      </c>
+      <c r="F19" s="150">
+        <f>'United States Workbook'!M27</f>
+        <v>1.2270879520392413</v>
+      </c>
+      <c r="G19" s="150">
+        <f>'United States Workbook'!N27</f>
+        <v>1.3522881805788678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="149">
+        <f>'United States Workbook'!H28</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="150">
+        <f>'United States Workbook'!I28</f>
+        <v>1.7611919831675658</v>
+      </c>
+      <c r="C20" s="150">
+        <f>'United States Workbook'!J28</f>
+        <v>1.3510825616277553</v>
+      </c>
+      <c r="D20" s="150">
+        <f>'United States Workbook'!K28</f>
+        <v>1.8634435011076613</v>
+      </c>
+      <c r="E20" s="150">
+        <f>'United States Workbook'!L28</f>
+        <v>1.2383866028607038</v>
+      </c>
+      <c r="F20" s="150">
+        <f>'United States Workbook'!M28</f>
+        <v>1.2353135766143875</v>
+      </c>
+      <c r="G20" s="150">
+        <f>'United States Workbook'!N28</f>
+        <v>1.3668763473090262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="149">
+        <f>'United States Workbook'!H29</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="150">
+        <f>'United States Workbook'!I29</f>
+        <v>1.8461897762674677</v>
+      </c>
+      <c r="C21" s="150">
+        <f>'United States Workbook'!J29</f>
+        <v>1.3775161949480457</v>
+      </c>
+      <c r="D21" s="150">
+        <f>'United States Workbook'!K29</f>
+        <v>1.9744542948568879</v>
+      </c>
+      <c r="E21" s="150">
+        <f>'United States Workbook'!L29</f>
+        <v>1.2584310420845322</v>
+      </c>
+      <c r="F21" s="150">
+        <f>'United States Workbook'!M29</f>
+        <v>1.2550090678857349</v>
+      </c>
+      <c r="G21" s="150">
+        <f>'United States Workbook'!N29</f>
+        <v>1.4091187520234514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="149">
+        <f>'United States Workbook'!H30</f>
+        <v>20</v>
+      </c>
+      <c r="B22" s="150">
+        <f>'United States Workbook'!I30</f>
+        <v>1.9226042278206541</v>
+      </c>
+      <c r="C22" s="150">
+        <f>'United States Workbook'!J30</f>
+        <v>1.3958740924307638</v>
+      </c>
+      <c r="D22" s="150">
+        <f>'United States Workbook'!K30</f>
+        <v>2.095546779486301</v>
+      </c>
+      <c r="E22" s="150">
+        <f>'United States Workbook'!L30</f>
+        <v>1.2848444717051239</v>
+      </c>
+      <c r="F22" s="150">
+        <f>'United States Workbook'!M30</f>
+        <v>1.281612659475486</v>
+      </c>
+      <c r="G22" s="150">
+        <f>'United States Workbook'!N30</f>
+        <v>1.3964447355801066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="149">
+        <f>'United States Workbook'!H31</f>
+        <v>21</v>
+      </c>
+      <c r="B23" s="150">
+        <f>'United States Workbook'!I31</f>
+        <v>1.9433533739860045</v>
+      </c>
+      <c r="C23" s="150">
+        <f>'United States Workbook'!J31</f>
+        <v>1.3788204860658233</v>
+      </c>
+      <c r="D23" s="150">
+        <f>'United States Workbook'!K31</f>
+        <v>2.2032567557827543</v>
+      </c>
+      <c r="E23" s="150">
+        <f>'United States Workbook'!L31</f>
+        <v>1.2548085558849991</v>
+      </c>
+      <c r="F23" s="150">
+        <f>'United States Workbook'!M31</f>
+        <v>1.2515643473730997</v>
+      </c>
+      <c r="G23" s="150" t="str">
+        <f>'United States Workbook'!N31</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="149">
+        <f>'United States Workbook'!H32</f>
+        <v>22</v>
+      </c>
+      <c r="B24" s="150">
+        <f>'United States Workbook'!I32</f>
+        <v>1.9785994969124825</v>
+      </c>
+      <c r="C24" s="150">
+        <f>'United States Workbook'!J32</f>
+        <v>1.3608756141037346</v>
+      </c>
+      <c r="D24" s="150">
+        <f>'United States Workbook'!K32</f>
+        <v>2.2926599241432113</v>
+      </c>
+      <c r="E24" s="150">
+        <f>'United States Workbook'!L32</f>
+        <v>1.2778694037101019</v>
+      </c>
+      <c r="F24" s="150">
+        <f>'United States Workbook'!M32</f>
+        <v>1.27394464375247</v>
+      </c>
+      <c r="G24" s="150" t="str">
+        <f>'United States Workbook'!N32</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="149">
+        <f>'United States Workbook'!H33</f>
+        <v>23</v>
+      </c>
+      <c r="B25" s="150">
+        <f>'United States Workbook'!I33</f>
+        <v>2.0288782519637127</v>
+      </c>
+      <c r="C25" s="150">
+        <f>'United States Workbook'!J33</f>
+        <v>1.353821572975088</v>
+      </c>
+      <c r="D25" s="150">
+        <f>'United States Workbook'!K33</f>
+        <v>2.3844029847701655</v>
+      </c>
+      <c r="E25" s="150">
+        <f>'United States Workbook'!L33</f>
+        <v>1.280636008695303</v>
+      </c>
+      <c r="F25" s="150">
+        <f>'United States Workbook'!M33</f>
+        <v>1.2768751563230547</v>
+      </c>
+      <c r="G25" s="150" t="str">
+        <f>'United States Workbook'!N33</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="149">
+        <f>'United States Workbook'!H34</f>
+        <v>24</v>
+      </c>
+      <c r="B26" s="150">
+        <f>'United States Workbook'!I34</f>
+        <v>2.0992419405293989</v>
+      </c>
+      <c r="C26" s="150">
+        <f>'United States Workbook'!J34</f>
+        <v>1.36902199904352</v>
+      </c>
+      <c r="D26" s="150">
+        <f>'United States Workbook'!K34</f>
+        <v>2.4884570663903292</v>
+      </c>
+      <c r="E26" s="150">
+        <f>'United States Workbook'!L34</f>
+        <v>1.3017800375398247</v>
+      </c>
+      <c r="F26" s="150">
+        <f>'United States Workbook'!M34</f>
+        <v>1.2981167171143662</v>
+      </c>
+      <c r="G26" s="150" t="str">
+        <f>'United States Workbook'!N34</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="149">
+        <f>'United States Workbook'!H35</f>
+        <v>25</v>
+      </c>
+      <c r="B27" s="150">
+        <f>'United States Workbook'!I35</f>
+        <v>2.1636962791235823</v>
+      </c>
+      <c r="C27" s="150">
+        <f>'United States Workbook'!J35</f>
+        <v>1.3900863005956263</v>
+      </c>
+      <c r="D27" s="150">
+        <f>'United States Workbook'!K35</f>
+        <v>2.6028860393862372</v>
+      </c>
+      <c r="E27" s="150">
+        <f>'United States Workbook'!L35</f>
+        <v>1.3035617627864231</v>
+      </c>
+      <c r="F27" s="150">
+        <f>'United States Workbook'!M35</f>
+        <v>1.299674124901856</v>
+      </c>
+      <c r="G27" s="150" t="str">
+        <f>'United States Workbook'!N35</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="149">
+        <f>'United States Workbook'!H36</f>
+        <v>26</v>
+      </c>
+      <c r="B28" s="150">
+        <f>'United States Workbook'!I36</f>
+        <v>2.2212085242051947</v>
+      </c>
+      <c r="C28" s="150">
+        <f>'United States Workbook'!J36</f>
+        <v>1.415492804660667</v>
+      </c>
+      <c r="D28" s="150">
+        <f>'United States Workbook'!K36</f>
+        <v>2.7161623373356019</v>
+      </c>
+      <c r="E28" s="150">
+        <f>'United States Workbook'!L36</f>
+        <v>1.2960281726867848</v>
+      </c>
+      <c r="F28" s="150">
+        <f>'United States Workbook'!M36</f>
+        <v>1.2915581805555536</v>
+      </c>
+      <c r="G28" s="150" t="str">
+        <f>'United States Workbook'!N36</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="149">
+        <f>'United States Workbook'!H37</f>
+        <v>27</v>
+      </c>
+      <c r="B29" s="150">
+        <f>'United States Workbook'!I37</f>
+        <v>2.2637009928907821</v>
+      </c>
+      <c r="C29" s="150">
+        <f>'United States Workbook'!J37</f>
+        <v>1.4253238989609147</v>
+      </c>
+      <c r="D29" s="150">
+        <f>'United States Workbook'!K37</f>
+        <v>2.8157773416941714</v>
+      </c>
+      <c r="E29" s="150">
+        <f>'United States Workbook'!L37</f>
+        <v>1.3178356817386681</v>
+      </c>
+      <c r="F29" s="150">
+        <f>'United States Workbook'!M37</f>
+        <v>1.3131968037019068</v>
+      </c>
+      <c r="G29" s="150" t="str">
+        <f>'United States Workbook'!N37</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="149">
+        <f>'United States Workbook'!H38</f>
+        <v>28</v>
+      </c>
+      <c r="B30" s="150">
+        <f>'United States Workbook'!I38</f>
+        <v>2.2560818309985899</v>
+      </c>
+      <c r="C30" s="150">
+        <f>'United States Workbook'!J38</f>
+        <v>1.4099386983174644</v>
+      </c>
+      <c r="D30" s="150">
+        <f>'United States Workbook'!K38</f>
+        <v>2.8877482718713834</v>
+      </c>
+      <c r="E30" s="150">
+        <f>'United States Workbook'!L38</f>
+        <v>1.2874053531174439</v>
+      </c>
+      <c r="F30" s="150">
+        <f>'United States Workbook'!M38</f>
+        <v>1.2818966426816121</v>
+      </c>
+      <c r="G30" s="150" t="str">
+        <f>'United States Workbook'!N38</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="149">
+        <f>'United States Workbook'!H39</f>
+        <v>29</v>
+      </c>
+      <c r="B31" s="150">
+        <f>'United States Workbook'!I39</f>
+        <v>2.1774390531327268</v>
+      </c>
+      <c r="C31" s="150">
+        <f>'United States Workbook'!J39</f>
+        <v>1.3323170731707317</v>
+      </c>
+      <c r="D31" s="150">
+        <f>'United States Workbook'!K39</f>
+        <v>2.9040578894188074</v>
+      </c>
+      <c r="E31" s="150">
+        <f>'United States Workbook'!L39</f>
+        <v>1.2307039228526457</v>
+      </c>
+      <c r="F31" s="150">
+        <f>'United States Workbook'!M39</f>
+        <v>1.2239240991088314</v>
+      </c>
+      <c r="G31" s="150" t="str">
+        <f>'United States Workbook'!N39</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="149">
+        <f>'United States Workbook'!H40</f>
+        <v>30</v>
+      </c>
+      <c r="B32" s="150">
+        <f>'United States Workbook'!I40</f>
+        <v>2.2434060824737849</v>
+      </c>
+      <c r="C32" s="150">
+        <f>'United States Workbook'!J40</f>
+        <v>1.3317627494456763</v>
+      </c>
+      <c r="D32" s="150">
+        <f>'United States Workbook'!K40</f>
+        <v>2.9249375453026043</v>
+      </c>
+      <c r="E32" s="150">
+        <f>'United States Workbook'!L40</f>
+        <v>1.2710421181977825</v>
+      </c>
+      <c r="F32" s="150">
+        <f>'United States Workbook'!M40</f>
+        <v>1.2647333525525213</v>
+      </c>
+      <c r="G32" s="150" t="str">
+        <f>'United States Workbook'!N40</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="149">
+        <f>'United States Workbook'!H41</f>
+        <v>31</v>
+      </c>
+      <c r="B33" s="150">
+        <f>'United States Workbook'!I41</f>
+        <v>2.2823332290590894</v>
+      </c>
+      <c r="C33" s="150">
+        <f>'United States Workbook'!J41</f>
+        <v>1.3741821007782271</v>
+      </c>
+      <c r="D33" s="150">
+        <f>'United States Workbook'!K41</f>
+        <v>2.9596752763713856</v>
+      </c>
+      <c r="E33" s="150">
+        <f>'United States Workbook'!L41</f>
+        <v>1.2586181364292732</v>
+      </c>
+      <c r="F33" s="150">
+        <f>'United States Workbook'!M41</f>
+        <v>1.250758076487557</v>
+      </c>
+      <c r="G33" s="150" t="str">
+        <f>'United States Workbook'!N41</f>
+        <v>NA</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
@@ -11395,24 +12596,24 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="137" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="39">
@@ -12039,7 +13240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ99"/>
   <sheetViews>
@@ -12497,141 +13698,141 @@
       <c r="AI27" s="63"/>
     </row>
     <row r="28" spans="1:35">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="137" t="s">
+      <c r="D28" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="137" t="s">
+      <c r="E28" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="137" t="s">
+      <c r="F28" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="137" t="s">
+      <c r="G28" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="137" t="s">
+      <c r="H28" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="137" t="s">
+      <c r="I28" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="137" t="s">
+      <c r="J28" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="137" t="s">
+      <c r="K28" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="L28" s="141" t="s">
+      <c r="L28" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="143" t="s">
+      <c r="M28" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="N28" s="137" t="s">
+      <c r="N28" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="137" t="s">
+      <c r="O28" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="P28" s="141" t="s">
+      <c r="P28" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="Q28" s="143" t="s">
+      <c r="Q28" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="137" t="s">
+      <c r="R28" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="S28" s="137" t="s">
+      <c r="S28" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="T28" s="137" t="s">
+      <c r="T28" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="U28" s="137" t="s">
+      <c r="U28" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="V28" s="137" t="s">
+      <c r="V28" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="W28" s="137" t="s">
+      <c r="W28" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="X28" s="139" t="s">
+      <c r="X28" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="141" t="s">
+      <c r="Y28" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="Z28" s="143" t="s">
+      <c r="Z28" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="AA28" s="137" t="s">
+      <c r="AA28" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="AB28" s="137" t="s">
+      <c r="AB28" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="AC28" s="137" t="s">
+      <c r="AC28" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="AD28" s="137" t="s">
+      <c r="AD28" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="AE28" s="137" t="s">
+      <c r="AE28" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="AF28" s="137" t="s">
+      <c r="AF28" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="AG28" s="139" t="s">
+      <c r="AG28" s="140" t="s">
         <v>94</v>
       </c>
       <c r="AI28" s="63"/>
     </row>
     <row r="29" spans="1:35">
-      <c r="A29" s="142"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="142"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="140"/>
-      <c r="Y29" s="142"/>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="138"/>
-      <c r="AB29" s="138"/>
-      <c r="AC29" s="138"/>
-      <c r="AD29" s="138"/>
-      <c r="AE29" s="138"/>
-      <c r="AF29" s="138"/>
-      <c r="AG29" s="140"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="143"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="141"/>
+      <c r="Y29" s="143"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="139"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="141"/>
       <c r="AI29" s="112"/>
     </row>
     <row r="30" spans="1:35">
@@ -16974,7 +18175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA105"/>
   <sheetViews>
@@ -23132,7 +24333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H118"/>
   <sheetViews>
@@ -23160,55 +24361,55 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="145" t="s">
+      <c r="E5" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="146"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="147"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16">
@@ -25033,7 +26234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI118"/>
   <sheetViews>
@@ -25069,23 +26270,23 @@
     </row>
     <row r="3" spans="1:61">
       <c r="A3" s="16"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="146"/>
+      <c r="E3" s="147"/>
     </row>
     <row r="4" spans="1:61" ht="16.5" customHeight="1">
       <c r="A4" s="16"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
       <c r="I4" s="9"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -25142,16 +26343,16 @@
     </row>
     <row r="5" spans="1:61" ht="15" customHeight="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="145" t="s">
+      <c r="E5" s="146" t="s">
         <v>11</v>
       </c>
     </row>
@@ -25159,10 +26360,10 @@
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>

--- a/data/Excel Workbooks/UnitedStatesDataWorkbook.xlsx
+++ b/data/Excel Workbooks/UnitedStatesDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="18195" windowHeight="11580"/>
+    <workbookView xWindow="480" yWindow="320" windowWidth="20640" windowHeight="17240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="United States Workbook" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,17 @@
   <definedNames>
     <definedName name="k_1">[1]Parameters!$B$11</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
   <si>
     <t>Year</t>
   </si>
@@ -1079,6 +1084,12 @@
   <si>
     <t xml:space="preserve"> - The 'USData' tab has the indexed data from this page formatted for direct exporting into R (a statistical analysis program).</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
 </sst>
 </file>
 
@@ -1096,7 +1107,7 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1976,18 +1987,18 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1996,36 +2007,36 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2043,7 +2054,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2052,7 +2063,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
@@ -2065,7 +2076,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2076,22 +2087,22 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2100,7 +2111,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2115,7 +2126,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2126,7 +2137,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2139,7 +2150,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2182,7 +2193,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1114">
+  <cellStyleXfs count="1118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3303,6 +3314,10 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3612,6 +3627,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3627,12 +3648,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3645,6 +3660,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3654,14 +3675,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1114">
+  <cellStyles count="1118">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="2"/>
     <cellStyle name="20% - Accent1" xfId="29" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="53"/>
@@ -3978,7 +3993,6 @@
     <cellStyle name="Explanatory Text 7" xfId="327"/>
     <cellStyle name="Explanatory Text 8" xfId="328"/>
     <cellStyle name="Explanatory Text 9" xfId="329"/>
-    <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
@@ -4324,6 +4338,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1111" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="4"/>
     <cellStyle name="Good" xfId="17" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="330"/>
     <cellStyle name="Good 11" xfId="331"/>
@@ -4529,6 +4546,8 @@
     <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="679" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="905" hidden="1"/>
     <cellStyle name="Hyperlink 11" xfId="681" hidden="1"/>
@@ -4808,10 +4827,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.733085281035045E-2"/>
-          <c:y val="7.2861426451440128E-2"/>
-          <c:w val="0.89418691272200201"/>
-          <c:h val="0.8417343136916986"/>
+          <c:x val="0.0673308528103505"/>
+          <c:y val="0.0728614264514401"/>
+          <c:w val="0.894186912722002"/>
+          <c:h val="0.841734313691699"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4840,100 +4859,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4945,37 +4964,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0253857789928822</c:v>
+                  <c:v>1.025385778992882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0054765404376946</c:v>
+                  <c:v>1.005476540437695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0509001152730342</c:v>
+                  <c:v>1.050900115273034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1264232363011497</c:v>
+                  <c:v>1.12642323630115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1730252529364626</c:v>
+                  <c:v>1.173025252936463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2136664966853645</c:v>
+                  <c:v>1.213666496685365</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2524993679266709</c:v>
+                  <c:v>1.252499367926671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3039822762353284</c:v>
+                  <c:v>1.303982276235328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3505671518990054</c:v>
+                  <c:v>1.350567151899005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3759100784627976</c:v>
+                  <c:v>1.375910078462798</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.37270471676687</c:v>
@@ -4984,61 +5003,61 @@
                   <c:v>1.41927673670182</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4597551412201801</c:v>
+                  <c:v>1.45975514122018</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.519225742311203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5574243976019781</c:v>
+                  <c:v>1.557424397601978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6156822749497555</c:v>
+                  <c:v>1.615682274949755</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6876872115495867</c:v>
+                  <c:v>1.687687211549587</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7611919831675658</c:v>
+                  <c:v>1.761191983167566</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8461897762674677</c:v>
+                  <c:v>1.846189776267468</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9226042278206541</c:v>
+                  <c:v>1.922604227820654</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9433533739860045</c:v>
+                  <c:v>1.943353373986004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9785994969124825</c:v>
+                  <c:v>1.978599496912482</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0288782519637127</c:v>
+                  <c:v>2.028878251963713</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0992419405293989</c:v>
+                  <c:v>2.099241940529399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1636962791235823</c:v>
+                  <c:v>2.163696279123582</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2212085242051947</c:v>
+                  <c:v>2.221208524205195</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2637009928907821</c:v>
+                  <c:v>2.263700992890782</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2560818309985899</c:v>
+                  <c:v>2.25608183099859</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1774390531327268</c:v>
+                  <c:v>2.177439053132727</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2434060824737849</c:v>
+                  <c:v>2.243406082473785</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2823332290590894</c:v>
+                  <c:v>2.282333229059089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5068,100 +5087,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5173,100 +5192,100 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0322020091577557</c:v>
+                  <c:v>1.032202009157756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0551144855460044</c:v>
+                  <c:v>1.055114485546004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0829322225440718</c:v>
+                  <c:v>1.082932222544072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1252643360219112</c:v>
+                  <c:v>1.125264336021911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1717601413237269</c:v>
+                  <c:v>1.171760141323727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2171977865810455</c:v>
+                  <c:v>1.217197786581045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2608159840507633</c:v>
+                  <c:v>1.260815984050763</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.305396194649227</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3511229606178425</c:v>
+                  <c:v>1.351122960617842</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.392744919648649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4245782523020183</c:v>
+                  <c:v>1.424578252302018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4611842525767238</c:v>
+                  <c:v>1.461184252576724</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5048028580248676</c:v>
+                  <c:v>1.504802858024868</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5570251845082432</c:v>
+                  <c:v>1.557025184508243</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6154642862485431</c:v>
+                  <c:v>1.615464286248543</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6848298661966756</c:v>
+                  <c:v>1.684829866196676</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7661721968142325</c:v>
+                  <c:v>1.766172196814232</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8634435011076613</c:v>
+                  <c:v>1.863443501107661</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9744542948568879</c:v>
+                  <c:v>1.974454294856888</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.095546779486301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2032567557827543</c:v>
+                  <c:v>2.203256755782754</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2926599241432113</c:v>
+                  <c:v>2.292659924143211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3844029847701655</c:v>
+                  <c:v>2.384402984770165</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4884570663903292</c:v>
+                  <c:v>2.48845706639033</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.6028860393862372</c:v>
+                  <c:v>2.602886039386237</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7161623373356019</c:v>
+                  <c:v>2.716162337335602</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8157773416941714</c:v>
+                  <c:v>2.815777341694171</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8877482718713834</c:v>
+                  <c:v>2.887748271871383</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9040578894188074</c:v>
+                  <c:v>2.904057889418807</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9249375453026043</c:v>
+                  <c:v>2.924937545302604</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.9596752763713856</c:v>
+                  <c:v>2.959675276371386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5298,100 +5317,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5403,73 +5422,73 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0020977348810922</c:v>
+                  <c:v>1.002097734881092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98717447067518804</c:v>
+                  <c:v>0.987174470675188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0048910916916656</c:v>
+                  <c:v>1.004891091691666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0555845398026173</c:v>
+                  <c:v>1.055584539802617</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.079724794574149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0923709838702664</c:v>
+                  <c:v>1.092370983870266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1219783922438156</c:v>
+                  <c:v>1.121978392243816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1554660666927525</c:v>
+                  <c:v>1.155466066692753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1874048954393288</c:v>
+                  <c:v>1.187404895439329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1894482848571801</c:v>
+                  <c:v>1.18944828485718</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1726174948915264</c:v>
+                  <c:v>1.172617494891526</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1735631059519152</c:v>
+                  <c:v>1.173563105951915</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2010347376201034</c:v>
+                  <c:v>1.201034737620103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2386200599973913</c:v>
+                  <c:v>1.238620059997391</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2691350376070605</c:v>
+                  <c:v>1.26913503760706</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2849767401417329</c:v>
+                  <c:v>1.284976740141733</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3226164079822615</c:v>
+                  <c:v>1.322616407982261</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3510825616277553</c:v>
+                  <c:v>1.351082561627755</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3775161949480457</c:v>
+                  <c:v>1.377516194948046</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3958740924307638</c:v>
+                  <c:v>1.395874092430764</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3788204860658233</c:v>
+                  <c:v>1.378820486065823</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3608756141037346</c:v>
+                  <c:v>1.360875614103735</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.353821572975088</c:v>
@@ -5478,25 +5497,25 @@
                   <c:v>1.36902199904352</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3900863005956263</c:v>
+                  <c:v>1.390086300595626</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.415492804660667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4253238989609147</c:v>
+                  <c:v>1.425323898960915</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4099386983174644</c:v>
+                  <c:v>1.409938698317464</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3323170731707317</c:v>
+                  <c:v>1.332317073170732</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3317627494456763</c:v>
+                  <c:v>1.331762749445676</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3741821007782271</c:v>
+                  <c:v>1.374182100778227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5528,100 +5547,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5633,100 +5652,100 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97675457762464424</c:v>
+                  <c:v>0.976754577624644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93893758076404543</c:v>
+                  <c:v>0.938937580764045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93368099180744046</c:v>
+                  <c:v>0.93368099180744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97986843314985783</c:v>
+                  <c:v>0.979868433149858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97904834959387554</c:v>
+                  <c:v>0.979048349593876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98176546651016883</c:v>
+                  <c:v>0.981765466510169</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0133869021190081</c:v>
+                  <c:v>1.013386902119008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0590044480422212</c:v>
+                  <c:v>1.059004448042221</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.091477096137206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0973116942545786</c:v>
+                  <c:v>1.097311694254579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0970304534357245</c:v>
+                  <c:v>1.097030453435724</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1126031845324349</c:v>
+                  <c:v>1.112603184532435</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1340206277761917</c:v>
+                  <c:v>1.134020627776192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1561006055992233</c:v>
+                  <c:v>1.156100605599223</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1815576361804059</c:v>
+                  <c:v>1.181557636180406</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2199552231190838</c:v>
+                  <c:v>1.219955223119084</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2302531525034239</c:v>
+                  <c:v>1.230253152503424</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2383866028607038</c:v>
+                  <c:v>1.238386602860704</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2584310420845322</c:v>
+                  <c:v>1.258431042084532</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2848444717051239</c:v>
+                  <c:v>1.284844471705124</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2548085558849991</c:v>
+                  <c:v>1.254808555884999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2778694037101019</c:v>
+                  <c:v>1.277869403710102</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.280636008695303</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3017800375398247</c:v>
+                  <c:v>1.301780037539825</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3035617627864231</c:v>
+                  <c:v>1.303561762786423</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2960281726867848</c:v>
+                  <c:v>1.296028172686785</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3178356817386681</c:v>
+                  <c:v>1.317835681738668</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2874053531174439</c:v>
+                  <c:v>1.287405353117444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2307039228526457</c:v>
+                  <c:v>1.230703922852646</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2710421181977825</c:v>
+                  <c:v>1.271042118197782</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2586181364292732</c:v>
+                  <c:v>1.258618136429273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5763,100 +5782,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5868,100 +5887,100 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97675457762464424</c:v>
+                  <c:v>0.976754577624644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93893758076404543</c:v>
+                  <c:v>0.938937580764045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93368099180744046</c:v>
+                  <c:v>0.93368099180744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97986843314985783</c:v>
+                  <c:v>0.979868433149858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97904834959387554</c:v>
+                  <c:v>0.979048349593876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98176546651016883</c:v>
+                  <c:v>0.981765466510169</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0133869021190081</c:v>
+                  <c:v>1.013386902119008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0590044480422212</c:v>
+                  <c:v>1.059004448042221</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.091477096137206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0973116942545786</c:v>
+                  <c:v>1.097311694254579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0970304534357245</c:v>
+                  <c:v>1.097030453435724</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1126031845324349</c:v>
+                  <c:v>1.112603184532435</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1340206277761917</c:v>
+                  <c:v>1.134020627776192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1561006055992233</c:v>
+                  <c:v>1.156100605599223</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1815576361804059</c:v>
+                  <c:v>1.181557636180406</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2199552231190838</c:v>
+                  <c:v>1.219955223119084</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2302531525034239</c:v>
+                  <c:v>1.230253152503424</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2383866028607038</c:v>
+                  <c:v>1.238386602860704</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2584310420845322</c:v>
+                  <c:v>1.258431042084532</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2848444717051239</c:v>
+                  <c:v>1.284844471705124</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2548085558849991</c:v>
+                  <c:v>1.254808555884999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2778694037101019</c:v>
+                  <c:v>1.277869403710102</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.280636008695303</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3017800375398247</c:v>
+                  <c:v>1.301780037539825</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3035617627864231</c:v>
+                  <c:v>1.303561762786423</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2960281726867848</c:v>
+                  <c:v>1.296028172686785</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3178356817386681</c:v>
+                  <c:v>1.317835681738668</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2874053531174439</c:v>
+                  <c:v>1.287405353117444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2307039228526457</c:v>
+                  <c:v>1.230703922852646</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2710421181977825</c:v>
+                  <c:v>1.271042118197782</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2586181364292732</c:v>
+                  <c:v>1.258618136429273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5997,100 +6016,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6102,67 +6121,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96168717730646613</c:v>
+                  <c:v>0.961687177306466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9148294667349629</c:v>
+                  <c:v>0.914829466734963</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91158058574848388</c:v>
+                  <c:v>0.911580585748484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96572748103939288</c:v>
+                  <c:v>0.965727481039393</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97818281172401245</c:v>
+                  <c:v>0.978182811724012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97122135256145103</c:v>
+                  <c:v>0.971221352561451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0050566048005822</c:v>
+                  <c:v>1.005056604800582</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0731648261553837</c:v>
+                  <c:v>1.073164826155384</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.132762084079274</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1515878312567835</c:v>
+                  <c:v>1.151587831256783</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1388630838040485</c:v>
+                  <c:v>1.138863083804049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1874189587884159</c:v>
+                  <c:v>1.187418958788416</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1995642582030086</c:v>
+                  <c:v>1.199564258203009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2387054028291842</c:v>
+                  <c:v>1.238705402829184</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2919642899061348</c:v>
+                  <c:v>1.291964289906135</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3335423024180206</c:v>
+                  <c:v>1.333542302418021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3522881805788678</c:v>
+                  <c:v>1.352288180578868</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3668763473090262</c:v>
+                  <c:v>1.366876347309026</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4091187520234514</c:v>
+                  <c:v>1.409118752023451</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3964447355801066</c:v>
+                  <c:v>1.396444735580107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6177,15 +6196,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200451584"/>
-        <c:axId val="200454144"/>
+        <c:axId val="2124518984"/>
+        <c:axId val="2124509832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200451584"/>
+        <c:axId val="2124518984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2015"/>
-          <c:min val="1980"/>
+          <c:max val="2015.0"/>
+          <c:min val="1980.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6221,16 +6240,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200454144"/>
+        <c:crossAx val="2124509832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200454144"/>
+        <c:axId val="2124509832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3"/>
-          <c:min val="0"/>
+          <c:max val="3.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6254,8 +6273,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.375888237808624E-3"/>
-              <c:y val="0.31750175401100811"/>
+              <c:x val="0.00637588823780862"/>
+              <c:y val="0.317501754011008"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6274,10 +6293,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200451584"/>
+        <c:crossAx val="2124518984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6358,280 +6377,280 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1901</c:v>
+                  <c:v>1901.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1902</c:v>
+                  <c:v>1902.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1903</c:v>
+                  <c:v>1903.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1904</c:v>
+                  <c:v>1904.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1905</c:v>
+                  <c:v>1905.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1906</c:v>
+                  <c:v>1906.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1907</c:v>
+                  <c:v>1907.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1908</c:v>
+                  <c:v>1908.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1909</c:v>
+                  <c:v>1909.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1910</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1911</c:v>
+                  <c:v>1911.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1912</c:v>
+                  <c:v>1912.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1913</c:v>
+                  <c:v>1913.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1914</c:v>
+                  <c:v>1914.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1915</c:v>
+                  <c:v>1915.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1916</c:v>
+                  <c:v>1916.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1917</c:v>
+                  <c:v>1917.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1918</c:v>
+                  <c:v>1918.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1919</c:v>
+                  <c:v>1919.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1920</c:v>
+                  <c:v>1920.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1921</c:v>
+                  <c:v>1921.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1922</c:v>
+                  <c:v>1922.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1923</c:v>
+                  <c:v>1923.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1924</c:v>
+                  <c:v>1924.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1925</c:v>
+                  <c:v>1925.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1926</c:v>
+                  <c:v>1926.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1927</c:v>
+                  <c:v>1927.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1928</c:v>
+                  <c:v>1928.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1929</c:v>
+                  <c:v>1929.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1930</c:v>
+                  <c:v>1930.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1931</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1932</c:v>
+                  <c:v>1932.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1933</c:v>
+                  <c:v>1933.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1934</c:v>
+                  <c:v>1934.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1935</c:v>
+                  <c:v>1935.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1936</c:v>
+                  <c:v>1936.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1937</c:v>
+                  <c:v>1937.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1938</c:v>
+                  <c:v>1938.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1939</c:v>
+                  <c:v>1939.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1940</c:v>
+                  <c:v>1940.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1941</c:v>
+                  <c:v>1941.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1942</c:v>
+                  <c:v>1942.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1943</c:v>
+                  <c:v>1943.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1944</c:v>
+                  <c:v>1944.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1945</c:v>
+                  <c:v>1945.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1946</c:v>
+                  <c:v>1946.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1947</c:v>
+                  <c:v>1947.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1948</c:v>
+                  <c:v>1948.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1949</c:v>
+                  <c:v>1949.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1950</c:v>
+                  <c:v>1950.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1951</c:v>
+                  <c:v>1951.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1952</c:v>
+                  <c:v>1952.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1953</c:v>
+                  <c:v>1953.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1954</c:v>
+                  <c:v>1954.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1955</c:v>
+                  <c:v>1955.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1956</c:v>
+                  <c:v>1956.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1957</c:v>
+                  <c:v>1957.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1958</c:v>
+                  <c:v>1958.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1959</c:v>
+                  <c:v>1959.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1960</c:v>
+                  <c:v>1960.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1961</c:v>
+                  <c:v>1961.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1962</c:v>
+                  <c:v>1962.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1963</c:v>
+                  <c:v>1963.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1965</c:v>
+                  <c:v>1965.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1966</c:v>
+                  <c:v>1966.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1967</c:v>
+                  <c:v>1967.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1968</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1969</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1970</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1971</c:v>
+                  <c:v>1971.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1972</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1973</c:v>
+                  <c:v>1973.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1974</c:v>
+                  <c:v>1974.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1975</c:v>
+                  <c:v>1975.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1976</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1977</c:v>
+                  <c:v>1977.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1978</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1979</c:v>
+                  <c:v>1979.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6643,277 +6662,277 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>7.3911924172216772E-2</c:v>
+                  <c:v>0.0739119241722168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7320453666309338E-2</c:v>
+                  <c:v>0.0773204536663093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1399545534603185E-2</c:v>
+                  <c:v>0.0813995455346032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.620421507720441E-2</c:v>
+                  <c:v>0.0862042150772044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0837751920326615E-2</c:v>
+                  <c:v>0.0908377519203266</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5111933505308818E-2</c:v>
+                  <c:v>0.0951119335053088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9607190757242295E-2</c:v>
+                  <c:v>0.0996071907572423</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1046509622566168</c:v>
+                  <c:v>0.104650962256617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10938625789596365</c:v>
+                  <c:v>0.109386257895964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11360558025261309</c:v>
+                  <c:v>0.113605580252613</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11816303210622682</c:v>
+                  <c:v>0.118163032106227</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12286250927358969</c:v>
+                  <c:v>0.12286250927359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12770549443654852</c:v>
+                  <c:v>0.127705494436549</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13287919568723747</c:v>
+                  <c:v>0.132879195687237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13742993645459711</c:v>
+                  <c:v>0.137429936454597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14108388881228365</c:v>
+                  <c:v>0.141083888812284</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.14486777092128467</c:v>
+                  <c:v>0.144867770921285</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14890956163574767</c:v>
+                  <c:v>0.148909561635748</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15280019683772056</c:v>
+                  <c:v>0.152800196837721</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15644556524787279</c:v>
+                  <c:v>0.156445565247873</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.15994726959065572</c:v>
+                  <c:v>0.159947269590656</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.16286745050593396</c:v>
+                  <c:v>0.162867450505934</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.16622393006361408</c:v>
+                  <c:v>0.166223930063614</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.17138335074704145</c:v>
+                  <c:v>0.171383350747041</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.17718758196206721</c:v>
+                  <c:v>0.177187581962067</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.18317488536723336</c:v>
+                  <c:v>0.183174885367233</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18932848324690468</c:v>
+                  <c:v>0.189328483246905</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.19517134222583477</c:v>
+                  <c:v>0.195171342225835</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.20112204680015017</c:v>
+                  <c:v>0.20112204680015</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20759317270270347</c:v>
+                  <c:v>0.207593172702703</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2135594064184673</c:v>
+                  <c:v>0.213559406418467</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.21727313426534714</c:v>
+                  <c:v>0.217273134265347</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21820628739821096</c:v>
+                  <c:v>0.218206287398211</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.21764606776776863</c:v>
+                  <c:v>0.217646067767769</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2174074340263154</c:v>
+                  <c:v>0.217407434026315</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.21809227696777828</c:v>
+                  <c:v>0.218092276967778</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.21999393349016985</c:v>
+                  <c:v>0.21999393349017</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.22255491521908147</c:v>
+                  <c:v>0.222554915219081</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.22453905567368887</c:v>
+                  <c:v>0.224539055673689</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.22626161983616053</c:v>
+                  <c:v>0.226261619836161</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.22811903001080719</c:v>
+                  <c:v>0.228119030010807</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.23075921816469427</c:v>
+                  <c:v>0.230759218164694</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2344841051433687</c:v>
+                  <c:v>0.234484105143369</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.23801616544606835</c:v>
+                  <c:v>0.238016165446068</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.24099167380499939</c:v>
+                  <c:v>0.240991673804999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.24449962101871636</c:v>
+                  <c:v>0.244499621018716</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.24935993014851712</c:v>
+                  <c:v>0.249359930148517</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.25593117609367488</c:v>
+                  <c:v>0.255931176093675</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.26360928305543585</c:v>
+                  <c:v>0.263609283055436</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.27058764222137893</c:v>
+                  <c:v>0.270587642221379</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2771117544909848</c:v>
+                  <c:v>0.277111754490985</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.28435145584140359</c:v>
+                  <c:v>0.284351455841404</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.29264807524095338</c:v>
+                  <c:v>0.292648075240953</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.30246639443067241</c:v>
+                  <c:v>0.302466394430672</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.31301645612974621</c:v>
+                  <c:v>0.313016456129746</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.32340373496921521</c:v>
+                  <c:v>0.323403734969215</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.33384415624751018</c:v>
+                  <c:v>0.33384415624751</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.34398944580239893</c:v>
+                  <c:v>0.343989445802399</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.35297348332767181</c:v>
+                  <c:v>0.352973483327672</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.36121813082669579</c:v>
+                  <c:v>0.361218130826696</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.37062364017590227</c:v>
+                  <c:v>0.370623640175902</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.38036009972049889</c:v>
+                  <c:v>0.380360099720499</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.38940305434021166</c:v>
+                  <c:v>0.389403054340212</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.39974889612385606</c:v>
+                  <c:v>0.399748896123856</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.41206709494321991</c:v>
+                  <c:v>0.41206709494322</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.4263498472096357</c:v>
+                  <c:v>0.426349847209636</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.44266691700579114</c:v>
+                  <c:v>0.442666917005791</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.4596204474936707</c:v>
+                  <c:v>0.459620447493671</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.47699427926718374</c:v>
+                  <c:v>0.476994279267184</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.49535986912445373</c:v>
+                  <c:v>0.495359869124454</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.51415223724595127</c:v>
+                  <c:v>0.514152237245951</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.53371286867176759</c:v>
+                  <c:v>0.533712868671768</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.55575168575073297</c:v>
+                  <c:v>0.555751685750733</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.58087494928642813</c:v>
+                  <c:v>0.580874949286428</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.60701533256904983</c:v>
+                  <c:v>0.60701533256905</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.6303476725055458</c:v>
+                  <c:v>0.630347672505546</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.65083607258804532</c:v>
+                  <c:v>0.650836072588045</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.67222500680277841</c:v>
+                  <c:v>0.672225006802778</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.69602439152102635</c:v>
+                  <c:v>0.696024391521026</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.72178419378433234</c:v>
+                  <c:v>0.721784193784332</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.74667233519347476</c:v>
+                  <c:v>0.746672335193475</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.7704837374382707</c:v>
+                  <c:v>0.770483737438271</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.79427594285494452</c:v>
+                  <c:v>0.794275942854944</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.81685508041324995</c:v>
+                  <c:v>0.81685508041325</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.84157583484547371</c:v>
+                  <c:v>0.841575834845474</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.87031309636487775</c:v>
+                  <c:v>0.870313096364878</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.89856349198731422</c:v>
+                  <c:v>0.898563491987314</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.92321635519813039</c:v>
+                  <c:v>0.92321635519813</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.94640308017009012</c:v>
+                  <c:v>0.94640308017009</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.97233471745585531</c:v>
+                  <c:v>0.972334717455855</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1.024038798818568</c:v>
@@ -6950,154 +6969,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1962</c:v>
+                  <c:v>1962.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1963</c:v>
+                  <c:v>1963.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1965</c:v>
+                  <c:v>1965.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1966</c:v>
+                  <c:v>1966.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1967</c:v>
+                  <c:v>1967.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1968</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1969</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1970</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1971</c:v>
+                  <c:v>1971.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1972</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1973</c:v>
+                  <c:v>1973.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1974</c:v>
+                  <c:v>1974.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1975</c:v>
+                  <c:v>1975.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1976</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1977</c:v>
+                  <c:v>1977.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1978</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1979</c:v>
+                  <c:v>1979.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7109,100 +7128,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="18">
-                  <c:v>0.7180065681031329</c:v>
+                  <c:v>0.718006568103133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.74112782218451867</c:v>
+                  <c:v>0.741127822184519</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.75757913072278915</c:v>
+                  <c:v>0.757579130722789</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.77755244859716721</c:v>
+                  <c:v>0.777552448597167</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.80794718411594291</c:v>
+                  <c:v>0.807947184115943</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8413314777118911</c:v>
+                  <c:v>0.841331477711891</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.87395600544578611</c:v>
+                  <c:v>0.873956005445786</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9052741577178629</c:v>
+                  <c:v>0.905274157717863</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.93728304173498067</c:v>
+                  <c:v>0.937283041734981</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97011516003856146</c:v>
+                  <c:v>0.970115160038561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0228565419297311</c:v>
+                  <c:v>1.022856541929731</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0491398905589546</c:v>
+                  <c:v>1.049139890558955</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0804583357622211</c:v>
+                  <c:v>1.080458335762221</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.117954309178911</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1599139680624935</c:v>
+                  <c:v>1.159913968062493</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2097189100655354</c:v>
+                  <c:v>1.209718910065535</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2681232377137579</c:v>
+                  <c:v>1.268123237713758</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3379646730843984</c:v>
+                  <c:v>1.337964673084398</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4176711521266854</c:v>
+                  <c:v>1.417671152126685</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5046163514385313</c:v>
+                  <c:v>1.504616351438531</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5819528218696177</c:v>
+                  <c:v>1.581952821869618</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.6461448839616561</c:v>
+                  <c:v>1.646144883961656</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7120170040696929</c:v>
+                  <c:v>1.712017004069693</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7867285181109103</c:v>
+                  <c:v>1.78672851811091</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.8688892723032682</c:v>
+                  <c:v>1.868889272303268</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9502223982413192</c:v>
+                  <c:v>1.950222398241319</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0217466256523942</c:v>
+                  <c:v>2.021746625652394</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0734222262321249</c:v>
+                  <c:v>2.073422226232125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.0851326387544251</c:v>
+                  <c:v>2.085132638754425</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.1001243688187246</c:v>
+                  <c:v>2.100124368818724</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.1250662878871096</c:v>
+                  <c:v>2.12506628788711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7217,15 +7236,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200514560"/>
-        <c:axId val="200623616"/>
+        <c:axId val="2059566424"/>
+        <c:axId val="2059558472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200514560"/>
+        <c:axId val="2059566424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2011"/>
-          <c:min val="1900"/>
+          <c:max val="2011.0"/>
+          <c:min val="1900.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7251,13 +7270,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200623616"/>
+        <c:crossAx val="2059558472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200623616"/>
+        <c:axId val="2059558472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7285,7 +7304,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200514560"/>
+        <c:crossAx val="2059566424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7371,331 +7390,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1901</c:v>
+                  <c:v>1901.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1902</c:v>
+                  <c:v>1902.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1903</c:v>
+                  <c:v>1903.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1904</c:v>
+                  <c:v>1904.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1905</c:v>
+                  <c:v>1905.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1906</c:v>
+                  <c:v>1906.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1907</c:v>
+                  <c:v>1907.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1908</c:v>
+                  <c:v>1908.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1909</c:v>
+                  <c:v>1909.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1910</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1911</c:v>
+                  <c:v>1911.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1912</c:v>
+                  <c:v>1912.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1913</c:v>
+                  <c:v>1913.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1914</c:v>
+                  <c:v>1914.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1915</c:v>
+                  <c:v>1915.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1916</c:v>
+                  <c:v>1916.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1917</c:v>
+                  <c:v>1917.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1918</c:v>
+                  <c:v>1918.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1919</c:v>
+                  <c:v>1919.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1920</c:v>
+                  <c:v>1920.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1921</c:v>
+                  <c:v>1921.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1922</c:v>
+                  <c:v>1922.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1923</c:v>
+                  <c:v>1923.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1924</c:v>
+                  <c:v>1924.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1925</c:v>
+                  <c:v>1925.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1926</c:v>
+                  <c:v>1926.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1927</c:v>
+                  <c:v>1927.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1928</c:v>
+                  <c:v>1928.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1929</c:v>
+                  <c:v>1929.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1930</c:v>
+                  <c:v>1930.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1931</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1932</c:v>
+                  <c:v>1932.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1933</c:v>
+                  <c:v>1933.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1934</c:v>
+                  <c:v>1934.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1935</c:v>
+                  <c:v>1935.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1936</c:v>
+                  <c:v>1936.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1937</c:v>
+                  <c:v>1937.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1938</c:v>
+                  <c:v>1938.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1939</c:v>
+                  <c:v>1939.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1940</c:v>
+                  <c:v>1940.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1941</c:v>
+                  <c:v>1941.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1942</c:v>
+                  <c:v>1942.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1943</c:v>
+                  <c:v>1943.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1944</c:v>
+                  <c:v>1944.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1945</c:v>
+                  <c:v>1945.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1946</c:v>
+                  <c:v>1946.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1947</c:v>
+                  <c:v>1947.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1948</c:v>
+                  <c:v>1948.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1949</c:v>
+                  <c:v>1949.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1950</c:v>
+                  <c:v>1950.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1951</c:v>
+                  <c:v>1951.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1952</c:v>
+                  <c:v>1952.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1953</c:v>
+                  <c:v>1953.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1954</c:v>
+                  <c:v>1954.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1955</c:v>
+                  <c:v>1955.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1956</c:v>
+                  <c:v>1956.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1957</c:v>
+                  <c:v>1957.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1958</c:v>
+                  <c:v>1958.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1959</c:v>
+                  <c:v>1959.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1960</c:v>
+                  <c:v>1960.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1961</c:v>
+                  <c:v>1961.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1962</c:v>
+                  <c:v>1962.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1963</c:v>
+                  <c:v>1963.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1965</c:v>
+                  <c:v>1965.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1966</c:v>
+                  <c:v>1966.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1967</c:v>
+                  <c:v>1967.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1968</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1969</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1970</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1971</c:v>
+                  <c:v>1971.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1972</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1973</c:v>
+                  <c:v>1973.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1974</c:v>
+                  <c:v>1974.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1975</c:v>
+                  <c:v>1975.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1976</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1977</c:v>
+                  <c:v>1977.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1978</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1979</c:v>
+                  <c:v>1979.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7707,331 +7726,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.3849485111662529E-2</c:v>
+                  <c:v>0.0538494851116625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9912009925558313E-2</c:v>
+                  <c:v>0.0599120099255583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0536093362282883E-2</c:v>
+                  <c:v>0.0605360933622829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3478200992555828E-2</c:v>
+                  <c:v>0.0634782009925558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.267580800248139E-2</c:v>
+                  <c:v>0.0626758080024814</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7311856389578165E-2</c:v>
+                  <c:v>0.0673118563895782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5068321960297779E-2</c:v>
+                  <c:v>0.0750683219602978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6227334057071966E-2</c:v>
+                  <c:v>0.076227334057072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9986499689826301E-2</c:v>
+                  <c:v>0.0699864996898263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.854535825062034E-2</c:v>
+                  <c:v>0.0785453582506203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9347751240694792E-2</c:v>
+                  <c:v>0.0793477512406948</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1933239764267987E-2</c:v>
+                  <c:v>0.081933239764268</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5766895161290324E-2</c:v>
+                  <c:v>0.0857668951612903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9154776674937972E-2</c:v>
+                  <c:v>0.089154776674938</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.2289858870967736E-2</c:v>
+                  <c:v>0.0822898588709677</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4607883064516123E-2</c:v>
+                  <c:v>0.0846078830645161</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.6287158808933002E-2</c:v>
+                  <c:v>0.096287158808933</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.3879979838709673E-2</c:v>
+                  <c:v>0.0938799798387096</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10234968362282879</c:v>
+                  <c:v>0.102349683622829</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10324123138957816</c:v>
+                  <c:v>0.103241231389578</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.10226052884615384</c:v>
+                  <c:v>0.102260528846154</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.9942504652605457E-2</c:v>
+                  <c:v>0.0999425046526054</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.10547010080645162</c:v>
+                  <c:v>0.105470100806452</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11937824596774195</c:v>
+                  <c:v>0.119378245967742</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.12303359181141439</c:v>
+                  <c:v>0.123033591811414</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1258865446650124</c:v>
+                  <c:v>0.125886544665012</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13408878411910671</c:v>
+                  <c:v>0.134088784119107</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.13542610576923078</c:v>
+                  <c:v>0.135426105769231</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1369417369727047</c:v>
+                  <c:v>0.136941736972705</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1453222859801489</c:v>
+                  <c:v>0.145322285980149</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.13239484336228288</c:v>
+                  <c:v>0.132394843362283</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.12223119882133995</c:v>
+                  <c:v>0.12223119882134</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.10609418424317618</c:v>
+                  <c:v>0.106094184243176</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.10386531482630272</c:v>
+                  <c:v>0.103865314826303</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.11188924472704716</c:v>
+                  <c:v>0.111889244727047</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12044810328784118</c:v>
+                  <c:v>0.120448103287841</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13756582040942927</c:v>
+                  <c:v>0.137565820409429</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.14345003566997519</c:v>
+                  <c:v>0.143450035669975</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13774412996277915</c:v>
+                  <c:v>0.137744129962779</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.14871016749379654</c:v>
+                  <c:v>0.148710167493797</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1602111336848635</c:v>
+                  <c:v>0.160211133684863</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.18936466087675766</c:v>
+                  <c:v>0.189364660876758</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.22725547973531846</c:v>
+                  <c:v>0.227255479735318</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.27245692031982355</c:v>
+                  <c:v>0.272456920319824</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2952805348773091</c:v>
+                  <c:v>0.295280534877309</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28342311138682108</c:v>
+                  <c:v>0.283423111386821</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.22493744830438378</c:v>
+                  <c:v>0.224937448304384</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.22154966225530742</c:v>
+                  <c:v>0.221549662255307</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.22993021091811414</c:v>
+                  <c:v>0.229930210918114</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.23082171681141436</c:v>
+                  <c:v>0.230821716811414</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.25088158257513093</c:v>
+                  <c:v>0.250881582575131</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.26998621450234356</c:v>
+                  <c:v>0.269986214502344</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.28006013923352635</c:v>
+                  <c:v>0.280060139233526</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.29293665563826854</c:v>
+                  <c:v>0.292936655638269</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.29101254480286737</c:v>
+                  <c:v>0.291012544802867</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.31157395919492692</c:v>
+                  <c:v>0.311573959194927</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.31766180727874277</c:v>
+                  <c:v>0.317661807278743</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.32362541356492969</c:v>
+                  <c:v>0.32362541356493</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.32035566583953679</c:v>
+                  <c:v>0.320355665839537</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.34413099669148056</c:v>
+                  <c:v>0.344130996691481</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.35268937827405572</c:v>
+                  <c:v>0.352689378274056</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.36090363937138131</c:v>
+                  <c:v>0.360903639371381</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.38267369727047146</c:v>
+                  <c:v>0.382673697270471</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.39922198097601325</c:v>
+                  <c:v>0.399221980976013</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.42233853735869864</c:v>
+                  <c:v>0.422338537358699</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.44928556658395369</c:v>
+                  <c:v>0.449285566583954</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.47871622553074167</c:v>
+                  <c:v>0.478716225530742</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.49068600082712988</c:v>
+                  <c:v>0.49068600082713</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.51404070168183069</c:v>
+                  <c:v>0.514040701681831</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.53014147366969944</c:v>
+                  <c:v>0.530141473669699</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.53106906534325893</c:v>
+                  <c:v>0.531069065343259</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.54764716018748272</c:v>
+                  <c:v>0.547647160187483</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.57667390405293628</c:v>
+                  <c:v>0.576673904052936</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.60942617866004967</c:v>
+                  <c:v>0.60942617866005</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.6077205679625034</c:v>
+                  <c:v>0.607720567962503</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.60601478494623651</c:v>
+                  <c:v>0.606014784946236</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.63777967328370555</c:v>
+                  <c:v>0.637779673283705</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.66667166390956711</c:v>
+                  <c:v>0.666671663909567</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.7047056796250345</c:v>
+                  <c:v>0.704705679625034</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.72867504135649297</c:v>
+                  <c:v>0.728675041356493</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.72900434243176182</c:v>
+                  <c:v>0.729004342431762</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.74719826992004412</c:v>
+                  <c:v>0.747198269920044</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.73319375516956165</c:v>
+                  <c:v>0.733193755169562</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.76391111800385991</c:v>
+                  <c:v>0.76391111800386</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.81954059829059833</c:v>
+                  <c:v>0.819540598290598</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.85132047835676872</c:v>
+                  <c:v>0.851320478356769</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.88063137579266615</c:v>
+                  <c:v>0.880631375792666</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.91158826164874551</c:v>
+                  <c:v>0.911588261648745</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.94996639784946235</c:v>
+                  <c:v>0.949966397849462</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.98282344223876483</c:v>
+                  <c:v>0.982823442238765</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.99805811481218998</c:v>
+                  <c:v>0.99805811481219</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.0313536498936924</c:v>
+                  <c:v>1.031353649893692</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0591070163004961</c:v>
+                  <c:v>1.059107016300496</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1021261516654854</c:v>
+                  <c:v>1.102126151665485</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.1300921332388376</c:v>
+                  <c:v>1.130092133238838</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.1724167257264351</c:v>
+                  <c:v>1.172416725726435</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2251472550228755</c:v>
+                  <c:v>1.225147255022875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.2774601943755171</c:v>
+                  <c:v>1.277460194375517</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3348099324510614</c:v>
+                  <c:v>1.334809932451061</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3840999793217534</c:v>
+                  <c:v>1.384099979321753</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.3946000482492418</c:v>
+                  <c:v>1.394600048249242</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.4170900537634408</c:v>
+                  <c:v>1.417090053763441</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.4528399848359526</c:v>
+                  <c:v>1.452839984835953</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.5058700372208438</c:v>
+                  <c:v>1.505870037220844</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.5525520402536532</c:v>
+                  <c:v>1.552552040253653</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.5944709815274332</c:v>
+                  <c:v>1.594470981527433</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.6279547491039426</c:v>
+                  <c:v>1.627954749103942</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.6344665012406947</c:v>
+                  <c:v>1.634466501240695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8065,160 +8084,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1960</c:v>
+                  <c:v>1960.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1961</c:v>
+                  <c:v>1961.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1962</c:v>
+                  <c:v>1962.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1963</c:v>
+                  <c:v>1963.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1965</c:v>
+                  <c:v>1965.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1966</c:v>
+                  <c:v>1966.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1967</c:v>
+                  <c:v>1967.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1968</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1969</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1970</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1971</c:v>
+                  <c:v>1971.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1972</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1973</c:v>
+                  <c:v>1973.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1974</c:v>
+                  <c:v>1974.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1975</c:v>
+                  <c:v>1975.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1976</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1977</c:v>
+                  <c:v>1977.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1978</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1979</c:v>
+                  <c:v>1979.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8230,43 +8249,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="20">
-                  <c:v>0.72679168184975129</c:v>
+                  <c:v>0.726791681849751</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.74524185485905425</c:v>
+                  <c:v>0.745241854859054</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.73077198588518166</c:v>
+                  <c:v>0.730771985885182</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.76378546223538613</c:v>
+                  <c:v>0.763785462235386</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.81867503838595246</c:v>
+                  <c:v>0.818675038385952</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.85254499643392168</c:v>
+                  <c:v>0.852544996433922</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.88208271433065177</c:v>
+                  <c:v>0.882082714330652</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91030612213117568</c:v>
+                  <c:v>0.910306122131176</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94772347164734128</c:v>
+                  <c:v>0.947723471647341</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.98158097177970671</c:v>
+                  <c:v>0.981580971779707</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9976703697820799</c:v>
+                  <c:v>0.99767036978208</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0315185264777424</c:v>
+                  <c:v>1.031518526477742</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.060937894176236</c:v>
@@ -8275,55 +8294,55 @@
                   <c:v>1.104160632363796</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1319230972869774</c:v>
+                  <c:v>1.131923097286977</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1742644379455651</c:v>
+                  <c:v>1.174264437945565</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2265970269184412</c:v>
+                  <c:v>1.226597026918441</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2800196835066542</c:v>
+                  <c:v>1.280019683506654</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3417953725072489</c:v>
+                  <c:v>1.341795372507249</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3973327602692156</c:v>
+                  <c:v>1.397332760269216</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4124130671076769</c:v>
+                  <c:v>1.412413067107677</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1.438029656068095</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4745718370130902</c:v>
+                  <c:v>1.47457183701309</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5257115805668975</c:v>
+                  <c:v>1.525711580566897</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.5725564577162772</c:v>
+                  <c:v>1.572556457716277</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.6143558790460975</c:v>
+                  <c:v>1.614355879046097</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6452390518280433</c:v>
+                  <c:v>1.645239051828043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.6397015083421318</c:v>
+                  <c:v>1.639701508342132</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.5825445915516645</c:v>
+                  <c:v>1.582544591551664</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6304888797530841</c:v>
+                  <c:v>1.630488879753084</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6587808060894291</c:v>
+                  <c:v>1.65878080608943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8338,15 +8357,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200682112"/>
-        <c:axId val="200692864"/>
+        <c:axId val="2059508616"/>
+        <c:axId val="2059500360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200682112"/>
+        <c:axId val="2059508616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2011"/>
-          <c:min val="1900"/>
+          <c:max val="2011.0"/>
+          <c:min val="1900.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8377,13 +8396,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200692864"/>
+        <c:crossAx val="2059500360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200692864"/>
+        <c:axId val="2059500360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8416,7 +8435,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200682112"/>
+        <c:crossAx val="2059508616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9074,7 +9093,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Notes"/>
@@ -9391,43 +9410,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="59" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="59" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="18" width="30.85546875" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" customWidth="1"/>
-    <col min="20" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="59" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
+    <col min="17" max="18" width="30.83203125" customWidth="1"/>
+    <col min="19" max="19" width="24.5" customWidth="1"/>
+    <col min="20" max="21" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+    <row r="1" spans="1:20" ht="15" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -9446,7 +9465,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
         <v>129</v>
@@ -9570,75 +9589,75 @@
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="135" t="s">
+      <c r="F8" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="135" t="s">
+      <c r="G8" s="137" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="134"/>
-      <c r="I8" s="135" t="s">
+      <c r="I8" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="135" t="s">
+      <c r="K8" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="135" t="s">
+      <c r="L8" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="M8" s="135" t="s">
+      <c r="M8" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="N8" s="135" t="s">
+      <c r="N8" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="O8" s="136" t="s">
+      <c r="O8" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="134"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="21">
@@ -11537,12 +11556,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
@@ -11555,1014 +11568,1264 @@
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="9" width="8.83203125" style="46"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="46" t="str">
+        <f>'United States Workbook'!A9</f>
+        <v>Year</v>
+      </c>
+      <c r="B1" s="46" t="str">
         <f>'United States Workbook'!H7</f>
         <v>iYear</v>
       </c>
-      <c r="B1" s="46" t="str">
+      <c r="C1" s="46" t="str">
         <f>'United States Workbook'!I7</f>
         <v>iGDP</v>
       </c>
-      <c r="C1" s="46" t="str">
+      <c r="D1" s="46" t="str">
         <f>'United States Workbook'!J7</f>
         <v>iLabor</v>
       </c>
-      <c r="D1" s="46" t="str">
+      <c r="E1" s="46" t="str">
         <f>'United States Workbook'!K7</f>
         <v>iCapStk</v>
       </c>
-      <c r="E1" s="46" t="str">
+      <c r="F1" s="46" t="str">
         <f>'United States Workbook'!L7</f>
         <v>iQ</v>
       </c>
-      <c r="F1" s="46" t="str">
+      <c r="G1" s="46" t="str">
         <f>'United States Workbook'!M7</f>
         <v>iX</v>
       </c>
-      <c r="G1" s="46" t="str">
+      <c r="H1" s="46" t="str">
         <f>'United States Workbook'!N7</f>
         <v>iU</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="149">
+      <c r="I1" s="46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="46">
+        <f>'United States Workbook'!A10</f>
+        <v>1980</v>
+      </c>
+      <c r="B2" s="135">
         <f>'United States Workbook'!H10</f>
         <v>0</v>
       </c>
-      <c r="B2" s="150">
+      <c r="C2" s="136">
         <f>'United States Workbook'!I10</f>
         <v>1</v>
       </c>
-      <c r="C2" s="150">
+      <c r="D2" s="136">
         <f>'United States Workbook'!J10</f>
         <v>1</v>
       </c>
-      <c r="D2" s="150">
+      <c r="E2" s="136">
         <f>'United States Workbook'!K10</f>
         <v>1</v>
       </c>
-      <c r="E2" s="150">
+      <c r="F2" s="136">
         <f>'United States Workbook'!L10</f>
         <v>1</v>
       </c>
-      <c r="F2" s="150">
+      <c r="G2" s="136">
         <f>'United States Workbook'!M10</f>
         <v>1</v>
       </c>
-      <c r="G2" s="150">
+      <c r="H2" s="136">
         <f>'United States Workbook'!N10</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="149">
+      <c r="I2" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="46">
+        <f>'United States Workbook'!A11</f>
+        <v>1981</v>
+      </c>
+      <c r="B3" s="135">
         <f>'United States Workbook'!H11</f>
         <v>1</v>
       </c>
-      <c r="B3" s="150">
+      <c r="C3" s="136">
         <f>'United States Workbook'!I11</f>
         <v>1.0253857789928822</v>
       </c>
-      <c r="C3" s="150">
+      <c r="D3" s="136">
         <f>'United States Workbook'!J11</f>
         <v>1.0020977348810922</v>
       </c>
-      <c r="D3" s="150">
+      <c r="E3" s="136">
         <f>'United States Workbook'!K11</f>
         <v>1.0322020091577557</v>
       </c>
-      <c r="E3" s="150">
+      <c r="F3" s="136">
         <f>'United States Workbook'!L11</f>
         <v>0.97675457762464424</v>
       </c>
-      <c r="F3" s="150">
+      <c r="G3" s="136">
         <f>'United States Workbook'!M11</f>
         <v>0.97642733276965432</v>
       </c>
-      <c r="G3" s="150">
+      <c r="H3" s="136">
         <f>'United States Workbook'!N11</f>
         <v>0.96168717730646613</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="149">
+      <c r="I3" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="46">
+        <f>'United States Workbook'!A12</f>
+        <v>1982</v>
+      </c>
+      <c r="B4" s="135">
         <f>'United States Workbook'!H12</f>
         <v>2</v>
       </c>
-      <c r="B4" s="150">
+      <c r="C4" s="136">
         <f>'United States Workbook'!I12</f>
         <v>1.0054765404376946</v>
       </c>
-      <c r="C4" s="150">
+      <c r="D4" s="136">
         <f>'United States Workbook'!J12</f>
         <v>0.98717447067518804</v>
       </c>
-      <c r="D4" s="150">
+      <c r="E4" s="136">
         <f>'United States Workbook'!K12</f>
         <v>1.0551144855460044</v>
       </c>
-      <c r="E4" s="150">
+      <c r="F4" s="136">
         <f>'United States Workbook'!L12</f>
         <v>0.93893758076404543</v>
       </c>
-      <c r="F4" s="150">
+      <c r="G4" s="136">
         <f>'United States Workbook'!M12</f>
         <v>0.93792480115235277</v>
       </c>
-      <c r="G4" s="150">
+      <c r="H4" s="136">
         <f>'United States Workbook'!N12</f>
         <v>0.9148294667349629</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="149">
+      <c r="I4" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="46">
+        <f>'United States Workbook'!A13</f>
+        <v>1983</v>
+      </c>
+      <c r="B5" s="135">
         <f>'United States Workbook'!H13</f>
         <v>3</v>
       </c>
-      <c r="B5" s="150">
+      <c r="C5" s="136">
         <f>'United States Workbook'!I13</f>
         <v>1.0509001152730342</v>
       </c>
-      <c r="C5" s="150">
+      <c r="D5" s="136">
         <f>'United States Workbook'!J13</f>
         <v>1.0048910916916656</v>
       </c>
-      <c r="D5" s="150">
+      <c r="E5" s="136">
         <f>'United States Workbook'!K13</f>
         <v>1.0829322225440718</v>
       </c>
-      <c r="E5" s="150">
+      <c r="F5" s="136">
         <f>'United States Workbook'!L13</f>
         <v>0.93368099180744046</v>
       </c>
-      <c r="F5" s="150">
+      <c r="G5" s="136">
         <f>'United States Workbook'!M13</f>
         <v>0.93269982330788503</v>
       </c>
-      <c r="G5" s="150">
+      <c r="H5" s="136">
         <f>'United States Workbook'!N13</f>
         <v>0.91158058574848388</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="149">
+      <c r="I5" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="46">
+        <f>'United States Workbook'!A14</f>
+        <v>1984</v>
+      </c>
+      <c r="B6" s="135">
         <f>'United States Workbook'!H14</f>
         <v>4</v>
       </c>
-      <c r="B6" s="150">
+      <c r="C6" s="136">
         <f>'United States Workbook'!I14</f>
         <v>1.1264232363011497</v>
       </c>
-      <c r="C6" s="150">
+      <c r="D6" s="136">
         <f>'United States Workbook'!J14</f>
         <v>1.0555845398026173</v>
       </c>
-      <c r="D6" s="150">
+      <c r="E6" s="136">
         <f>'United States Workbook'!K14</f>
         <v>1.1252643360219112</v>
       </c>
-      <c r="E6" s="150">
+      <c r="F6" s="136">
         <f>'United States Workbook'!L14</f>
         <v>0.97986843314985783</v>
       </c>
-      <c r="F6" s="150">
+      <c r="G6" s="136">
         <f>'United States Workbook'!M14</f>
         <v>0.97898428758509615</v>
       </c>
-      <c r="G6" s="150">
+      <c r="H6" s="136">
         <f>'United States Workbook'!N14</f>
         <v>0.96572748103939288</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="149">
+      <c r="I6" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="46">
+        <f>'United States Workbook'!A15</f>
+        <v>1985</v>
+      </c>
+      <c r="B7" s="135">
         <f>'United States Workbook'!H15</f>
         <v>5</v>
       </c>
-      <c r="B7" s="150">
+      <c r="C7" s="136">
         <f>'United States Workbook'!I15</f>
         <v>1.1730252529364626</v>
       </c>
-      <c r="C7" s="150">
+      <c r="D7" s="136">
         <f>'United States Workbook'!J15</f>
         <v>1.079724794574149</v>
       </c>
-      <c r="D7" s="150">
+      <c r="E7" s="136">
         <f>'United States Workbook'!K15</f>
         <v>1.1717601413237269</v>
       </c>
-      <c r="E7" s="150">
+      <c r="F7" s="136">
         <f>'United States Workbook'!L15</f>
         <v>0.97904834959387554</v>
       </c>
-      <c r="F7" s="150">
+      <c r="G7" s="136">
         <f>'United States Workbook'!M15</f>
         <v>0.97820693123439895</v>
       </c>
-      <c r="G7" s="150">
+      <c r="H7" s="136">
         <f>'United States Workbook'!N15</f>
         <v>0.97818281172401245</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="149">
+      <c r="I7" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="46">
+        <f>'United States Workbook'!A16</f>
+        <v>1986</v>
+      </c>
+      <c r="B8" s="135">
         <f>'United States Workbook'!H16</f>
         <v>6</v>
       </c>
-      <c r="B8" s="150">
+      <c r="C8" s="136">
         <f>'United States Workbook'!I16</f>
         <v>1.2136664966853645</v>
       </c>
-      <c r="C8" s="150">
+      <c r="D8" s="136">
         <f>'United States Workbook'!J16</f>
         <v>1.0923709838702664</v>
       </c>
-      <c r="D8" s="150">
+      <c r="E8" s="136">
         <f>'United States Workbook'!K16</f>
         <v>1.2171977865810455</v>
       </c>
-      <c r="E8" s="150">
+      <c r="F8" s="136">
         <f>'United States Workbook'!L16</f>
         <v>0.98176546651016883</v>
       </c>
-      <c r="F8" s="150">
+      <c r="G8" s="136">
         <f>'United States Workbook'!M16</f>
         <v>0.98083165159731767</v>
       </c>
-      <c r="G8" s="150">
+      <c r="H8" s="136">
         <f>'United States Workbook'!N16</f>
         <v>0.97122135256145103</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="149">
+      <c r="I8" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="46">
+        <f>'United States Workbook'!A17</f>
+        <v>1987</v>
+      </c>
+      <c r="B9" s="135">
         <f>'United States Workbook'!H17</f>
         <v>7</v>
       </c>
-      <c r="B9" s="150">
+      <c r="C9" s="136">
         <f>'United States Workbook'!I17</f>
         <v>1.2524993679266709</v>
       </c>
-      <c r="C9" s="150">
+      <c r="D9" s="136">
         <f>'United States Workbook'!J17</f>
         <v>1.1219783922438156</v>
       </c>
-      <c r="D9" s="150">
+      <c r="E9" s="136">
         <f>'United States Workbook'!K17</f>
         <v>1.2608159840507633</v>
       </c>
-      <c r="E9" s="150">
+      <c r="F9" s="136">
         <f>'United States Workbook'!L17</f>
         <v>1.0133869021190081</v>
       </c>
-      <c r="F9" s="150">
+      <c r="G9" s="136">
         <f>'United States Workbook'!M17</f>
         <v>1.0125679375140006</v>
       </c>
-      <c r="G9" s="150">
+      <c r="H9" s="136">
         <f>'United States Workbook'!N17</f>
         <v>1.0050566048005822</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="149">
+      <c r="I9" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="46">
+        <f>'United States Workbook'!A18</f>
+        <v>1988</v>
+      </c>
+      <c r="B10" s="135">
         <f>'United States Workbook'!H18</f>
         <v>8</v>
       </c>
-      <c r="B10" s="150">
+      <c r="C10" s="136">
         <f>'United States Workbook'!I18</f>
         <v>1.3039822762353284</v>
       </c>
-      <c r="C10" s="150">
+      <c r="D10" s="136">
         <f>'United States Workbook'!J18</f>
         <v>1.1554660666927525</v>
       </c>
-      <c r="D10" s="150">
+      <c r="E10" s="136">
         <f>'United States Workbook'!K18</f>
         <v>1.305396194649227</v>
       </c>
-      <c r="E10" s="150">
+      <c r="F10" s="136">
         <f>'United States Workbook'!L18</f>
         <v>1.0590044480422212</v>
       </c>
-      <c r="F10" s="150">
+      <c r="G10" s="136">
         <f>'United States Workbook'!M18</f>
         <v>1.0582013088612934</v>
       </c>
-      <c r="G10" s="150">
+      <c r="H10" s="136">
         <f>'United States Workbook'!N18</f>
         <v>1.0731648261553837</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="149">
+      <c r="I10" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="46">
+        <f>'United States Workbook'!A19</f>
+        <v>1989</v>
+      </c>
+      <c r="B11" s="135">
         <f>'United States Workbook'!H19</f>
         <v>9</v>
       </c>
-      <c r="B11" s="150">
+      <c r="C11" s="136">
         <f>'United States Workbook'!I19</f>
         <v>1.3505671518990054</v>
       </c>
-      <c r="C11" s="150">
+      <c r="D11" s="136">
         <f>'United States Workbook'!J19</f>
         <v>1.1874048954393288</v>
       </c>
-      <c r="D11" s="150">
+      <c r="E11" s="136">
         <f>'United States Workbook'!K19</f>
         <v>1.3511229606178425</v>
       </c>
-      <c r="E11" s="150">
+      <c r="F11" s="136">
         <f>'United States Workbook'!L19</f>
         <v>1.091477096137206</v>
       </c>
-      <c r="F11" s="150">
+      <c r="G11" s="136">
         <f>'United States Workbook'!M19</f>
         <v>1.0896878096945122</v>
       </c>
-      <c r="G11" s="150">
+      <c r="H11" s="136">
         <f>'United States Workbook'!N19</f>
         <v>1.132762084079274</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="149">
+      <c r="I11" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="46">
+        <f>'United States Workbook'!A20</f>
+        <v>1990</v>
+      </c>
+      <c r="B12" s="135">
         <f>'United States Workbook'!H20</f>
         <v>10</v>
       </c>
-      <c r="B12" s="150">
+      <c r="C12" s="136">
         <f>'United States Workbook'!I20</f>
         <v>1.3759100784627976</v>
       </c>
-      <c r="C12" s="150">
+      <c r="D12" s="136">
         <f>'United States Workbook'!J20</f>
         <v>1.1894482848571801</v>
       </c>
-      <c r="D12" s="150">
+      <c r="E12" s="136">
         <f>'United States Workbook'!K20</f>
         <v>1.392744919648649</v>
       </c>
-      <c r="E12" s="150">
+      <c r="F12" s="136">
         <f>'United States Workbook'!L20</f>
         <v>1.0973116942545786</v>
       </c>
-      <c r="F12" s="150">
+      <c r="G12" s="136">
         <f>'United States Workbook'!M20</f>
         <v>1.0947824920207399</v>
       </c>
-      <c r="G12" s="150">
+      <c r="H12" s="136">
         <f>'United States Workbook'!N20</f>
         <v>1.1515878312567835</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="149">
+      <c r="I12" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="46">
+        <f>'United States Workbook'!A21</f>
+        <v>1991</v>
+      </c>
+      <c r="B13" s="135">
         <f>'United States Workbook'!H21</f>
         <v>11</v>
       </c>
-      <c r="B13" s="150">
+      <c r="C13" s="136">
         <f>'United States Workbook'!I21</f>
         <v>1.37270471676687</v>
       </c>
-      <c r="C13" s="150">
+      <c r="D13" s="136">
         <f>'United States Workbook'!J21</f>
         <v>1.1726174948915264</v>
       </c>
-      <c r="D13" s="150">
+      <c r="E13" s="136">
         <f>'United States Workbook'!K21</f>
         <v>1.4245782523020183</v>
       </c>
-      <c r="E13" s="150">
+      <c r="F13" s="136">
         <f>'United States Workbook'!L21</f>
         <v>1.0970304534357245</v>
       </c>
-      <c r="F13" s="150">
+      <c r="G13" s="136">
         <f>'United States Workbook'!M21</f>
         <v>1.0940935849901903</v>
       </c>
-      <c r="G13" s="150">
+      <c r="H13" s="136">
         <f>'United States Workbook'!N21</f>
         <v>1.1388630838040485</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="149">
+      <c r="I13" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="46">
+        <f>'United States Workbook'!A22</f>
+        <v>1992</v>
+      </c>
+      <c r="B14" s="135">
         <f>'United States Workbook'!H22</f>
         <v>12</v>
       </c>
-      <c r="B14" s="150">
+      <c r="C14" s="136">
         <f>'United States Workbook'!I22</f>
         <v>1.41927673670182</v>
       </c>
-      <c r="C14" s="150">
+      <c r="D14" s="136">
         <f>'United States Workbook'!J22</f>
         <v>1.1735631059519152</v>
       </c>
-      <c r="D14" s="150">
+      <c r="E14" s="136">
         <f>'United States Workbook'!K22</f>
         <v>1.4611842525767238</v>
       </c>
-      <c r="E14" s="150">
+      <c r="F14" s="136">
         <f>'United States Workbook'!L22</f>
         <v>1.1126031845324349</v>
       </c>
-      <c r="F14" s="150">
+      <c r="G14" s="136">
         <f>'United States Workbook'!M22</f>
         <v>1.1098333657897044</v>
       </c>
-      <c r="G14" s="150">
+      <c r="H14" s="136">
         <f>'United States Workbook'!N22</f>
         <v>1.1874189587884159</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="149">
+      <c r="I14" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="46">
+        <f>'United States Workbook'!A23</f>
+        <v>1993</v>
+      </c>
+      <c r="B15" s="135">
         <f>'United States Workbook'!H23</f>
         <v>13</v>
       </c>
-      <c r="B15" s="150">
+      <c r="C15" s="136">
         <f>'United States Workbook'!I23</f>
         <v>1.4597551412201801</v>
       </c>
-      <c r="C15" s="150">
+      <c r="D15" s="136">
         <f>'United States Workbook'!J23</f>
         <v>1.2010347376201034</v>
       </c>
-      <c r="D15" s="150">
+      <c r="E15" s="136">
         <f>'United States Workbook'!K23</f>
         <v>1.5048028580248676</v>
       </c>
-      <c r="E15" s="150">
+      <c r="F15" s="136">
         <f>'United States Workbook'!L23</f>
         <v>1.1340206277761917</v>
       </c>
-      <c r="F15" s="150">
+      <c r="G15" s="136">
         <f>'United States Workbook'!M23</f>
         <v>1.1311864847021107</v>
       </c>
-      <c r="G15" s="150">
+      <c r="H15" s="136">
         <f>'United States Workbook'!N23</f>
         <v>1.1995642582030086</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="149">
+      <c r="I15" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="46">
+        <f>'United States Workbook'!A24</f>
+        <v>1994</v>
+      </c>
+      <c r="B16" s="135">
         <f>'United States Workbook'!H24</f>
         <v>14</v>
       </c>
-      <c r="B16" s="150">
+      <c r="C16" s="136">
         <f>'United States Workbook'!I24</f>
         <v>1.519225742311203</v>
       </c>
-      <c r="C16" s="150">
+      <c r="D16" s="136">
         <f>'United States Workbook'!J24</f>
         <v>1.2386200599973913</v>
       </c>
-      <c r="D16" s="150">
+      <c r="E16" s="136">
         <f>'United States Workbook'!K24</f>
         <v>1.5570251845082432</v>
       </c>
-      <c r="E16" s="150">
+      <c r="F16" s="136">
         <f>'United States Workbook'!L24</f>
         <v>1.1561006055992233</v>
       </c>
-      <c r="F16" s="150">
+      <c r="G16" s="136">
         <f>'United States Workbook'!M24</f>
         <v>1.1531941458390789</v>
       </c>
-      <c r="G16" s="150">
+      <c r="H16" s="136">
         <f>'United States Workbook'!N24</f>
         <v>1.2387054028291842</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="149">
+      <c r="I16" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="46">
+        <f>'United States Workbook'!A25</f>
+        <v>1995</v>
+      </c>
+      <c r="B17" s="135">
         <f>'United States Workbook'!H25</f>
         <v>15</v>
       </c>
-      <c r="B17" s="150">
+      <c r="C17" s="136">
         <f>'United States Workbook'!I25</f>
         <v>1.5574243976019781</v>
       </c>
-      <c r="C17" s="150">
+      <c r="D17" s="136">
         <f>'United States Workbook'!J25</f>
         <v>1.2691350376070605</v>
       </c>
-      <c r="D17" s="150">
+      <c r="E17" s="136">
         <f>'United States Workbook'!K25</f>
         <v>1.6154642862485431</v>
       </c>
-      <c r="E17" s="150">
+      <c r="F17" s="136">
         <f>'United States Workbook'!L25</f>
         <v>1.1815576361804059</v>
       </c>
-      <c r="F17" s="150">
+      <c r="G17" s="136">
         <f>'United States Workbook'!M25</f>
         <v>1.1778527588845169</v>
       </c>
-      <c r="G17" s="150">
+      <c r="H17" s="136">
         <f>'United States Workbook'!N25</f>
         <v>1.2919642899061348</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="149">
+      <c r="I17" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="46">
+        <f>'United States Workbook'!A26</f>
+        <v>1996</v>
+      </c>
+      <c r="B18" s="135">
         <f>'United States Workbook'!H26</f>
         <v>16</v>
       </c>
-      <c r="B18" s="150">
+      <c r="C18" s="136">
         <f>'United States Workbook'!I26</f>
         <v>1.6156822749497555</v>
       </c>
-      <c r="C18" s="150">
+      <c r="D18" s="136">
         <f>'United States Workbook'!J26</f>
         <v>1.2849767401417329</v>
       </c>
-      <c r="D18" s="150">
+      <c r="E18" s="136">
         <f>'United States Workbook'!K26</f>
         <v>1.6848298661966756</v>
       </c>
-      <c r="E18" s="150">
+      <c r="F18" s="136">
         <f>'United States Workbook'!L26</f>
         <v>1.2199552231190838</v>
       </c>
-      <c r="F18" s="150">
+      <c r="G18" s="136">
         <f>'United States Workbook'!M26</f>
         <v>1.2164062756398868</v>
       </c>
-      <c r="G18" s="150">
+      <c r="H18" s="136">
         <f>'United States Workbook'!N26</f>
         <v>1.3335423024180206</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="149">
+      <c r="I18" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="46">
+        <f>'United States Workbook'!A27</f>
+        <v>1997</v>
+      </c>
+      <c r="B19" s="135">
         <f>'United States Workbook'!H27</f>
         <v>17</v>
       </c>
-      <c r="B19" s="150">
+      <c r="C19" s="136">
         <f>'United States Workbook'!I27</f>
         <v>1.6876872115495867</v>
       </c>
-      <c r="C19" s="150">
+      <c r="D19" s="136">
         <f>'United States Workbook'!J27</f>
         <v>1.3226164079822615</v>
       </c>
-      <c r="D19" s="150">
+      <c r="E19" s="136">
         <f>'United States Workbook'!K27</f>
         <v>1.7661721968142325</v>
       </c>
-      <c r="E19" s="150">
+      <c r="F19" s="136">
         <f>'United States Workbook'!L27</f>
         <v>1.2302531525034239</v>
       </c>
-      <c r="F19" s="150">
+      <c r="G19" s="136">
         <f>'United States Workbook'!M27</f>
         <v>1.2270879520392413</v>
       </c>
-      <c r="G19" s="150">
+      <c r="H19" s="136">
         <f>'United States Workbook'!N27</f>
         <v>1.3522881805788678</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="149">
+      <c r="I19" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="46">
+        <f>'United States Workbook'!A28</f>
+        <v>1998</v>
+      </c>
+      <c r="B20" s="135">
         <f>'United States Workbook'!H28</f>
         <v>18</v>
       </c>
-      <c r="B20" s="150">
+      <c r="C20" s="136">
         <f>'United States Workbook'!I28</f>
         <v>1.7611919831675658</v>
       </c>
-      <c r="C20" s="150">
+      <c r="D20" s="136">
         <f>'United States Workbook'!J28</f>
         <v>1.3510825616277553</v>
       </c>
-      <c r="D20" s="150">
+      <c r="E20" s="136">
         <f>'United States Workbook'!K28</f>
         <v>1.8634435011076613</v>
       </c>
-      <c r="E20" s="150">
+      <c r="F20" s="136">
         <f>'United States Workbook'!L28</f>
         <v>1.2383866028607038</v>
       </c>
-      <c r="F20" s="150">
+      <c r="G20" s="136">
         <f>'United States Workbook'!M28</f>
         <v>1.2353135766143875</v>
       </c>
-      <c r="G20" s="150">
+      <c r="H20" s="136">
         <f>'United States Workbook'!N28</f>
         <v>1.3668763473090262</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="149">
+      <c r="I20" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="46">
+        <f>'United States Workbook'!A29</f>
+        <v>1999</v>
+      </c>
+      <c r="B21" s="135">
         <f>'United States Workbook'!H29</f>
         <v>19</v>
       </c>
-      <c r="B21" s="150">
+      <c r="C21" s="136">
         <f>'United States Workbook'!I29</f>
         <v>1.8461897762674677</v>
       </c>
-      <c r="C21" s="150">
+      <c r="D21" s="136">
         <f>'United States Workbook'!J29</f>
         <v>1.3775161949480457</v>
       </c>
-      <c r="D21" s="150">
+      <c r="E21" s="136">
         <f>'United States Workbook'!K29</f>
         <v>1.9744542948568879</v>
       </c>
-      <c r="E21" s="150">
+      <c r="F21" s="136">
         <f>'United States Workbook'!L29</f>
         <v>1.2584310420845322</v>
       </c>
-      <c r="F21" s="150">
+      <c r="G21" s="136">
         <f>'United States Workbook'!M29</f>
         <v>1.2550090678857349</v>
       </c>
-      <c r="G21" s="150">
+      <c r="H21" s="136">
         <f>'United States Workbook'!N29</f>
         <v>1.4091187520234514</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="149">
+      <c r="I21" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="46">
+        <f>'United States Workbook'!A30</f>
+        <v>2000</v>
+      </c>
+      <c r="B22" s="135">
         <f>'United States Workbook'!H30</f>
         <v>20</v>
       </c>
-      <c r="B22" s="150">
+      <c r="C22" s="136">
         <f>'United States Workbook'!I30</f>
         <v>1.9226042278206541</v>
       </c>
-      <c r="C22" s="150">
+      <c r="D22" s="136">
         <f>'United States Workbook'!J30</f>
         <v>1.3958740924307638</v>
       </c>
-      <c r="D22" s="150">
+      <c r="E22" s="136">
         <f>'United States Workbook'!K30</f>
         <v>2.095546779486301</v>
       </c>
-      <c r="E22" s="150">
+      <c r="F22" s="136">
         <f>'United States Workbook'!L30</f>
         <v>1.2848444717051239</v>
       </c>
-      <c r="F22" s="150">
+      <c r="G22" s="136">
         <f>'United States Workbook'!M30</f>
         <v>1.281612659475486</v>
       </c>
-      <c r="G22" s="150">
+      <c r="H22" s="136">
         <f>'United States Workbook'!N30</f>
         <v>1.3964447355801066</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="149">
+      <c r="I22" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="46">
+        <f>'United States Workbook'!A31</f>
+        <v>2001</v>
+      </c>
+      <c r="B23" s="135">
         <f>'United States Workbook'!H31</f>
         <v>21</v>
       </c>
-      <c r="B23" s="150">
+      <c r="C23" s="136">
         <f>'United States Workbook'!I31</f>
         <v>1.9433533739860045</v>
       </c>
-      <c r="C23" s="150">
+      <c r="D23" s="136">
         <f>'United States Workbook'!J31</f>
         <v>1.3788204860658233</v>
       </c>
-      <c r="D23" s="150">
+      <c r="E23" s="136">
         <f>'United States Workbook'!K31</f>
         <v>2.2032567557827543</v>
       </c>
-      <c r="E23" s="150">
+      <c r="F23" s="136">
         <f>'United States Workbook'!L31</f>
         <v>1.2548085558849991</v>
       </c>
-      <c r="F23" s="150">
+      <c r="G23" s="136">
         <f>'United States Workbook'!M31</f>
         <v>1.2515643473730997</v>
       </c>
-      <c r="G23" s="150" t="str">
+      <c r="H23" s="136" t="str">
         <f>'United States Workbook'!N31</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="149">
+      <c r="I23" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="46">
+        <f>'United States Workbook'!A32</f>
+        <v>2002</v>
+      </c>
+      <c r="B24" s="135">
         <f>'United States Workbook'!H32</f>
         <v>22</v>
       </c>
-      <c r="B24" s="150">
+      <c r="C24" s="136">
         <f>'United States Workbook'!I32</f>
         <v>1.9785994969124825</v>
       </c>
-      <c r="C24" s="150">
+      <c r="D24" s="136">
         <f>'United States Workbook'!J32</f>
         <v>1.3608756141037346</v>
       </c>
-      <c r="D24" s="150">
+      <c r="E24" s="136">
         <f>'United States Workbook'!K32</f>
         <v>2.2926599241432113</v>
       </c>
-      <c r="E24" s="150">
+      <c r="F24" s="136">
         <f>'United States Workbook'!L32</f>
         <v>1.2778694037101019</v>
       </c>
-      <c r="F24" s="150">
+      <c r="G24" s="136">
         <f>'United States Workbook'!M32</f>
         <v>1.27394464375247</v>
       </c>
-      <c r="G24" s="150" t="str">
+      <c r="H24" s="136" t="str">
         <f>'United States Workbook'!N32</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="149">
+      <c r="I24" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="46">
+        <f>'United States Workbook'!A33</f>
+        <v>2003</v>
+      </c>
+      <c r="B25" s="135">
         <f>'United States Workbook'!H33</f>
         <v>23</v>
       </c>
-      <c r="B25" s="150">
+      <c r="C25" s="136">
         <f>'United States Workbook'!I33</f>
         <v>2.0288782519637127</v>
       </c>
-      <c r="C25" s="150">
+      <c r="D25" s="136">
         <f>'United States Workbook'!J33</f>
         <v>1.353821572975088</v>
       </c>
-      <c r="D25" s="150">
+      <c r="E25" s="136">
         <f>'United States Workbook'!K33</f>
         <v>2.3844029847701655</v>
       </c>
-      <c r="E25" s="150">
+      <c r="F25" s="136">
         <f>'United States Workbook'!L33</f>
         <v>1.280636008695303</v>
       </c>
-      <c r="F25" s="150">
+      <c r="G25" s="136">
         <f>'United States Workbook'!M33</f>
         <v>1.2768751563230547</v>
       </c>
-      <c r="G25" s="150" t="str">
+      <c r="H25" s="136" t="str">
         <f>'United States Workbook'!N33</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="149">
+      <c r="I25" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="46">
+        <f>'United States Workbook'!A34</f>
+        <v>2004</v>
+      </c>
+      <c r="B26" s="135">
         <f>'United States Workbook'!H34</f>
         <v>24</v>
       </c>
-      <c r="B26" s="150">
+      <c r="C26" s="136">
         <f>'United States Workbook'!I34</f>
         <v>2.0992419405293989</v>
       </c>
-      <c r="C26" s="150">
+      <c r="D26" s="136">
         <f>'United States Workbook'!J34</f>
         <v>1.36902199904352</v>
       </c>
-      <c r="D26" s="150">
+      <c r="E26" s="136">
         <f>'United States Workbook'!K34</f>
         <v>2.4884570663903292</v>
       </c>
-      <c r="E26" s="150">
+      <c r="F26" s="136">
         <f>'United States Workbook'!L34</f>
         <v>1.3017800375398247</v>
       </c>
-      <c r="F26" s="150">
+      <c r="G26" s="136">
         <f>'United States Workbook'!M34</f>
         <v>1.2981167171143662</v>
       </c>
-      <c r="G26" s="150" t="str">
+      <c r="H26" s="136" t="str">
         <f>'United States Workbook'!N34</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="149">
+      <c r="I26" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="46">
+        <f>'United States Workbook'!A35</f>
+        <v>2005</v>
+      </c>
+      <c r="B27" s="135">
         <f>'United States Workbook'!H35</f>
         <v>25</v>
       </c>
-      <c r="B27" s="150">
+      <c r="C27" s="136">
         <f>'United States Workbook'!I35</f>
         <v>2.1636962791235823</v>
       </c>
-      <c r="C27" s="150">
+      <c r="D27" s="136">
         <f>'United States Workbook'!J35</f>
         <v>1.3900863005956263</v>
       </c>
-      <c r="D27" s="150">
+      <c r="E27" s="136">
         <f>'United States Workbook'!K35</f>
         <v>2.6028860393862372</v>
       </c>
-      <c r="E27" s="150">
+      <c r="F27" s="136">
         <f>'United States Workbook'!L35</f>
         <v>1.3035617627864231</v>
       </c>
-      <c r="F27" s="150">
+      <c r="G27" s="136">
         <f>'United States Workbook'!M35</f>
         <v>1.299674124901856</v>
       </c>
-      <c r="G27" s="150" t="str">
+      <c r="H27" s="136" t="str">
         <f>'United States Workbook'!N35</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="149">
+      <c r="I27" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="46">
+        <f>'United States Workbook'!A36</f>
+        <v>2006</v>
+      </c>
+      <c r="B28" s="135">
         <f>'United States Workbook'!H36</f>
         <v>26</v>
       </c>
-      <c r="B28" s="150">
+      <c r="C28" s="136">
         <f>'United States Workbook'!I36</f>
         <v>2.2212085242051947</v>
       </c>
-      <c r="C28" s="150">
+      <c r="D28" s="136">
         <f>'United States Workbook'!J36</f>
         <v>1.415492804660667</v>
       </c>
-      <c r="D28" s="150">
+      <c r="E28" s="136">
         <f>'United States Workbook'!K36</f>
         <v>2.7161623373356019</v>
       </c>
-      <c r="E28" s="150">
+      <c r="F28" s="136">
         <f>'United States Workbook'!L36</f>
         <v>1.2960281726867848</v>
       </c>
-      <c r="F28" s="150">
+      <c r="G28" s="136">
         <f>'United States Workbook'!M36</f>
         <v>1.2915581805555536</v>
       </c>
-      <c r="G28" s="150" t="str">
+      <c r="H28" s="136" t="str">
         <f>'United States Workbook'!N36</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="149">
+      <c r="I28" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="46">
+        <f>'United States Workbook'!A37</f>
+        <v>2007</v>
+      </c>
+      <c r="B29" s="135">
         <f>'United States Workbook'!H37</f>
         <v>27</v>
       </c>
-      <c r="B29" s="150">
+      <c r="C29" s="136">
         <f>'United States Workbook'!I37</f>
         <v>2.2637009928907821</v>
       </c>
-      <c r="C29" s="150">
+      <c r="D29" s="136">
         <f>'United States Workbook'!J37</f>
         <v>1.4253238989609147</v>
       </c>
-      <c r="D29" s="150">
+      <c r="E29" s="136">
         <f>'United States Workbook'!K37</f>
         <v>2.8157773416941714</v>
       </c>
-      <c r="E29" s="150">
+      <c r="F29" s="136">
         <f>'United States Workbook'!L37</f>
         <v>1.3178356817386681</v>
       </c>
-      <c r="F29" s="150">
+      <c r="G29" s="136">
         <f>'United States Workbook'!M37</f>
         <v>1.3131968037019068</v>
       </c>
-      <c r="G29" s="150" t="str">
+      <c r="H29" s="136" t="str">
         <f>'United States Workbook'!N37</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="149">
+      <c r="I29" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="46">
+        <f>'United States Workbook'!A38</f>
+        <v>2008</v>
+      </c>
+      <c r="B30" s="135">
         <f>'United States Workbook'!H38</f>
         <v>28</v>
       </c>
-      <c r="B30" s="150">
+      <c r="C30" s="136">
         <f>'United States Workbook'!I38</f>
         <v>2.2560818309985899</v>
       </c>
-      <c r="C30" s="150">
+      <c r="D30" s="136">
         <f>'United States Workbook'!J38</f>
         <v>1.4099386983174644</v>
       </c>
-      <c r="D30" s="150">
+      <c r="E30" s="136">
         <f>'United States Workbook'!K38</f>
         <v>2.8877482718713834</v>
       </c>
-      <c r="E30" s="150">
+      <c r="F30" s="136">
         <f>'United States Workbook'!L38</f>
         <v>1.2874053531174439</v>
       </c>
-      <c r="F30" s="150">
+      <c r="G30" s="136">
         <f>'United States Workbook'!M38</f>
         <v>1.2818966426816121</v>
       </c>
-      <c r="G30" s="150" t="str">
+      <c r="H30" s="136" t="str">
         <f>'United States Workbook'!N38</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="149">
+      <c r="I30" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="46">
+        <f>'United States Workbook'!A39</f>
+        <v>2009</v>
+      </c>
+      <c r="B31" s="135">
         <f>'United States Workbook'!H39</f>
         <v>29</v>
       </c>
-      <c r="B31" s="150">
+      <c r="C31" s="136">
         <f>'United States Workbook'!I39</f>
         <v>2.1774390531327268</v>
       </c>
-      <c r="C31" s="150">
+      <c r="D31" s="136">
         <f>'United States Workbook'!J39</f>
         <v>1.3323170731707317</v>
       </c>
-      <c r="D31" s="150">
+      <c r="E31" s="136">
         <f>'United States Workbook'!K39</f>
         <v>2.9040578894188074</v>
       </c>
-      <c r="E31" s="150">
+      <c r="F31" s="136">
         <f>'United States Workbook'!L39</f>
         <v>1.2307039228526457</v>
       </c>
-      <c r="F31" s="150">
+      <c r="G31" s="136">
         <f>'United States Workbook'!M39</f>
         <v>1.2239240991088314</v>
       </c>
-      <c r="G31" s="150" t="str">
+      <c r="H31" s="136" t="str">
         <f>'United States Workbook'!N39</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="149">
+      <c r="I31" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="46">
+        <f>'United States Workbook'!A40</f>
+        <v>2010</v>
+      </c>
+      <c r="B32" s="135">
         <f>'United States Workbook'!H40</f>
         <v>30</v>
       </c>
-      <c r="B32" s="150">
+      <c r="C32" s="136">
         <f>'United States Workbook'!I40</f>
         <v>2.2434060824737849</v>
       </c>
-      <c r="C32" s="150">
+      <c r="D32" s="136">
         <f>'United States Workbook'!J40</f>
         <v>1.3317627494456763</v>
       </c>
-      <c r="D32" s="150">
+      <c r="E32" s="136">
         <f>'United States Workbook'!K40</f>
         <v>2.9249375453026043</v>
       </c>
-      <c r="E32" s="150">
+      <c r="F32" s="136">
         <f>'United States Workbook'!L40</f>
         <v>1.2710421181977825</v>
       </c>
-      <c r="F32" s="150">
+      <c r="G32" s="136">
         <f>'United States Workbook'!M40</f>
         <v>1.2647333525525213</v>
       </c>
-      <c r="G32" s="150" t="str">
+      <c r="H32" s="136" t="str">
         <f>'United States Workbook'!N40</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="149">
+      <c r="I32" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="46">
+        <f>'United States Workbook'!A41</f>
+        <v>2011</v>
+      </c>
+      <c r="B33" s="135">
         <f>'United States Workbook'!H41</f>
         <v>31</v>
       </c>
-      <c r="B33" s="150">
+      <c r="C33" s="136">
         <f>'United States Workbook'!I41</f>
         <v>2.2823332290590894</v>
       </c>
-      <c r="C33" s="150">
+      <c r="D33" s="136">
         <f>'United States Workbook'!J41</f>
         <v>1.3741821007782271</v>
       </c>
-      <c r="D33" s="150">
+      <c r="E33" s="136">
         <f>'United States Workbook'!K41</f>
         <v>2.9596752763713856</v>
       </c>
-      <c r="E33" s="150">
+      <c r="F33" s="136">
         <f>'United States Workbook'!L41</f>
         <v>1.2586181364292732</v>
       </c>
-      <c r="F33" s="150">
+      <c r="G33" s="136">
         <f>'United States Workbook'!M41</f>
         <v>1.250758076487557</v>
       </c>
-      <c r="G33" s="150" t="str">
+      <c r="H33" s="136" t="str">
         <f>'United States Workbook'!N41</f>
         <v>NA</v>
       </c>
+      <c r="I33" s="46" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12574,12 +12837,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12596,24 +12859,24 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="139" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="137"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="39">
@@ -13231,7 +13494,7 @@
     <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13248,44 +13511,44 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="59" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="59" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="59" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="59" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="59" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="59" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="59" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" style="59" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" style="59" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="59" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" style="59" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="59" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="59" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="59" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" style="59" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="59" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="59" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="59" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="59" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="59" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="59" customWidth="1"/>
+    <col min="12" max="12" width="29.1640625" style="59" customWidth="1"/>
+    <col min="13" max="13" width="26.6640625" style="59" customWidth="1"/>
+    <col min="14" max="14" width="25.5" style="59" customWidth="1"/>
+    <col min="15" max="15" width="22.1640625" style="59" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" style="59" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="59" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.1640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" style="59" customWidth="1"/>
+    <col min="26" max="26" width="18.83203125" style="59" customWidth="1"/>
     <col min="27" max="27" width="18" style="59" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.28515625" style="59" customWidth="1"/>
-    <col min="32" max="32" width="20.140625" style="59" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="59"/>
-    <col min="35" max="35" width="20.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="59"/>
+    <col min="28" max="28" width="21.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.1640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.33203125" style="59" customWidth="1"/>
+    <col min="32" max="32" width="20.1640625" style="59" customWidth="1"/>
+    <col min="33" max="33" width="14.83203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.83203125" style="59"/>
+    <col min="35" max="35" width="20.83203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -13426,7 +13689,7 @@
       <c r="AC14" s="63"/>
       <c r="AD14" s="63"/>
     </row>
-    <row r="15" spans="1:30" ht="15.75" thickBot="1">
+    <row r="15" spans="1:30" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -13442,7 +13705,7 @@
       <c r="AC15" s="63"/>
       <c r="AD15" s="63"/>
     </row>
-    <row r="16" spans="1:30" ht="18">
+    <row r="16" spans="1:30" ht="16">
       <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
@@ -13470,7 +13733,7 @@
       <c r="AC16" s="63"/>
       <c r="AD16" s="63"/>
     </row>
-    <row r="17" spans="1:35" ht="18">
+    <row r="17" spans="1:35" ht="16">
       <c r="A17" s="29" t="s">
         <v>21</v>
       </c>
@@ -13527,7 +13790,7 @@
       <c r="AC18" s="63"/>
       <c r="AD18" s="63"/>
     </row>
-    <row r="19" spans="1:35" ht="18">
+    <row r="19" spans="1:35" ht="16">
       <c r="A19" s="29" t="s">
         <v>25</v>
       </c>
@@ -13553,7 +13816,7 @@
       <c r="AC19" s="63"/>
       <c r="AD19" s="63"/>
     </row>
-    <row r="20" spans="1:35" ht="19.5" thickBot="1">
+    <row r="20" spans="1:35" ht="18" thickBot="1">
       <c r="A20" s="58" t="s">
         <v>44</v>
       </c>
@@ -13579,7 +13842,7 @@
       <c r="AC20" s="63"/>
       <c r="AD20" s="63"/>
     </row>
-    <row r="21" spans="1:35" ht="18.75">
+    <row r="21" spans="1:35" ht="17">
       <c r="A21" s="68"/>
       <c r="B21" s="69"/>
       <c r="C21" s="35">
@@ -13601,7 +13864,7 @@
       <c r="AC21" s="63"/>
       <c r="AD21" s="63"/>
     </row>
-    <row r="22" spans="1:35" ht="18">
+    <row r="22" spans="1:35" ht="16">
       <c r="A22" s="63"/>
       <c r="B22" s="63"/>
       <c r="C22" s="34">
@@ -13624,7 +13887,7 @@
       <c r="AC22" s="63"/>
       <c r="AD22" s="63"/>
     </row>
-    <row r="23" spans="1:35" ht="15.75" thickBot="1">
+    <row r="23" spans="1:35" ht="15" thickBot="1">
       <c r="A23" s="55"/>
       <c r="B23" s="30"/>
       <c r="C23" s="31">
@@ -13648,7 +13911,7 @@
       <c r="AC23" s="63"/>
       <c r="AD23" s="63"/>
     </row>
-    <row r="24" spans="1:35" ht="18" thickBot="1">
+    <row r="24" spans="1:35" ht="17" thickBot="1">
       <c r="A24" s="4"/>
       <c r="C24" s="56">
         <f>1000/6</f>
@@ -13701,34 +13964,34 @@
       <c r="A28" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="140" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="138" t="s">
+      <c r="D28" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="138" t="s">
+      <c r="E28" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="138" t="s">
+      <c r="F28" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="138" t="s">
+      <c r="G28" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="138" t="s">
+      <c r="H28" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="138" t="s">
+      <c r="I28" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="138" t="s">
+      <c r="J28" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="138" t="s">
+      <c r="K28" s="140" t="s">
         <v>75</v>
       </c>
       <c r="L28" s="142" t="s">
@@ -13737,10 +14000,10 @@
       <c r="M28" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="N28" s="138" t="s">
+      <c r="N28" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="138" t="s">
+      <c r="O28" s="140" t="s">
         <v>95</v>
       </c>
       <c r="P28" s="142" t="s">
@@ -13749,25 +14012,25 @@
       <c r="Q28" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="138" t="s">
+      <c r="R28" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="S28" s="138" t="s">
+      <c r="S28" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="T28" s="138" t="s">
+      <c r="T28" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="U28" s="138" t="s">
+      <c r="U28" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="V28" s="138" t="s">
+      <c r="V28" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="W28" s="138" t="s">
+      <c r="W28" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="X28" s="140" t="s">
+      <c r="X28" s="146" t="s">
         <v>37</v>
       </c>
       <c r="Y28" s="142" t="s">
@@ -13776,63 +14039,63 @@
       <c r="Z28" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="AA28" s="138" t="s">
+      <c r="AA28" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="AB28" s="138" t="s">
+      <c r="AB28" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="AC28" s="138" t="s">
+      <c r="AC28" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="AD28" s="138" t="s">
+      <c r="AD28" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="AE28" s="138" t="s">
+      <c r="AE28" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="AF28" s="138" t="s">
+      <c r="AF28" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="AG28" s="140" t="s">
+      <c r="AG28" s="146" t="s">
         <v>94</v>
       </c>
       <c r="AI28" s="63"/>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="143"/>
-      <c r="B29" s="139"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="145"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
       <c r="L29" s="143"/>
       <c r="M29" s="145"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
       <c r="P29" s="143"/>
       <c r="Q29" s="145"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="141"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="141"/>
+      <c r="T29" s="141"/>
+      <c r="U29" s="141"/>
+      <c r="V29" s="141"/>
+      <c r="W29" s="141"/>
+      <c r="X29" s="147"/>
       <c r="Y29" s="143"/>
       <c r="Z29" s="145"/>
-      <c r="AA29" s="139"/>
-      <c r="AB29" s="139"/>
-      <c r="AC29" s="139"/>
-      <c r="AD29" s="139"/>
-      <c r="AE29" s="139"/>
-      <c r="AF29" s="139"/>
-      <c r="AG29" s="141"/>
+      <c r="AA29" s="141"/>
+      <c r="AB29" s="141"/>
+      <c r="AC29" s="141"/>
+      <c r="AD29" s="141"/>
+      <c r="AE29" s="141"/>
+      <c r="AF29" s="141"/>
+      <c r="AG29" s="147"/>
       <c r="AI29" s="112"/>
     </row>
     <row r="30" spans="1:35">
@@ -17546,7 +17809,7 @@
         <v>105757717.19897434</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="15.75" thickBot="1">
+    <row r="61" spans="1:36" ht="15" thickBot="1">
       <c r="A61" s="45">
         <v>2011</v>
       </c>
@@ -18137,6 +18400,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
@@ -18152,26 +18433,13 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18181,30 +18449,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="59" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" customWidth="1"/>
-    <col min="19" max="19" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" customWidth="1"/>
-    <col min="26" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="59" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="59" customFormat="1">
@@ -18212,7 +18480,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1">
+    <row r="3" spans="1:27" ht="15" thickBot="1">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -20146,7 +20414,7 @@
         <v>0.11782377409234922</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1">
+    <row r="25" spans="1:27" ht="15" thickBot="1">
       <c r="A25" s="92">
         <v>1920</v>
       </c>
@@ -24277,7 +24545,7 @@
       </c>
       <c r="Q104" s="98"/>
     </row>
-    <row r="105" spans="1:17" ht="15.75" thickBot="1">
+    <row r="105" spans="1:17" ht="15" thickBot="1">
       <c r="A105" s="93">
         <v>2000</v>
       </c>
@@ -24330,6 +24598,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -24341,11 +24614,11 @@
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24361,55 +24634,55 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16"/>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="147"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="149"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16">
@@ -26231,6 +26504,11 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -26242,11 +26520,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26270,23 +26548,23 @@
     </row>
     <row r="3" spans="1:61">
       <c r="A3" s="16"/>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="147"/>
+      <c r="E3" s="149"/>
     </row>
     <row r="4" spans="1:61" ht="16.5" customHeight="1">
       <c r="A4" s="16"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="I4" s="9"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -26343,16 +26621,16 @@
     </row>
     <row r="5" spans="1:61" ht="15" customHeight="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="148" t="s">
         <v>11</v>
       </c>
     </row>
@@ -26360,10 +26638,10 @@
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -28241,5 +28519,10 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/Excel Workbooks/UnitedStatesDataWorkbook.xlsx
+++ b/data/Excel Workbooks/UnitedStatesDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="320" windowWidth="20640" windowHeight="17240" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="320" windowWidth="27140" windowHeight="17240" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="United States Workbook" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,18 @@
     <sheet name="Capital Stock Comparison" sheetId="4" r:id="rId8"/>
     <sheet name="GDP Comparison Graph" sheetId="8" r:id="rId9"/>
     <sheet name="GDP Comparison" sheetId="7" r:id="rId10"/>
+    <sheet name="CES models" sheetId="17" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="k_1">[1]Parameters!$B$11</definedName>
+    <definedName name="alpha">'CES models'!$K$9</definedName>
+    <definedName name="beta">'CES models'!$K$3</definedName>
+    <definedName name="gamma_E">'CES models'!$K$2</definedName>
+    <definedName name="invPhi">'CES models'!$K$7</definedName>
+    <definedName name="invSigma">'CES models'!$K$8</definedName>
+    <definedName name="lambda_E">'CES models'!$K$5</definedName>
+    <definedName name="lambda_L">'CES models'!$K$4</definedName>
+    <definedName name="phi">'CES models'!$K$6</definedName>
+    <definedName name="sigma">'CES models'!$K$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="162">
   <si>
     <t>Year</t>
   </si>
@@ -1090,6 +1096,60 @@
   <si>
     <t>US</t>
   </si>
+  <si>
+    <t>gamma_E</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>lambda_L</t>
+  </si>
+  <si>
+    <t>lambda_E</t>
+  </si>
+  <si>
+    <t>Using Q</t>
+  </si>
+  <si>
+    <t>Using X</t>
+  </si>
+  <si>
+    <t>Using U</t>
+  </si>
+  <si>
+    <t>(sigma-1)/sigma</t>
+  </si>
+  <si>
+    <t>sigma/(sigma-1)</t>
+  </si>
+  <si>
+    <t>1/sigma</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>CD term</t>
+  </si>
+  <si>
+    <t>A_L</t>
+  </si>
+  <si>
+    <t>A_E</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>invPhi</t>
+  </si>
+  <si>
+    <t>invSigma</t>
+  </si>
 </sst>
 </file>
 
@@ -1469,7 +1529,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1717,6 +1777,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2193,7 +2259,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1118">
+  <cellStyleXfs count="1124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3318,8 +3384,14 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3648,6 +3720,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3660,12 +3738,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3675,8 +3747,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1118">
+  <cellStyles count="1124">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="2"/>
     <cellStyle name="20% - Accent1" xfId="29" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="53"/>
@@ -4340,6 +4414,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1113" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1123" builtinId="9" hidden="1"/>
     <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="4"/>
     <cellStyle name="Good" xfId="17" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="330"/>
@@ -4548,6 +4625,9 @@
     <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1114" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="679" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="905" hidden="1"/>
     <cellStyle name="Hyperlink 11" xfId="681" hidden="1"/>
@@ -6196,11 +6276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124518984"/>
-        <c:axId val="2124509832"/>
+        <c:axId val="2091445096"/>
+        <c:axId val="2091454376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124518984"/>
+        <c:axId val="2091445096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015.0"/>
@@ -6224,6 +6304,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6240,12 +6321,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124509832"/>
+        <c:crossAx val="2091454376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124509832"/>
+        <c:axId val="2091454376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -6293,7 +6374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124518984"/>
+        <c:crossAx val="2091445096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -6342,6 +6423,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7236,11 +7318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2059566424"/>
-        <c:axId val="2059558472"/>
+        <c:axId val="2109936824"/>
+        <c:axId val="2109944840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2059566424"/>
+        <c:axId val="2109936824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -7264,19 +7346,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059558472"/>
+        <c:crossAx val="2109944840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2059558472"/>
+        <c:axId val="2109944840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7298,19 +7381,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059566424"/>
+        <c:crossAx val="2109936824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7355,6 +7440,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8357,11 +8443,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2059508616"/>
-        <c:axId val="2059500360"/>
+        <c:axId val="2109995128"/>
+        <c:axId val="2110003416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2059508616"/>
+        <c:axId val="2109995128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -8390,19 +8476,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059500360"/>
+        <c:crossAx val="2110003416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2059500360"/>
+        <c:axId val="2110003416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8429,19 +8516,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059508616"/>
+        <c:crossAx val="2109995128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8451,11 +8540,979 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Historical GDP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CES models'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CES models'!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.025385778992882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.005476540437695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.050900115273034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.12642323630115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.173025252936463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.213666496685365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.252499367926671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.303982276235328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.350567151899005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.375910078462798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.37270471676687</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.41927673670182</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.45975514122018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.519225742311203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.557424397601978</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.615682274949755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.687687211549587</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.761191983167566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.846189776267468</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.922604227820654</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.943353373986004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.978599496912482</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.028878251963713</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.099241940529399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.163696279123582</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.221208524205195</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.263700992890782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.25608183099859</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.177439053132727</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.243406082473785</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.282333229059089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With q</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CES models'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CES models'!$P$2:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.020473621550044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.025839638257218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.057288774536434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.118646820685882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.16157976563791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.195806247363553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.243655527256289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.29579395402832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.347902506059805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.374793324992096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.383213771697625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.408230138234255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.458582365891938</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.520933483286329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.579926104179534</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.630728491129721</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.702979523679234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.772406436227162</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.844798785144321</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.912856052564237</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.941086913935494</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.964982065808839</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.999554634348353</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.061386958998451</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.13043897797295</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.20490284998864</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.261698935788131</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.281854308889451</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.216081345704399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.249452135293525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.326758493038608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>With x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CES models'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CES models'!$Q$2:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.020368090855407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.025689982066838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.057122616379073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.118482749999781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.161395056916538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.195613438838903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.243464820405964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.295635549364794</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.347777057759431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.374697647346366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.383234121685692</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.40853154600386</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.45903325052458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.521371975470373</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.580530798387166</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.632645906700908</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.704042984943352</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.772978332882908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.845298915994778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.913618976829361</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.941311580975815</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.966331666465913</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.001427673764407</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.064121514297111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.132191596255884</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.205536666361343</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.263045948176289</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.282561926612299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.216980664556651</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.25530149332791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.328915629892147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>With u</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CES models'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CES models'!$R$2:$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.020230601801429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.025523707903017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05694740562287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.118306996385993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.161210456478741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.195416712177399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.243268368502584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.295527133390119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.348061866328253</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.375562456259908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.384308361633924</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.41603178544073</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.465813727971905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.532370001411435</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.607246270119191</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.681155074705432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.74608457924672</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.808666166406466</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.896447664916428</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.940511993230771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2132009112"/>
+        <c:axId val="2132000408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2132009112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2132000408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2132000408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2132009112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8466,7 +9523,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8477,7 +9534,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8488,7 +9545,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669694" cy="6288444"/>
+    <xdr:ext cx="8565745" cy="5818582"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9042,7 +10099,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8565745" cy="5818582"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9069,7 +10126,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8565745" cy="5818582"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9092,33 +10149,39 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Notes"/>
-      <sheetName val="Parameters"/>
-      <sheetName val="Horse"/>
-      <sheetName val="Human"/>
-      <sheetName val="muscle work summary"/>
-      <sheetName val="fig2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="11">
-          <cell r="B11">
-            <v>7000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11556,6 +12619,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
@@ -11568,12 +12637,6 @@
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -11589,8 +12652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13961,13 +15024,13 @@
       <c r="AI27" s="63"/>
     </row>
     <row r="28" spans="1:35">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="144" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="144" t="s">
+      <c r="C28" s="146" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="140" t="s">
@@ -13994,10 +15057,10 @@
       <c r="K28" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="L28" s="142" t="s">
+      <c r="L28" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="144" t="s">
+      <c r="M28" s="146" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="140" t="s">
@@ -14006,10 +15069,10 @@
       <c r="O28" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="P28" s="142" t="s">
+      <c r="P28" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="Q28" s="144" t="s">
+      <c r="Q28" s="146" t="s">
         <v>33</v>
       </c>
       <c r="R28" s="140" t="s">
@@ -14030,13 +15093,13 @@
       <c r="W28" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="X28" s="146" t="s">
+      <c r="X28" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="142" t="s">
+      <c r="Y28" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="Z28" s="144" t="s">
+      <c r="Z28" s="146" t="s">
         <v>87</v>
       </c>
       <c r="AA28" s="140" t="s">
@@ -14057,15 +15120,15 @@
       <c r="AF28" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="AG28" s="146" t="s">
+      <c r="AG28" s="142" t="s">
         <v>94</v>
       </c>
       <c r="AI28" s="63"/>
     </row>
     <row r="29" spans="1:35">
-      <c r="A29" s="143"/>
+      <c r="A29" s="145"/>
       <c r="B29" s="141"/>
-      <c r="C29" s="145"/>
+      <c r="C29" s="147"/>
       <c r="D29" s="141"/>
       <c r="E29" s="141"/>
       <c r="F29" s="141"/>
@@ -14074,28 +15137,28 @@
       <c r="I29" s="141"/>
       <c r="J29" s="141"/>
       <c r="K29" s="141"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="147"/>
       <c r="N29" s="141"/>
       <c r="O29" s="141"/>
-      <c r="P29" s="143"/>
-      <c r="Q29" s="145"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="147"/>
       <c r="R29" s="141"/>
       <c r="S29" s="141"/>
       <c r="T29" s="141"/>
       <c r="U29" s="141"/>
       <c r="V29" s="141"/>
       <c r="W29" s="141"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="143"/>
-      <c r="Z29" s="145"/>
+      <c r="X29" s="143"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="147"/>
       <c r="AA29" s="141"/>
       <c r="AB29" s="141"/>
       <c r="AC29" s="141"/>
       <c r="AD29" s="141"/>
       <c r="AE29" s="141"/>
       <c r="AF29" s="141"/>
-      <c r="AG29" s="147"/>
+      <c r="AG29" s="143"/>
       <c r="AI29" s="112"/>
     </row>
     <row r="30" spans="1:35">
@@ -18400,24 +19463,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
@@ -18433,6 +19478,24 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -28525,4 +29588,2066 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="12" max="14" width="10.83203125" style="123"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="str">
+        <f>USData!A1</f>
+        <v>Year</v>
+      </c>
+      <c r="B1" s="123" t="str">
+        <f>USData!B1</f>
+        <v>iYear</v>
+      </c>
+      <c r="C1" s="123" t="str">
+        <f>USData!C1</f>
+        <v>iGDP</v>
+      </c>
+      <c r="D1" s="123" t="str">
+        <f>USData!D1</f>
+        <v>iLabor</v>
+      </c>
+      <c r="E1" s="123" t="str">
+        <f>USData!E1</f>
+        <v>iCapStk</v>
+      </c>
+      <c r="F1" s="123" t="str">
+        <f>USData!F1</f>
+        <v>iQ</v>
+      </c>
+      <c r="G1" s="123" t="str">
+        <f>USData!G1</f>
+        <v>iX</v>
+      </c>
+      <c r="H1" s="123" t="str">
+        <f>USData!H1</f>
+        <v>iU</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="151">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="123">
+        <f>USData!A2</f>
+        <v>1980</v>
+      </c>
+      <c r="B2" s="123">
+        <f>USData!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="123">
+        <f>USData!C2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="123">
+        <f>USData!D2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="123">
+        <f>USData!E2</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="123">
+        <f>USData!F2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="123">
+        <f>USData!G2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="123">
+        <f>USData!H2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="151">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152">
+        <f>EXP(lambda_L*B2)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="152">
+        <f>EXP(lambda_E*B2)</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>E2^alpha * (M2*D2)^beta</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>((1-gamma_E)^1 * O2^phi + gamma_E^1 * ($N2*F2)^phi)^invPhi</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="123">
+        <f>((1-gamma_E)^1 * P2^phi + gamma_E^1 * ($N2*G2)^phi)^invPhi</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="123">
+        <f>((1-gamma_E)^1 * Q2^phi + gamma_E^1 * ($N2*H2)^phi)^invPhi</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="123">
+        <f>USData!A3</f>
+        <v>1981</v>
+      </c>
+      <c r="B3" s="123">
+        <f>USData!B3</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="123">
+        <f>USData!C3</f>
+        <v>1.0253857789928822</v>
+      </c>
+      <c r="D3" s="123">
+        <f>USData!D3</f>
+        <v>1.0020977348810922</v>
+      </c>
+      <c r="E3" s="123">
+        <f>USData!E3</f>
+        <v>1.0322020091577557</v>
+      </c>
+      <c r="F3" s="123">
+        <f>USData!F3</f>
+        <v>0.97675457762464424</v>
+      </c>
+      <c r="G3" s="123">
+        <f>USData!G3</f>
+        <v>0.97642733276965432</v>
+      </c>
+      <c r="H3" s="123">
+        <f>USData!H3</f>
+        <v>0.96168717730646613</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="151">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152">
+        <f>EXP(lambda_L*B3)</f>
+        <v>1.0140984589384923</v>
+      </c>
+      <c r="N3" s="152">
+        <f>EXP(lambda_E*B3)</f>
+        <v>1.0217327903373821</v>
+      </c>
+      <c r="O3" s="123">
+        <f>E3^alpha * (M3*D3)^beta</f>
+        <v>1.0205785007443666</v>
+      </c>
+      <c r="P3" s="123">
+        <f>((1-gamma_E)^1 * O3^phi + gamma_E^1 * ($N3*F3)^phi)^invPhi</f>
+        <v>1.0204736215500438</v>
+      </c>
+      <c r="Q3" s="123">
+        <f>((1-gamma_E)^1 * P3^phi + gamma_E^1 * ($N3*G3)^phi)^invPhi</f>
+        <v>1.0203680908554074</v>
+      </c>
+      <c r="R3" s="123">
+        <f>((1-gamma_E)^1 * Q3^phi + gamma_E^1 * ($N3*H3)^phi)^invPhi</f>
+        <v>1.0202306018014293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="123">
+        <f>USData!A4</f>
+        <v>1982</v>
+      </c>
+      <c r="B4" s="123">
+        <f>USData!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="123">
+        <f>USData!C4</f>
+        <v>1.0054765404376946</v>
+      </c>
+      <c r="D4" s="123">
+        <f>USData!D4</f>
+        <v>0.98717447067518804</v>
+      </c>
+      <c r="E4" s="123">
+        <f>USData!E4</f>
+        <v>1.0551144855460044</v>
+      </c>
+      <c r="F4" s="123">
+        <f>USData!F4</f>
+        <v>0.93893758076404543</v>
+      </c>
+      <c r="G4" s="123">
+        <f>USData!G4</f>
+        <v>0.93792480115235277</v>
+      </c>
+      <c r="H4" s="123">
+        <f>USData!H4</f>
+        <v>0.9148294667349629</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="151">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152">
+        <f>EXP(lambda_L*B4)</f>
+        <v>1.028395684421425</v>
+      </c>
+      <c r="N4" s="152">
+        <f>EXP(lambda_E*B4)</f>
+        <v>1.0439378948506126</v>
+      </c>
+      <c r="O4" s="123">
+        <f>E4^alpha * (M4*D4)^beta</f>
+        <v>1.0259882977800701</v>
+      </c>
+      <c r="P4" s="123">
+        <f>((1-gamma_E)^1 * O4^phi + gamma_E^1 * ($N4*F4)^phi)^invPhi</f>
+        <v>1.0258396382572177</v>
+      </c>
+      <c r="Q4" s="123">
+        <f>((1-gamma_E)^1 * P4^phi + gamma_E^1 * ($N4*G4)^phi)^invPhi</f>
+        <v>1.0256899820668377</v>
+      </c>
+      <c r="R4" s="123">
+        <f>((1-gamma_E)^1 * Q4^phi + gamma_E^1 * ($N4*H4)^phi)^invPhi</f>
+        <v>1.0255237079030171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="123">
+        <f>USData!A5</f>
+        <v>1983</v>
+      </c>
+      <c r="B5" s="123">
+        <f>USData!B5</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="123">
+        <f>USData!C5</f>
+        <v>1.0509001152730342</v>
+      </c>
+      <c r="D5" s="123">
+        <f>USData!D5</f>
+        <v>1.0048910916916656</v>
+      </c>
+      <c r="E5" s="123">
+        <f>USData!E5</f>
+        <v>1.0829322225440718</v>
+      </c>
+      <c r="F5" s="123">
+        <f>USData!F5</f>
+        <v>0.93368099180744046</v>
+      </c>
+      <c r="G5" s="123">
+        <f>USData!G5</f>
+        <v>0.93269982330788503</v>
+      </c>
+      <c r="H5" s="123">
+        <f>USData!H5</f>
+        <v>0.91158058574848388</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="151">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152">
+        <f>EXP(lambda_L*B5)</f>
+        <v>1.0428944787507632</v>
+      </c>
+      <c r="N5" s="152">
+        <f>EXP(lambda_E*B5)</f>
+        <v>1.066625578244649</v>
+      </c>
+      <c r="O5" s="123">
+        <f>E5^alpha * (M5*D5)^beta</f>
+        <v>1.057454399273293</v>
+      </c>
+      <c r="P5" s="123">
+        <f>((1-gamma_E)^1 * O5^phi + gamma_E^1 * ($N5*F5)^phi)^invPhi</f>
+        <v>1.0572887745364343</v>
+      </c>
+      <c r="Q5" s="123">
+        <f>((1-gamma_E)^1 * P5^phi + gamma_E^1 * ($N5*G5)^phi)^invPhi</f>
+        <v>1.0571226163790735</v>
+      </c>
+      <c r="R5" s="123">
+        <f>((1-gamma_E)^1 * Q5^phi + gamma_E^1 * ($N5*H5)^phi)^invPhi</f>
+        <v>1.0569474056228705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="123">
+        <f>USData!A6</f>
+        <v>1984</v>
+      </c>
+      <c r="B6" s="123">
+        <f>USData!B6</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="123">
+        <f>USData!C6</f>
+        <v>1.1264232363011497</v>
+      </c>
+      <c r="D6" s="123">
+        <f>USData!D6</f>
+        <v>1.0555845398026173</v>
+      </c>
+      <c r="E6" s="123">
+        <f>USData!E6</f>
+        <v>1.1252643360219112</v>
+      </c>
+      <c r="F6" s="123">
+        <f>USData!F6</f>
+        <v>0.97986843314985783</v>
+      </c>
+      <c r="G6" s="123">
+        <f>USData!G6</f>
+        <v>0.97898428758509615</v>
+      </c>
+      <c r="H6" s="123">
+        <f>USData!H6</f>
+        <v>0.96572748103939288</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6">
+        <f>(K1-1)/K1</f>
+        <v>40.999999999999993</v>
+      </c>
+      <c r="L6" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="152">
+        <f>EXP(lambda_L*B6)</f>
+        <v>1.0575976837366112</v>
+      </c>
+      <c r="N6" s="152">
+        <f>EXP(lambda_E*B6)</f>
+        <v>1.0898063283051287</v>
+      </c>
+      <c r="O6" s="123">
+        <f>E6^alpha * (M6*D6)^beta</f>
+        <v>1.118810046641995</v>
+      </c>
+      <c r="P6" s="123">
+        <f>((1-gamma_E)^1 * O6^phi + gamma_E^1 * ($N6*F6)^phi)^invPhi</f>
+        <v>1.1186468206858819</v>
+      </c>
+      <c r="Q6" s="123">
+        <f>((1-gamma_E)^1 * P6^phi + gamma_E^1 * ($N6*G6)^phi)^invPhi</f>
+        <v>1.1184827499997807</v>
+      </c>
+      <c r="R6" s="123">
+        <f>((1-gamma_E)^1 * Q6^phi + gamma_E^1 * ($N6*H6)^phi)^invPhi</f>
+        <v>1.1183069963859926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="123">
+        <f>USData!A7</f>
+        <v>1985</v>
+      </c>
+      <c r="B7" s="123">
+        <f>USData!B7</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="123">
+        <f>USData!C7</f>
+        <v>1.1730252529364626</v>
+      </c>
+      <c r="D7" s="123">
+        <f>USData!D7</f>
+        <v>1.079724794574149</v>
+      </c>
+      <c r="E7" s="123">
+        <f>USData!E7</f>
+        <v>1.1717601413237269</v>
+      </c>
+      <c r="F7" s="123">
+        <f>USData!F7</f>
+        <v>0.97904834959387554</v>
+      </c>
+      <c r="G7" s="123">
+        <f>USData!G7</f>
+        <v>0.97820693123439895</v>
+      </c>
+      <c r="H7" s="123">
+        <f>USData!H7</f>
+        <v>0.97818281172401245</v>
+      </c>
+      <c r="J7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7">
+        <f>1/K6</f>
+        <v>2.4390243902439029E-2</v>
+      </c>
+      <c r="L7" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="152">
+        <f>EXP(lambda_L*B7)</f>
+        <v>1.0725081812542165</v>
+      </c>
+      <c r="N7" s="152">
+        <f>EXP(lambda_E*B7)</f>
+        <v>1.1134908607465361</v>
+      </c>
+      <c r="O7" s="123">
+        <f>E7^alpha * (M7*D7)^beta</f>
+        <v>1.1617640869622503</v>
+      </c>
+      <c r="P7" s="123">
+        <f>((1-gamma_E)^1 * O7^phi + gamma_E^1 * ($N7*F7)^phi)^invPhi</f>
+        <v>1.1615797656379097</v>
+      </c>
+      <c r="Q7" s="123">
+        <f>((1-gamma_E)^1 * P7^phi + gamma_E^1 * ($N7*G7)^phi)^invPhi</f>
+        <v>1.1613950569165381</v>
+      </c>
+      <c r="R7" s="123">
+        <f>((1-gamma_E)^1 * Q7^phi + gamma_E^1 * ($N7*H7)^phi)^invPhi</f>
+        <v>1.1612104564787413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="123">
+        <f>USData!A8</f>
+        <v>1986</v>
+      </c>
+      <c r="B8" s="123">
+        <f>USData!B8</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="123">
+        <f>USData!C8</f>
+        <v>1.2136664966853645</v>
+      </c>
+      <c r="D8" s="123">
+        <f>USData!D8</f>
+        <v>1.0923709838702664</v>
+      </c>
+      <c r="E8" s="123">
+        <f>USData!E8</f>
+        <v>1.2171977865810455</v>
+      </c>
+      <c r="F8" s="123">
+        <f>USData!F8</f>
+        <v>0.98176546651016883</v>
+      </c>
+      <c r="G8" s="123">
+        <f>USData!G8</f>
+        <v>0.98083165159731767</v>
+      </c>
+      <c r="H8" s="123">
+        <f>USData!H8</f>
+        <v>0.97122135256145103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8">
+        <f>1/K1</f>
+        <v>-40</v>
+      </c>
+      <c r="L8" s="123" t="s">
+        <v>161</v>
+      </c>
+      <c r="M8" s="152">
+        <f>EXP(lambda_L*B8)</f>
+        <v>1.0876288938088261</v>
+      </c>
+      <c r="N8" s="152">
+        <f>EXP(lambda_E*B8)</f>
+        <v>1.1376901241657316</v>
+      </c>
+      <c r="O8" s="123">
+        <f>E8^alpha * (M8*D8)^beta</f>
+        <v>1.1959986897647981</v>
+      </c>
+      <c r="P8" s="123">
+        <f>((1-gamma_E)^1 * O8^phi + gamma_E^1 * ($N8*F8)^phi)^invPhi</f>
+        <v>1.1958062473635533</v>
+      </c>
+      <c r="Q8" s="123">
+        <f>((1-gamma_E)^1 * P8^phi + gamma_E^1 * ($N8*G8)^phi)^invPhi</f>
+        <v>1.195613438838903</v>
+      </c>
+      <c r="R8" s="123">
+        <f>((1-gamma_E)^1 * Q8^phi + gamma_E^1 * ($N8*H8)^phi)^invPhi</f>
+        <v>1.1954167121773991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="123">
+        <f>USData!A9</f>
+        <v>1987</v>
+      </c>
+      <c r="B9" s="123">
+        <f>USData!B9</f>
+        <v>7</v>
+      </c>
+      <c r="C9" s="123">
+        <f>USData!C9</f>
+        <v>1.2524993679266709</v>
+      </c>
+      <c r="D9" s="123">
+        <f>USData!D9</f>
+        <v>1.1219783922438156</v>
+      </c>
+      <c r="E9" s="123">
+        <f>USData!E9</f>
+        <v>1.2608159840507633</v>
+      </c>
+      <c r="F9" s="123">
+        <f>USData!F9</f>
+        <v>1.0133869021190081</v>
+      </c>
+      <c r="G9" s="123">
+        <f>USData!G9</f>
+        <v>1.0125679375140006</v>
+      </c>
+      <c r="H9" s="123">
+        <f>USData!H9</f>
+        <v>1.0050566048005822</v>
+      </c>
+      <c r="J9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9">
+        <f>1-K3</f>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="M9" s="152">
+        <f>EXP(lambda_L*B9)</f>
+        <v>1.1029627851085078</v>
+      </c>
+      <c r="N9" s="152">
+        <f>EXP(lambda_E*B9)</f>
+        <v>1.1624153051031354</v>
+      </c>
+      <c r="O9" s="123">
+        <f>E9^alpha * (M9*D9)^beta</f>
+        <v>1.2438456543998093</v>
+      </c>
+      <c r="P9" s="123">
+        <f>((1-gamma_E)^1 * O9^phi + gamma_E^1 * ($N9*F9)^phi)^invPhi</f>
+        <v>1.2436555272562895</v>
+      </c>
+      <c r="Q9" s="123">
+        <f>((1-gamma_E)^1 * P9^phi + gamma_E^1 * ($N9*G9)^phi)^invPhi</f>
+        <v>1.2434648204059637</v>
+      </c>
+      <c r="R9" s="123">
+        <f>((1-gamma_E)^1 * Q9^phi + gamma_E^1 * ($N9*H9)^phi)^invPhi</f>
+        <v>1.2432683685025845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="123">
+        <f>USData!A10</f>
+        <v>1988</v>
+      </c>
+      <c r="B10" s="123">
+        <f>USData!B10</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="123">
+        <f>USData!C10</f>
+        <v>1.3039822762353284</v>
+      </c>
+      <c r="D10" s="123">
+        <f>USData!D10</f>
+        <v>1.1554660666927525</v>
+      </c>
+      <c r="E10" s="123">
+        <f>USData!E10</f>
+        <v>1.305396194649227</v>
+      </c>
+      <c r="F10" s="123">
+        <f>USData!F10</f>
+        <v>1.0590044480422212</v>
+      </c>
+      <c r="G10" s="123">
+        <f>USData!G10</f>
+        <v>1.0582013088612934</v>
+      </c>
+      <c r="H10" s="123">
+        <f>USData!H10</f>
+        <v>1.0731648261553837</v>
+      </c>
+      <c r="M10" s="152">
+        <f>EXP(lambda_L*B10)</f>
+        <v>1.1185128606450452</v>
+      </c>
+      <c r="N10" s="152">
+        <f>EXP(lambda_E*B10)</f>
+        <v>1.187677833213906</v>
+      </c>
+      <c r="O10" s="123">
+        <f>E10^alpha * (M10*D10)^beta</f>
+        <v>1.2959506948180715</v>
+      </c>
+      <c r="P10" s="123">
+        <f>((1-gamma_E)^1 * O10^phi + gamma_E^1 * ($N10*F10)^phi)^invPhi</f>
+        <v>1.2957939540283201</v>
+      </c>
+      <c r="Q10" s="123">
+        <f>((1-gamma_E)^1 * P10^phi + gamma_E^1 * ($N10*G10)^phi)^invPhi</f>
+        <v>1.2956355493647942</v>
+      </c>
+      <c r="R10" s="123">
+        <f>((1-gamma_E)^1 * Q10^phi + gamma_E^1 * ($N10*H10)^phi)^invPhi</f>
+        <v>1.2955271333901193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="123">
+        <f>USData!A11</f>
+        <v>1989</v>
+      </c>
+      <c r="B11" s="123">
+        <f>USData!B11</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="123">
+        <f>USData!C11</f>
+        <v>1.3505671518990054</v>
+      </c>
+      <c r="D11" s="123">
+        <f>USData!D11</f>
+        <v>1.1874048954393288</v>
+      </c>
+      <c r="E11" s="123">
+        <f>USData!E11</f>
+        <v>1.3511229606178425</v>
+      </c>
+      <c r="F11" s="123">
+        <f>USData!F11</f>
+        <v>1.091477096137206</v>
+      </c>
+      <c r="G11" s="123">
+        <f>USData!G11</f>
+        <v>1.0896878096945122</v>
+      </c>
+      <c r="H11" s="123">
+        <f>USData!H11</f>
+        <v>1.132762084079274</v>
+      </c>
+      <c r="M11" s="152">
+        <f>EXP(lambda_L*B11)</f>
+        <v>1.1342821682830251</v>
+      </c>
+      <c r="N11" s="152">
+        <f>EXP(lambda_E*B11)</f>
+        <v>1.2134893865514997</v>
+      </c>
+      <c r="O11" s="123">
+        <f>E11^alpha * (M11*D11)^beta</f>
+        <v>1.3480210435078956</v>
+      </c>
+      <c r="P11" s="123">
+        <f>((1-gamma_E)^1 * O11^phi + gamma_E^1 * ($N11*F11)^phi)^invPhi</f>
+        <v>1.3479025060598049</v>
+      </c>
+      <c r="Q11" s="123">
+        <f>((1-gamma_E)^1 * P11^phi + gamma_E^1 * ($N11*G11)^phi)^invPhi</f>
+        <v>1.3477770577594308</v>
+      </c>
+      <c r="R11" s="123">
+        <f>((1-gamma_E)^1 * Q11^phi + gamma_E^1 * ($N11*H11)^phi)^invPhi</f>
+        <v>1.3480618663282531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="123">
+        <f>USData!A12</f>
+        <v>1990</v>
+      </c>
+      <c r="B12" s="123">
+        <f>USData!B12</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="123">
+        <f>USData!C12</f>
+        <v>1.3759100784627976</v>
+      </c>
+      <c r="D12" s="123">
+        <f>USData!D12</f>
+        <v>1.1894482848571801</v>
+      </c>
+      <c r="E12" s="123">
+        <f>USData!E12</f>
+        <v>1.392744919648649</v>
+      </c>
+      <c r="F12" s="123">
+        <f>USData!F12</f>
+        <v>1.0973116942545786</v>
+      </c>
+      <c r="G12" s="123">
+        <f>USData!G12</f>
+        <v>1.0947824920207399</v>
+      </c>
+      <c r="H12" s="123">
+        <f>USData!H12</f>
+        <v>1.1515878312567835</v>
+      </c>
+      <c r="M12" s="152">
+        <f>EXP(lambda_L*B12)</f>
+        <v>1.1502737988572274</v>
+      </c>
+      <c r="N12" s="152">
+        <f>EXP(lambda_E*B12)</f>
+        <v>1.2398618969660617</v>
+      </c>
+      <c r="O12" s="123">
+        <f>E12^alpha * (M12*D12)^beta</f>
+        <v>1.3748755368458783</v>
+      </c>
+      <c r="P12" s="123">
+        <f>((1-gamma_E)^1 * O12^phi + gamma_E^1 * ($N12*F12)^phi)^invPhi</f>
+        <v>1.3747933249920963</v>
+      </c>
+      <c r="Q12" s="123">
+        <f>((1-gamma_E)^1 * P12^phi + gamma_E^1 * ($N12*G12)^phi)^invPhi</f>
+        <v>1.3746976473463661</v>
+      </c>
+      <c r="R12" s="123">
+        <f>((1-gamma_E)^1 * Q12^phi + gamma_E^1 * ($N12*H12)^phi)^invPhi</f>
+        <v>1.3755624562599085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="123">
+        <f>USData!A13</f>
+        <v>1991</v>
+      </c>
+      <c r="B13" s="123">
+        <f>USData!B13</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="123">
+        <f>USData!C13</f>
+        <v>1.37270471676687</v>
+      </c>
+      <c r="D13" s="123">
+        <f>USData!D13</f>
+        <v>1.1726174948915264</v>
+      </c>
+      <c r="E13" s="123">
+        <f>USData!E13</f>
+        <v>1.4245782523020183</v>
+      </c>
+      <c r="F13" s="123">
+        <f>USData!F13</f>
+        <v>1.0970304534357245</v>
+      </c>
+      <c r="G13" s="123">
+        <f>USData!G13</f>
+        <v>1.0940935849901903</v>
+      </c>
+      <c r="H13" s="123">
+        <f>USData!H13</f>
+        <v>1.1388630838040485</v>
+      </c>
+      <c r="M13" s="152">
+        <f>EXP(lambda_L*B13)</f>
+        <v>1.1664908867784396</v>
+      </c>
+      <c r="N13" s="152">
+        <f>EXP(lambda_E*B13)</f>
+        <v>1.2668075556201339</v>
+      </c>
+      <c r="O13" s="123">
+        <f>E13^alpha * (M13*D13)^beta</f>
+        <v>1.3831632243924659</v>
+      </c>
+      <c r="P13" s="123">
+        <f>((1-gamma_E)^1 * O13^phi + gamma_E^1 * ($N13*F13)^phi)^invPhi</f>
+        <v>1.3832137716976249</v>
+      </c>
+      <c r="Q13" s="123">
+        <f>((1-gamma_E)^1 * P13^phi + gamma_E^1 * ($N13*G13)^phi)^invPhi</f>
+        <v>1.3832341216856923</v>
+      </c>
+      <c r="R13" s="123">
+        <f>((1-gamma_E)^1 * Q13^phi + gamma_E^1 * ($N13*H13)^phi)^invPhi</f>
+        <v>1.3843083616339238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="123">
+        <f>USData!A14</f>
+        <v>1992</v>
+      </c>
+      <c r="B14" s="123">
+        <f>USData!B14</f>
+        <v>12</v>
+      </c>
+      <c r="C14" s="123">
+        <f>USData!C14</f>
+        <v>1.41927673670182</v>
+      </c>
+      <c r="D14" s="123">
+        <f>USData!D14</f>
+        <v>1.1735631059519152</v>
+      </c>
+      <c r="E14" s="123">
+        <f>USData!E14</f>
+        <v>1.4611842525767238</v>
+      </c>
+      <c r="F14" s="123">
+        <f>USData!F14</f>
+        <v>1.1126031845324349</v>
+      </c>
+      <c r="G14" s="123">
+        <f>USData!G14</f>
+        <v>1.1098333657897044</v>
+      </c>
+      <c r="H14" s="123">
+        <f>USData!H14</f>
+        <v>1.1874189587884159</v>
+      </c>
+      <c r="M14" s="152">
+        <f>EXP(lambda_L*B14)</f>
+        <v>1.1829366106478107</v>
+      </c>
+      <c r="N14" s="152">
+        <f>EXP(lambda_E*B14)</f>
+        <v>1.2943388186242377</v>
+      </c>
+      <c r="O14" s="123">
+        <f>E14^alpha * (M14*D14)^beta</f>
+        <v>1.407864557586376</v>
+      </c>
+      <c r="P14" s="123">
+        <f>((1-gamma_E)^1 * O14^phi + gamma_E^1 * ($N14*F14)^phi)^invPhi</f>
+        <v>1.4082301382342552</v>
+      </c>
+      <c r="Q14" s="123">
+        <f>((1-gamma_E)^1 * P14^phi + gamma_E^1 * ($N14*G14)^phi)^invPhi</f>
+        <v>1.4085315460038599</v>
+      </c>
+      <c r="R14" s="123">
+        <f>((1-gamma_E)^1 * Q14^phi + gamma_E^1 * ($N14*H14)^phi)^invPhi</f>
+        <v>1.4160317854407301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="123">
+        <f>USData!A15</f>
+        <v>1993</v>
+      </c>
+      <c r="B15" s="123">
+        <f>USData!B15</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="123">
+        <f>USData!C15</f>
+        <v>1.4597551412201801</v>
+      </c>
+      <c r="D15" s="123">
+        <f>USData!D15</f>
+        <v>1.2010347376201034</v>
+      </c>
+      <c r="E15" s="123">
+        <f>USData!E15</f>
+        <v>1.5048028580248676</v>
+      </c>
+      <c r="F15" s="123">
+        <f>USData!F15</f>
+        <v>1.1340206277761917</v>
+      </c>
+      <c r="G15" s="123">
+        <f>USData!G15</f>
+        <v>1.1311864847021107</v>
+      </c>
+      <c r="H15" s="123">
+        <f>USData!H15</f>
+        <v>1.1995642582030086</v>
+      </c>
+      <c r="M15" s="152">
+        <f>EXP(lambda_L*B15)</f>
+        <v>1.1996141938798683</v>
+      </c>
+      <c r="N15" s="152">
+        <f>EXP(lambda_E*B15)</f>
+        <v>1.3224684127949329</v>
+      </c>
+      <c r="O15" s="123">
+        <f>E15^alpha * (M15*D15)^beta</f>
+        <v>1.4580450868502455</v>
+      </c>
+      <c r="P15" s="123">
+        <f>((1-gamma_E)^1 * O15^phi + gamma_E^1 * ($N15*F15)^phi)^invPhi</f>
+        <v>1.4585823658919383</v>
+      </c>
+      <c r="Q15" s="123">
+        <f>((1-gamma_E)^1 * P15^phi + gamma_E^1 * ($N15*G15)^phi)^invPhi</f>
+        <v>1.45903325052458</v>
+      </c>
+      <c r="R15" s="123">
+        <f>((1-gamma_E)^1 * Q15^phi + gamma_E^1 * ($N15*H15)^phi)^invPhi</f>
+        <v>1.465813727971905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="123">
+        <f>USData!A16</f>
+        <v>1994</v>
+      </c>
+      <c r="B16" s="123">
+        <f>USData!B16</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="123">
+        <f>USData!C16</f>
+        <v>1.519225742311203</v>
+      </c>
+      <c r="D16" s="123">
+        <f>USData!D16</f>
+        <v>1.2386200599973913</v>
+      </c>
+      <c r="E16" s="123">
+        <f>USData!E16</f>
+        <v>1.5570251845082432</v>
+      </c>
+      <c r="F16" s="123">
+        <f>USData!F16</f>
+        <v>1.1561006055992233</v>
+      </c>
+      <c r="G16" s="123">
+        <f>USData!G16</f>
+        <v>1.1531941458390789</v>
+      </c>
+      <c r="H16" s="123">
+        <f>USData!H16</f>
+        <v>1.2387054028291842</v>
+      </c>
+      <c r="M16" s="152">
+        <f>EXP(lambda_L*B16)</f>
+        <v>1.2165269053343162</v>
+      </c>
+      <c r="N16" s="152">
+        <f>EXP(lambda_E*B16)</f>
+        <v>1.3512093415380155</v>
+      </c>
+      <c r="O16" s="123">
+        <f>E16^alpha * (M16*D16)^beta</f>
+        <v>1.5204090274417355</v>
+      </c>
+      <c r="P16" s="123">
+        <f>((1-gamma_E)^1 * O16^phi + gamma_E^1 * ($N16*F16)^phi)^invPhi</f>
+        <v>1.5209334832863295</v>
+      </c>
+      <c r="Q16" s="123">
+        <f>((1-gamma_E)^1 * P16^phi + gamma_E^1 * ($N16*G16)^phi)^invPhi</f>
+        <v>1.5213719754703734</v>
+      </c>
+      <c r="R16" s="123">
+        <f>((1-gamma_E)^1 * Q16^phi + gamma_E^1 * ($N16*H16)^phi)^invPhi</f>
+        <v>1.5323700014114352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="123">
+        <f>USData!A17</f>
+        <v>1995</v>
+      </c>
+      <c r="B17" s="123">
+        <f>USData!B17</f>
+        <v>15</v>
+      </c>
+      <c r="C17" s="123">
+        <f>USData!C17</f>
+        <v>1.5574243976019781</v>
+      </c>
+      <c r="D17" s="123">
+        <f>USData!D17</f>
+        <v>1.2691350376070605</v>
+      </c>
+      <c r="E17" s="123">
+        <f>USData!E17</f>
+        <v>1.6154642862485431</v>
+      </c>
+      <c r="F17" s="123">
+        <f>USData!F17</f>
+        <v>1.1815576361804059</v>
+      </c>
+      <c r="G17" s="123">
+        <f>USData!G17</f>
+        <v>1.1778527588845169</v>
+      </c>
+      <c r="H17" s="123">
+        <f>USData!H17</f>
+        <v>1.2919642899061348</v>
+      </c>
+      <c r="M17" s="152">
+        <f>EXP(lambda_L*B17)</f>
+        <v>1.2336780599567432</v>
+      </c>
+      <c r="N17" s="152">
+        <f>EXP(lambda_E*B17)</f>
+        <v>1.3805748908595732</v>
+      </c>
+      <c r="O17" s="123">
+        <f>E17^alpha * (M17*D17)^beta</f>
+        <v>1.5791838766471218</v>
+      </c>
+      <c r="P17" s="123">
+        <f>((1-gamma_E)^1 * O17^phi + gamma_E^1 * ($N17*F17)^phi)^invPhi</f>
+        <v>1.5799261041795343</v>
+      </c>
+      <c r="Q17" s="123">
+        <f>((1-gamma_E)^1 * P17^phi + gamma_E^1 * ($N17*G17)^phi)^invPhi</f>
+        <v>1.5805307983871659</v>
+      </c>
+      <c r="R17" s="123">
+        <f>((1-gamma_E)^1 * Q17^phi + gamma_E^1 * ($N17*H17)^phi)^invPhi</f>
+        <v>1.6072462701191914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="123">
+        <f>USData!A18</f>
+        <v>1996</v>
+      </c>
+      <c r="B18" s="123">
+        <f>USData!B18</f>
+        <v>16</v>
+      </c>
+      <c r="C18" s="123">
+        <f>USData!C18</f>
+        <v>1.6156822749497555</v>
+      </c>
+      <c r="D18" s="123">
+        <f>USData!D18</f>
+        <v>1.2849767401417329</v>
+      </c>
+      <c r="E18" s="123">
+        <f>USData!E18</f>
+        <v>1.6848298661966756</v>
+      </c>
+      <c r="F18" s="123">
+        <f>USData!F18</f>
+        <v>1.2199552231190838</v>
+      </c>
+      <c r="G18" s="123">
+        <f>USData!G18</f>
+        <v>1.2164062756398868</v>
+      </c>
+      <c r="H18" s="123">
+        <f>USData!H18</f>
+        <v>1.3335423024180206</v>
+      </c>
+      <c r="M18" s="152">
+        <f>EXP(lambda_L*B18)</f>
+        <v>1.2510710194283623</v>
+      </c>
+      <c r="N18" s="152">
+        <f>EXP(lambda_E*B18)</f>
+        <v>1.4105786355076784</v>
+      </c>
+      <c r="O18" s="123">
+        <f>E18^alpha * (M18*D18)^beta</f>
+        <v>1.628399752153936</v>
+      </c>
+      <c r="P18" s="123">
+        <f>((1-gamma_E)^1 * O18^phi + gamma_E^1 * ($N18*F18)^phi)^invPhi</f>
+        <v>1.6307284911297213</v>
+      </c>
+      <c r="Q18" s="123">
+        <f>((1-gamma_E)^1 * P18^phi + gamma_E^1 * ($N18*G18)^phi)^invPhi</f>
+        <v>1.6326459067009078</v>
+      </c>
+      <c r="R18" s="123">
+        <f>((1-gamma_E)^1 * Q18^phi + gamma_E^1 * ($N18*H18)^phi)^invPhi</f>
+        <v>1.6811550747054322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="123">
+        <f>USData!A19</f>
+        <v>1997</v>
+      </c>
+      <c r="B19" s="123">
+        <f>USData!B19</f>
+        <v>17</v>
+      </c>
+      <c r="C19" s="123">
+        <f>USData!C19</f>
+        <v>1.6876872115495867</v>
+      </c>
+      <c r="D19" s="123">
+        <f>USData!D19</f>
+        <v>1.3226164079822615</v>
+      </c>
+      <c r="E19" s="123">
+        <f>USData!E19</f>
+        <v>1.7661721968142325</v>
+      </c>
+      <c r="F19" s="123">
+        <f>USData!F19</f>
+        <v>1.2302531525034239</v>
+      </c>
+      <c r="G19" s="123">
+        <f>USData!G19</f>
+        <v>1.2270879520392413</v>
+      </c>
+      <c r="H19" s="123">
+        <f>USData!H19</f>
+        <v>1.3522881805788678</v>
+      </c>
+      <c r="M19" s="152">
+        <f>EXP(lambda_L*B19)</f>
+        <v>1.2687091928249108</v>
+      </c>
+      <c r="N19" s="152">
+        <f>EXP(lambda_E*B19)</f>
+        <v>1.4412344452475572</v>
+      </c>
+      <c r="O19" s="123">
+        <f>E19^alpha * (M19*D19)^beta</f>
+        <v>1.7017232981524548</v>
+      </c>
+      <c r="P19" s="123">
+        <f>((1-gamma_E)^1 * O19^phi + gamma_E^1 * ($N19*F19)^phi)^invPhi</f>
+        <v>1.7029795236792338</v>
+      </c>
+      <c r="Q19" s="123">
+        <f>((1-gamma_E)^1 * P19^phi + gamma_E^1 * ($N19*G19)^phi)^invPhi</f>
+        <v>1.704042984943352</v>
+      </c>
+      <c r="R19" s="123">
+        <f>((1-gamma_E)^1 * Q19^phi + gamma_E^1 * ($N19*H19)^phi)^invPhi</f>
+        <v>1.7460845792467194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="123">
+        <f>USData!A20</f>
+        <v>1998</v>
+      </c>
+      <c r="B20" s="123">
+        <f>USData!B20</f>
+        <v>18</v>
+      </c>
+      <c r="C20" s="123">
+        <f>USData!C20</f>
+        <v>1.7611919831675658</v>
+      </c>
+      <c r="D20" s="123">
+        <f>USData!D20</f>
+        <v>1.3510825616277553</v>
+      </c>
+      <c r="E20" s="123">
+        <f>USData!E20</f>
+        <v>1.8634435011076613</v>
+      </c>
+      <c r="F20" s="123">
+        <f>USData!F20</f>
+        <v>1.2383866028607038</v>
+      </c>
+      <c r="G20" s="123">
+        <f>USData!G20</f>
+        <v>1.2353135766143875</v>
+      </c>
+      <c r="H20" s="123">
+        <f>USData!H20</f>
+        <v>1.3668763473090262</v>
+      </c>
+      <c r="M20" s="152">
+        <f>EXP(lambda_L*B20)</f>
+        <v>1.2865960372848406</v>
+      </c>
+      <c r="N20" s="152">
+        <f>EXP(lambda_E*B20)</f>
+        <v>1.4725564912731353</v>
+      </c>
+      <c r="O20" s="123">
+        <f>E20^alpha * (M20*D20)^beta</f>
+        <v>1.7717267491093867</v>
+      </c>
+      <c r="P20" s="123">
+        <f>((1-gamma_E)^1 * O20^phi + gamma_E^1 * ($N20*F20)^phi)^invPhi</f>
+        <v>1.7724064362271621</v>
+      </c>
+      <c r="Q20" s="123">
+        <f>((1-gamma_E)^1 * P20^phi + gamma_E^1 * ($N20*G20)^phi)^invPhi</f>
+        <v>1.7729783328829083</v>
+      </c>
+      <c r="R20" s="123">
+        <f>((1-gamma_E)^1 * Q20^phi + gamma_E^1 * ($N20*H20)^phi)^invPhi</f>
+        <v>1.8086661664064663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="123">
+        <f>USData!A21</f>
+        <v>1999</v>
+      </c>
+      <c r="B21" s="123">
+        <f>USData!B21</f>
+        <v>19</v>
+      </c>
+      <c r="C21" s="123">
+        <f>USData!C21</f>
+        <v>1.8461897762674677</v>
+      </c>
+      <c r="D21" s="123">
+        <f>USData!D21</f>
+        <v>1.3775161949480457</v>
+      </c>
+      <c r="E21" s="123">
+        <f>USData!E21</f>
+        <v>1.9744542948568879</v>
+      </c>
+      <c r="F21" s="123">
+        <f>USData!F21</f>
+        <v>1.2584310420845322</v>
+      </c>
+      <c r="G21" s="123">
+        <f>USData!G21</f>
+        <v>1.2550090678857349</v>
+      </c>
+      <c r="H21" s="123">
+        <f>USData!H21</f>
+        <v>1.4091187520234514</v>
+      </c>
+      <c r="M21" s="152">
+        <f>EXP(lambda_L*B21)</f>
+        <v>1.304735058686928</v>
+      </c>
+      <c r="N21" s="152">
+        <f>EXP(lambda_E*B21)</f>
+        <v>1.5045592527579252</v>
+      </c>
+      <c r="O21" s="123">
+        <f>E21^alpha * (M21*D21)^beta</f>
+        <v>1.8441911279784078</v>
+      </c>
+      <c r="P21" s="123">
+        <f>((1-gamma_E)^1 * O21^phi + gamma_E^1 * ($N21*F21)^phi)^invPhi</f>
+        <v>1.8447987851443208</v>
+      </c>
+      <c r="Q21" s="123">
+        <f>((1-gamma_E)^1 * P21^phi + gamma_E^1 * ($N21*G21)^phi)^invPhi</f>
+        <v>1.8452989159947781</v>
+      </c>
+      <c r="R21" s="123">
+        <f>((1-gamma_E)^1 * Q21^phi + gamma_E^1 * ($N21*H21)^phi)^invPhi</f>
+        <v>1.8964476649164279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="123">
+        <f>USData!A22</f>
+        <v>2000</v>
+      </c>
+      <c r="B22" s="123">
+        <f>USData!B22</f>
+        <v>20</v>
+      </c>
+      <c r="C22" s="123">
+        <f>USData!C22</f>
+        <v>1.9226042278206541</v>
+      </c>
+      <c r="D22" s="123">
+        <f>USData!D22</f>
+        <v>1.3958740924307638</v>
+      </c>
+      <c r="E22" s="123">
+        <f>USData!E22</f>
+        <v>2.095546779486301</v>
+      </c>
+      <c r="F22" s="123">
+        <f>USData!F22</f>
+        <v>1.2848444717051239</v>
+      </c>
+      <c r="G22" s="123">
+        <f>USData!G22</f>
+        <v>1.281612659475486</v>
+      </c>
+      <c r="H22" s="123">
+        <f>USData!H22</f>
+        <v>1.3964447355801066</v>
+      </c>
+      <c r="M22" s="152">
+        <f>EXP(lambda_L*B22)</f>
+        <v>1.3231298123374369</v>
+      </c>
+      <c r="N22" s="152">
+        <f>EXP(lambda_E*B22)</f>
+        <v>1.5372575235482813</v>
+      </c>
+      <c r="O22" s="123">
+        <f>E22^alpha * (M22*D22)^beta</f>
+        <v>1.9119530966962257</v>
+      </c>
+      <c r="P22" s="123">
+        <f>((1-gamma_E)^1 * O22^phi + gamma_E^1 * ($N22*F22)^phi)^invPhi</f>
+        <v>1.9128560525642373</v>
+      </c>
+      <c r="Q22" s="123">
+        <f>((1-gamma_E)^1 * P22^phi + gamma_E^1 * ($N22*G22)^phi)^invPhi</f>
+        <v>1.9136189768293614</v>
+      </c>
+      <c r="R22" s="123">
+        <f>((1-gamma_E)^1 * Q22^phi + gamma_E^1 * ($N22*H22)^phi)^invPhi</f>
+        <v>1.9405119932307708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="123">
+        <f>USData!A23</f>
+        <v>2001</v>
+      </c>
+      <c r="B23" s="123">
+        <f>USData!B23</f>
+        <v>21</v>
+      </c>
+      <c r="C23" s="123">
+        <f>USData!C23</f>
+        <v>1.9433533739860045</v>
+      </c>
+      <c r="D23" s="123">
+        <f>USData!D23</f>
+        <v>1.3788204860658233</v>
+      </c>
+      <c r="E23" s="123">
+        <f>USData!E23</f>
+        <v>2.2032567557827543</v>
+      </c>
+      <c r="F23" s="123">
+        <f>USData!F23</f>
+        <v>1.2548085558849991</v>
+      </c>
+      <c r="G23" s="123">
+        <f>USData!G23</f>
+        <v>1.2515643473730997</v>
+      </c>
+      <c r="H23" s="123" t="str">
+        <f>USData!H23</f>
+        <v>NA</v>
+      </c>
+      <c r="M23" s="152">
+        <f>EXP(lambda_L*B23)</f>
+        <v>1.3417839036669714</v>
+      </c>
+      <c r="N23" s="152">
+        <f>EXP(lambda_E*B23)</f>
+        <v>1.5706664190021191</v>
+      </c>
+      <c r="O23" s="123">
+        <f>E23^alpha * (M23*D23)^beta</f>
+        <v>1.940796506358619</v>
+      </c>
+      <c r="P23" s="123">
+        <f>((1-gamma_E)^1 * O23^phi + gamma_E^1 * ($N23*F23)^phi)^invPhi</f>
+        <v>1.9410869139354936</v>
+      </c>
+      <c r="Q23" s="123">
+        <f>((1-gamma_E)^1 * P23^phi + gamma_E^1 * ($N23*G23)^phi)^invPhi</f>
+        <v>1.941311580975815</v>
+      </c>
+      <c r="R23" s="123"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="123">
+        <f>USData!A24</f>
+        <v>2002</v>
+      </c>
+      <c r="B24" s="123">
+        <f>USData!B24</f>
+        <v>22</v>
+      </c>
+      <c r="C24" s="123">
+        <f>USData!C24</f>
+        <v>1.9785994969124825</v>
+      </c>
+      <c r="D24" s="123">
+        <f>USData!D24</f>
+        <v>1.3608756141037346</v>
+      </c>
+      <c r="E24" s="123">
+        <f>USData!E24</f>
+        <v>2.2926599241432113</v>
+      </c>
+      <c r="F24" s="123">
+        <f>USData!F24</f>
+        <v>1.2778694037101019</v>
+      </c>
+      <c r="G24" s="123">
+        <f>USData!G24</f>
+        <v>1.27394464375247</v>
+      </c>
+      <c r="H24" s="123" t="str">
+        <f>USData!H24</f>
+        <v>NA</v>
+      </c>
+      <c r="M24" s="152">
+        <f>EXP(lambda_L*B24)</f>
+        <v>1.3607009889371502</v>
+      </c>
+      <c r="N24" s="152">
+        <f>EXP(lambda_E*B24)</f>
+        <v>1.6048013829762589</v>
+      </c>
+      <c r="O24" s="123">
+        <f>E24^alpha * (M24*D24)^beta</f>
+        <v>1.9633465485969452</v>
+      </c>
+      <c r="P24" s="123">
+        <f>((1-gamma_E)^1 * O24^phi + gamma_E^1 * ($N24*F24)^phi)^invPhi</f>
+        <v>1.9649820658088395</v>
+      </c>
+      <c r="Q24" s="123">
+        <f>((1-gamma_E)^1 * P24^phi + gamma_E^1 * ($N24*G24)^phi)^invPhi</f>
+        <v>1.966331666465913</v>
+      </c>
+      <c r="R24" s="123"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="123">
+        <f>USData!A25</f>
+        <v>2003</v>
+      </c>
+      <c r="B25" s="123">
+        <f>USData!B25</f>
+        <v>23</v>
+      </c>
+      <c r="C25" s="123">
+        <f>USData!C25</f>
+        <v>2.0288782519637127</v>
+      </c>
+      <c r="D25" s="123">
+        <f>USData!D25</f>
+        <v>1.353821572975088</v>
+      </c>
+      <c r="E25" s="123">
+        <f>USData!E25</f>
+        <v>2.3844029847701655</v>
+      </c>
+      <c r="F25" s="123">
+        <f>USData!F25</f>
+        <v>1.280636008695303</v>
+      </c>
+      <c r="G25" s="123">
+        <f>USData!G25</f>
+        <v>1.2768751563230547</v>
+      </c>
+      <c r="H25" s="123" t="str">
+        <f>USData!H25</f>
+        <v>NA</v>
+      </c>
+      <c r="M25" s="152">
+        <f>EXP(lambda_L*B25)</f>
+        <v>1.3798847759572466</v>
+      </c>
+      <c r="N25" s="152">
+        <f>EXP(lambda_E*B25)</f>
+        <v>1.6396781949656225</v>
+      </c>
+      <c r="O25" s="123">
+        <f>E25^alpha * (M25*D25)^beta</f>
+        <v>1.9972917768058769</v>
+      </c>
+      <c r="P25" s="123">
+        <f>((1-gamma_E)^1 * O25^phi + gamma_E^1 * ($N25*F25)^phi)^invPhi</f>
+        <v>1.9995546343483528</v>
+      </c>
+      <c r="Q25" s="123">
+        <f>((1-gamma_E)^1 * P25^phi + gamma_E^1 * ($N25*G25)^phi)^invPhi</f>
+        <v>2.0014276737644066</v>
+      </c>
+      <c r="R25" s="123"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="123">
+        <f>USData!A26</f>
+        <v>2004</v>
+      </c>
+      <c r="B26" s="123">
+        <f>USData!B26</f>
+        <v>24</v>
+      </c>
+      <c r="C26" s="123">
+        <f>USData!C26</f>
+        <v>2.0992419405293989</v>
+      </c>
+      <c r="D26" s="123">
+        <f>USData!D26</f>
+        <v>1.36902199904352</v>
+      </c>
+      <c r="E26" s="123">
+        <f>USData!E26</f>
+        <v>2.4884570663903292</v>
+      </c>
+      <c r="F26" s="123">
+        <f>USData!F26</f>
+        <v>1.3017800375398247</v>
+      </c>
+      <c r="G26" s="123">
+        <f>USData!G26</f>
+        <v>1.2981167171143662</v>
+      </c>
+      <c r="H26" s="123" t="str">
+        <f>USData!H26</f>
+        <v>NA</v>
+      </c>
+      <c r="M26" s="152">
+        <f>EXP(lambda_L*B26)</f>
+        <v>1.3993390248109305</v>
+      </c>
+      <c r="N26" s="152">
+        <f>EXP(lambda_E*B26)</f>
+        <v>1.6753129773975874</v>
+      </c>
+      <c r="O26" s="123">
+        <f>E26^alpha * (M26*D26)^beta</f>
+        <v>2.0580640683865337</v>
+      </c>
+      <c r="P26" s="123">
+        <f>((1-gamma_E)^1 * O26^phi + gamma_E^1 * ($N26*F26)^phi)^invPhi</f>
+        <v>2.061386958998451</v>
+      </c>
+      <c r="Q26" s="123">
+        <f>((1-gamma_E)^1 * P26^phi + gamma_E^1 * ($N26*G26)^phi)^invPhi</f>
+        <v>2.0641215142971117</v>
+      </c>
+      <c r="R26" s="123"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="123">
+        <f>USData!A27</f>
+        <v>2005</v>
+      </c>
+      <c r="B27" s="123">
+        <f>USData!B27</f>
+        <v>25</v>
+      </c>
+      <c r="C27" s="123">
+        <f>USData!C27</f>
+        <v>2.1636962791235823</v>
+      </c>
+      <c r="D27" s="123">
+        <f>USData!D27</f>
+        <v>1.3900863005956263</v>
+      </c>
+      <c r="E27" s="123">
+        <f>USData!E27</f>
+        <v>2.6028860393862372</v>
+      </c>
+      <c r="F27" s="123">
+        <f>USData!F27</f>
+        <v>1.3035617627864231</v>
+      </c>
+      <c r="G27" s="123">
+        <f>USData!G27</f>
+        <v>1.299674124901856</v>
+      </c>
+      <c r="H27" s="123" t="str">
+        <f>USData!H27</f>
+        <v>NA</v>
+      </c>
+      <c r="M27" s="152">
+        <f>EXP(lambda_L*B27)</f>
+        <v>1.4190675485932573</v>
+      </c>
+      <c r="N27" s="152">
+        <f>EXP(lambda_E*B27)</f>
+        <v>1.7117222030848642</v>
+      </c>
+      <c r="O27" s="123">
+        <f>E27^alpha * (M27*D27)^beta</f>
+        <v>2.1283216373394844</v>
+      </c>
+      <c r="P27" s="123">
+        <f>((1-gamma_E)^1 * O27^phi + gamma_E^1 * ($N27*F27)^phi)^invPhi</f>
+        <v>2.13043897797295</v>
+      </c>
+      <c r="Q27" s="123">
+        <f>((1-gamma_E)^1 * P27^phi + gamma_E^1 * ($N27*G27)^phi)^invPhi</f>
+        <v>2.1321915962558844</v>
+      </c>
+      <c r="R27" s="123"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="123">
+        <f>USData!A28</f>
+        <v>2006</v>
+      </c>
+      <c r="B28" s="123">
+        <f>USData!B28</f>
+        <v>26</v>
+      </c>
+      <c r="C28" s="123">
+        <f>USData!C28</f>
+        <v>2.2212085242051947</v>
+      </c>
+      <c r="D28" s="123">
+        <f>USData!D28</f>
+        <v>1.415492804660667</v>
+      </c>
+      <c r="E28" s="123">
+        <f>USData!E28</f>
+        <v>2.7161623373356019</v>
+      </c>
+      <c r="F28" s="123">
+        <f>USData!F28</f>
+        <v>1.2960281726867848</v>
+      </c>
+      <c r="G28" s="123">
+        <f>USData!G28</f>
+        <v>1.2915581805555536</v>
+      </c>
+      <c r="H28" s="123" t="str">
+        <f>USData!H28</f>
+        <v>NA</v>
+      </c>
+      <c r="M28" s="152">
+        <f>EXP(lambda_L*B28)</f>
+        <v>1.4390742141580464</v>
+      </c>
+      <c r="N28" s="152">
+        <f>EXP(lambda_E*B28)</f>
+        <v>1.7489227028403491</v>
+      </c>
+      <c r="O28" s="123">
+        <f>E28^alpha * (M28*D28)^beta</f>
+        <v>2.204099675454867</v>
+      </c>
+      <c r="P28" s="123">
+        <f>((1-gamma_E)^1 * O28^phi + gamma_E^1 * ($N28*F28)^phi)^invPhi</f>
+        <v>2.2049028499886405</v>
+      </c>
+      <c r="Q28" s="123">
+        <f>((1-gamma_E)^1 * P28^phi + gamma_E^1 * ($N28*G28)^phi)^invPhi</f>
+        <v>2.2055366663613434</v>
+      </c>
+      <c r="R28" s="123"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="123">
+        <f>USData!A29</f>
+        <v>2007</v>
+      </c>
+      <c r="B29" s="123">
+        <f>USData!B29</f>
+        <v>27</v>
+      </c>
+      <c r="C29" s="123">
+        <f>USData!C29</f>
+        <v>2.2637009928907821</v>
+      </c>
+      <c r="D29" s="123">
+        <f>USData!D29</f>
+        <v>1.4253238989609147</v>
+      </c>
+      <c r="E29" s="123">
+        <f>USData!E29</f>
+        <v>2.8157773416941714</v>
+      </c>
+      <c r="F29" s="123">
+        <f>USData!F29</f>
+        <v>1.3178356817386681</v>
+      </c>
+      <c r="G29" s="123">
+        <f>USData!G29</f>
+        <v>1.3131968037019068</v>
+      </c>
+      <c r="H29" s="123" t="str">
+        <f>USData!H29</f>
+        <v>NA</v>
+      </c>
+      <c r="M29" s="152">
+        <f>EXP(lambda_L*B29)</f>
+        <v>1.4593629428757966</v>
+      </c>
+      <c r="N29" s="152">
+        <f>EXP(lambda_E*B29)</f>
+        <v>1.7869316732574658</v>
+      </c>
+      <c r="O29" s="123">
+        <f>E29^alpha * (M29*D29)^beta</f>
+        <v>2.2600276513888584</v>
+      </c>
+      <c r="P29" s="123">
+        <f>((1-gamma_E)^1 * O29^phi + gamma_E^1 * ($N29*F29)^phi)^invPhi</f>
+        <v>2.2616989357881314</v>
+      </c>
+      <c r="Q29" s="123">
+        <f>((1-gamma_E)^1 * P29^phi + gamma_E^1 * ($N29*G29)^phi)^invPhi</f>
+        <v>2.263045948176289</v>
+      </c>
+      <c r="R29" s="123"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="123">
+        <f>USData!A30</f>
+        <v>2008</v>
+      </c>
+      <c r="B30" s="123">
+        <f>USData!B30</f>
+        <v>28</v>
+      </c>
+      <c r="C30" s="123">
+        <f>USData!C30</f>
+        <v>2.2560818309985899</v>
+      </c>
+      <c r="D30" s="123">
+        <f>USData!D30</f>
+        <v>1.4099386983174644</v>
+      </c>
+      <c r="E30" s="123">
+        <f>USData!E30</f>
+        <v>2.8877482718713834</v>
+      </c>
+      <c r="F30" s="123">
+        <f>USData!F30</f>
+        <v>1.2874053531174439</v>
+      </c>
+      <c r="G30" s="123">
+        <f>USData!G30</f>
+        <v>1.2818966426816121</v>
+      </c>
+      <c r="H30" s="123" t="str">
+        <f>USData!H30</f>
+        <v>NA</v>
+      </c>
+      <c r="M30" s="152">
+        <f>EXP(lambda_L*B30)</f>
+        <v>1.4799377114022885</v>
+      </c>
+      <c r="N30" s="152">
+        <f>EXP(lambda_E*B30)</f>
+        <v>1.8257666846595977</v>
+      </c>
+      <c r="O30" s="123">
+        <f>E30^alpha * (M30*D30)^beta</f>
+        <v>2.280916357906436</v>
+      </c>
+      <c r="P30" s="123">
+        <f>((1-gamma_E)^1 * O30^phi + gamma_E^1 * ($N30*F30)^phi)^invPhi</f>
+        <v>2.2818543088894514</v>
+      </c>
+      <c r="Q30" s="123">
+        <f>((1-gamma_E)^1 * P30^phi + gamma_E^1 * ($N30*G30)^phi)^invPhi</f>
+        <v>2.2825619266122987</v>
+      </c>
+      <c r="R30" s="123"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="123">
+        <f>USData!A31</f>
+        <v>2009</v>
+      </c>
+      <c r="B31" s="123">
+        <f>USData!B31</f>
+        <v>29</v>
+      </c>
+      <c r="C31" s="123">
+        <f>USData!C31</f>
+        <v>2.1774390531327268</v>
+      </c>
+      <c r="D31" s="123">
+        <f>USData!D31</f>
+        <v>1.3323170731707317</v>
+      </c>
+      <c r="E31" s="123">
+        <f>USData!E31</f>
+        <v>2.9040578894188074</v>
+      </c>
+      <c r="F31" s="123">
+        <f>USData!F31</f>
+        <v>1.2307039228526457</v>
+      </c>
+      <c r="G31" s="123">
+        <f>USData!G31</f>
+        <v>1.2239240991088314</v>
+      </c>
+      <c r="H31" s="123" t="str">
+        <f>USData!H31</f>
+        <v>NA</v>
+      </c>
+      <c r="M31" s="152">
+        <f>EXP(lambda_L*B31)</f>
+        <v>1.50080255245802</v>
+      </c>
+      <c r="N31" s="152">
+        <f>EXP(lambda_E*B31)</f>
+        <v>1.8654456892222817</v>
+      </c>
+      <c r="O31" s="123">
+        <f>E31^alpha * (M31*D31)^beta</f>
+        <v>2.2148252234317427</v>
+      </c>
+      <c r="P31" s="123">
+        <f>((1-gamma_E)^1 * O31^phi + gamma_E^1 * ($N31*F31)^phi)^invPhi</f>
+        <v>2.2160813457043989</v>
+      </c>
+      <c r="Q31" s="123">
+        <f>((1-gamma_E)^1 * P31^phi + gamma_E^1 * ($N31*G31)^phi)^invPhi</f>
+        <v>2.2169806645566514</v>
+      </c>
+      <c r="R31" s="123"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="123">
+        <f>USData!A32</f>
+        <v>2010</v>
+      </c>
+      <c r="B32" s="123">
+        <f>USData!B32</f>
+        <v>30</v>
+      </c>
+      <c r="C32" s="123">
+        <f>USData!C32</f>
+        <v>2.2434060824737849</v>
+      </c>
+      <c r="D32" s="123">
+        <f>USData!D32</f>
+        <v>1.3317627494456763</v>
+      </c>
+      <c r="E32" s="123">
+        <f>USData!E32</f>
+        <v>2.9249375453026043</v>
+      </c>
+      <c r="F32" s="123">
+        <f>USData!F32</f>
+        <v>1.2710421181977825</v>
+      </c>
+      <c r="G32" s="123">
+        <f>USData!G32</f>
+        <v>1.2647333525525213</v>
+      </c>
+      <c r="H32" s="123" t="str">
+        <f>USData!H32</f>
+        <v>NA</v>
+      </c>
+      <c r="M32" s="152">
+        <f>EXP(lambda_L*B32)</f>
+        <v>1.5219615556186337</v>
+      </c>
+      <c r="N32" s="152">
+        <f>EXP(lambda_E*B32)</f>
+        <v>1.9059870292719225</v>
+      </c>
+      <c r="O32" s="123">
+        <f>E32^alpha * (M32*D32)^beta</f>
+        <v>2.2411706361689756</v>
+      </c>
+      <c r="P32" s="123">
+        <f>((1-gamma_E)^1 * O32^phi + gamma_E^1 * ($N32*F32)^phi)^invPhi</f>
+        <v>2.2494521352935246</v>
+      </c>
+      <c r="Q32" s="123">
+        <f>((1-gamma_E)^1 * P32^phi + gamma_E^1 * ($N32*G32)^phi)^invPhi</f>
+        <v>2.2553014933279099</v>
+      </c>
+      <c r="R32" s="123"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="123">
+        <f>USData!A33</f>
+        <v>2011</v>
+      </c>
+      <c r="B33" s="123">
+        <f>USData!B33</f>
+        <v>31</v>
+      </c>
+      <c r="C33" s="123">
+        <f>USData!C33</f>
+        <v>2.2823332290590894</v>
+      </c>
+      <c r="D33" s="123">
+        <f>USData!D33</f>
+        <v>1.3741821007782271</v>
+      </c>
+      <c r="E33" s="123">
+        <f>USData!E33</f>
+        <v>2.9596752763713856</v>
+      </c>
+      <c r="F33" s="123">
+        <f>USData!F33</f>
+        <v>1.2586181364292732</v>
+      </c>
+      <c r="G33" s="123">
+        <f>USData!G33</f>
+        <v>1.250758076487557</v>
+      </c>
+      <c r="H33" s="123" t="str">
+        <f>USData!H33</f>
+        <v>NA</v>
+      </c>
+      <c r="M33" s="152">
+        <f>EXP(lambda_L*B33)</f>
+        <v>1.5434188681164871</v>
+      </c>
+      <c r="N33" s="152">
+        <f>EXP(lambda_E*B33)</f>
+        <v>1.947409445764859</v>
+      </c>
+      <c r="O33" s="123">
+        <f>E33^alpha * (M33*D33)^beta</f>
+        <v>2.3237011284659856</v>
+      </c>
+      <c r="P33" s="123">
+        <f>((1-gamma_E)^1 * O33^phi + gamma_E^1 * ($N33*F33)^phi)^invPhi</f>
+        <v>2.3267584930386085</v>
+      </c>
+      <c r="Q33" s="123">
+        <f>((1-gamma_E)^1 * P33^phi + gamma_E^1 * ($N33*G33)^phi)^invPhi</f>
+        <v>2.3289156298921472</v>
+      </c>
+      <c r="R33" s="123"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="123"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="123"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="123"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="123"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="123"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="123"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="123"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="123"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="123"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/Excel Workbooks/UnitedStatesDataWorkbook.xlsx
+++ b/data/Excel Workbooks/UnitedStatesDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="320" windowWidth="27140" windowHeight="17240" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="320" windowWidth="27140" windowHeight="17240"/>
   </bookViews>
   <sheets>
     <sheet name="United States Workbook" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,6 +1527,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="48">
@@ -3391,7 +3398,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3705,6 +3712,8 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3720,12 +3729,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3738,6 +3741,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3747,8 +3756,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1124">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="2"/>
@@ -5583,19 +5596,19 @@
                   <c:v>1.415492804660667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.425323898960915</c:v>
+                  <c:v>1.425242380766054</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.409938698317464</c:v>
+                  <c:v>1.410036520151298</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.332317073170732</c:v>
+                  <c:v>1.332083387678796</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.331762749445676</c:v>
+                  <c:v>1.332143167688361</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.374182100778227</c:v>
+                  <c:v>1.35219664362419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6276,11 +6289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091445096"/>
-        <c:axId val="2091454376"/>
+        <c:axId val="2141821432"/>
+        <c:axId val="2141977976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091445096"/>
+        <c:axId val="2141821432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015.0"/>
@@ -6304,7 +6317,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6321,12 +6333,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091454376"/>
+        <c:crossAx val="2141977976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2091454376"/>
+        <c:axId val="2141977976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -6374,7 +6386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091445096"/>
+        <c:crossAx val="2141821432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -6423,7 +6435,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7318,11 +7329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109936824"/>
-        <c:axId val="2109944840"/>
+        <c:axId val="-2142531656"/>
+        <c:axId val="-2142523640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109936824"/>
+        <c:axId val="-2142531656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -7346,20 +7357,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109944840"/>
+        <c:crossAx val="-2142523640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109944840"/>
+        <c:axId val="-2142523640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7381,21 +7391,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109936824"/>
+        <c:crossAx val="-2142531656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7440,7 +7448,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8443,11 +8450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109995128"/>
-        <c:axId val="2110003416"/>
+        <c:axId val="2141585944"/>
+        <c:axId val="2142156152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109995128"/>
+        <c:axId val="2141585944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -8476,20 +8483,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110003416"/>
+        <c:crossAx val="2142156152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110003416"/>
+        <c:axId val="2142156152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8516,21 +8522,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109995128"/>
+        <c:crossAx val="2141585944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9004,19 +9008,19 @@
                   <c:v>2.20490284998864</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.261698935788131</c:v>
+                  <c:v>2.26160846900418</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.281854308889451</c:v>
+                  <c:v>2.281966535252733</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.216081345704399</c:v>
+                  <c:v>2.21580758103519</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.249452135293525</c:v>
+                  <c:v>2.249850579906756</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.326758493038608</c:v>
+                  <c:v>2.301680692031975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9233,19 +9237,19 @@
                   <c:v>2.205536666361343</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.263045948176289</c:v>
+                  <c:v>2.262958231025475</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.282561926612299</c:v>
+                  <c:v>2.28267199591517</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.216980664556651</c:v>
+                  <c:v>2.216713208018187</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.25530149332791</c:v>
+                  <c:v>2.255658246540594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.328915629892147</c:v>
+                  <c:v>2.305181881787522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9456,11 +9460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132009112"/>
-        <c:axId val="2132000408"/>
+        <c:axId val="-2142443080"/>
+        <c:axId val="-2142439944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132009112"/>
+        <c:axId val="-2142443080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9470,12 +9474,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132000408"/>
+        <c:crossAx val="-2142439944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132000408"/>
+        <c:axId val="-2142439944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9486,7 +9490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132009112"/>
+        <c:crossAx val="-2142443080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10473,8 +10477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10652,75 +10656,75 @@
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="137" t="s">
+      <c r="F8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="139" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="134"/>
-      <c r="I8" s="137" t="s">
+      <c r="I8" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="137" t="s">
+      <c r="K8" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="137" t="s">
+      <c r="L8" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="M8" s="137" t="s">
+      <c r="M8" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="N8" s="137" t="s">
+      <c r="N8" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="O8" s="138" t="s">
+      <c r="O8" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="134"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="137"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="21">
@@ -10729,7 +10733,7 @@
       <c r="B10" s="25">
         <v>5833975</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="153">
         <v>184008</v>
       </c>
       <c r="D10" s="25">
@@ -10789,7 +10793,7 @@
       <c r="B11" s="25">
         <v>5982075</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="153">
         <v>184394</v>
       </c>
       <c r="D11" s="25">
@@ -10849,7 +10853,7 @@
       <c r="B12" s="25">
         <v>5865925</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="153">
         <v>181648</v>
       </c>
       <c r="D12" s="25">
@@ -10909,7 +10913,7 @@
       <c r="B13" s="25">
         <v>6130925</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="153">
         <v>184908</v>
       </c>
       <c r="D13" s="25">
@@ -10969,7 +10973,7 @@
       <c r="B14" s="25">
         <v>6571525</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="153">
         <v>194236</v>
       </c>
       <c r="D14" s="25">
@@ -11029,7 +11033,7 @@
       <c r="B15" s="25">
         <v>6843400</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="153">
         <v>198678</v>
       </c>
       <c r="D15" s="25">
@@ -11089,7 +11093,7 @@
       <c r="B16" s="25">
         <v>7080500</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="153">
         <v>201005</v>
       </c>
       <c r="D16" s="25">
@@ -11149,7 +11153,7 @@
       <c r="B17" s="25">
         <v>7307050</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="153">
         <v>206453</v>
       </c>
       <c r="D17" s="25">
@@ -11209,7 +11213,7 @@
       <c r="B18" s="25">
         <v>7607400</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="153">
         <v>212615</v>
       </c>
       <c r="D18" s="25">
@@ -11269,7 +11273,7 @@
       <c r="B19" s="25">
         <v>7879175</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="153">
         <v>218492</v>
       </c>
       <c r="D19" s="25">
@@ -11329,7 +11333,7 @@
       <c r="B20" s="25">
         <v>8027025</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="153">
         <v>218868</v>
       </c>
       <c r="D20" s="25">
@@ -11389,7 +11393,7 @@
       <c r="B21" s="25">
         <v>8008325</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="153">
         <v>215771</v>
       </c>
       <c r="D21" s="25">
@@ -11449,7 +11453,7 @@
       <c r="B22" s="25">
         <v>8280025</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="153">
         <v>215945</v>
       </c>
       <c r="D22" s="25">
@@ -11506,7 +11510,7 @@
       <c r="B23" s="25">
         <v>8516175</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="153">
         <v>221000</v>
       </c>
       <c r="D23" s="25">
@@ -11563,7 +11567,7 @@
       <c r="B24" s="25">
         <v>8863125</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="153">
         <v>227916</v>
       </c>
       <c r="D24" s="25">
@@ -11620,7 +11624,7 @@
       <c r="B25" s="25">
         <v>9085975</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="153">
         <v>233531</v>
       </c>
       <c r="D25" s="25">
@@ -11677,7 +11681,7 @@
       <c r="B26" s="25">
         <v>9425850</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="153">
         <v>236446</v>
       </c>
       <c r="D26" s="25">
@@ -11734,7 +11738,7 @@
       <c r="B27" s="25">
         <v>9845925</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="153">
         <v>243372</v>
       </c>
       <c r="D27" s="25">
@@ -11791,7 +11795,7 @@
       <c r="B28" s="25">
         <v>10274750</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="153">
         <v>248610</v>
       </c>
       <c r="D28" s="25">
@@ -11848,7 +11852,7 @@
       <c r="B29" s="25">
         <v>10770625</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="153">
         <v>253474</v>
       </c>
       <c r="D29" s="25">
@@ -11905,8 +11909,8 @@
       <c r="B30" s="25">
         <v>11216425</v>
       </c>
-      <c r="C30" s="8">
-        <v>256851.99999999997</v>
+      <c r="C30" s="153">
+        <v>256852</v>
       </c>
       <c r="D30" s="25">
         <v>15409247</v>
@@ -11930,7 +11934,7 @@
       </c>
       <c r="J30" s="15">
         <f t="shared" si="3"/>
-        <v>1.3958740924307638</v>
+        <v>1.395874092430764</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
@@ -11962,7 +11966,7 @@
       <c r="B31" s="25">
         <v>11337475</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="154">
         <v>253714</v>
       </c>
       <c r="D31" s="25">
@@ -12016,7 +12020,7 @@
       <c r="B32" s="25">
         <v>11543100</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="154">
         <v>250412</v>
       </c>
       <c r="D32" s="25">
@@ -12070,7 +12074,7 @@
       <c r="B33" s="25">
         <v>11836425</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="154">
         <v>249114</v>
       </c>
       <c r="D33" s="25">
@@ -12124,7 +12128,7 @@
       <c r="B34" s="25">
         <v>12246925</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="154">
         <v>251911</v>
       </c>
       <c r="D34" s="25">
@@ -12178,7 +12182,7 @@
       <c r="B35" s="25">
         <v>12622950</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="154">
         <v>255787</v>
       </c>
       <c r="D35" s="25">
@@ -12232,7 +12236,7 @@
       <c r="B36" s="25">
         <v>12958475</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="154">
         <v>260462</v>
       </c>
       <c r="D36" s="25">
@@ -12286,8 +12290,8 @@
       <c r="B37" s="25">
         <v>13206375</v>
       </c>
-      <c r="C37" s="14">
-        <v>262271</v>
+      <c r="C37" s="154">
+        <v>262256</v>
       </c>
       <c r="D37" s="25">
         <v>20705340</v>
@@ -12309,7 +12313,7 @@
       </c>
       <c r="J37" s="15">
         <f t="shared" si="3"/>
-        <v>1.4253238989609147</v>
+        <v>1.4252423807660537</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
@@ -12340,8 +12344,8 @@
       <c r="B38" s="25">
         <v>13161925</v>
       </c>
-      <c r="C38" s="14">
-        <v>259440</v>
+      <c r="C38" s="154">
+        <v>259458</v>
       </c>
       <c r="D38" s="25">
         <v>21234566</v>
@@ -12363,7 +12367,7 @@
       </c>
       <c r="J38" s="15">
         <f t="shared" si="3"/>
-        <v>1.4099386983174644</v>
+        <v>1.4100365201512979</v>
       </c>
       <c r="K38" s="15">
         <f t="shared" si="4"/>
@@ -12394,8 +12398,8 @@
       <c r="B39" s="25">
         <v>12703125</v>
       </c>
-      <c r="C39" s="14">
-        <v>245157</v>
+      <c r="C39" s="154">
+        <v>245114</v>
       </c>
       <c r="D39" s="25">
         <v>21354496</v>
@@ -12417,7 +12421,7 @@
       </c>
       <c r="J39" s="15">
         <f t="shared" si="3"/>
-        <v>1.3323170731707317</v>
+        <v>1.3320833876787965</v>
       </c>
       <c r="K39" s="15">
         <f t="shared" si="4"/>
@@ -12448,8 +12452,8 @@
       <c r="B40" s="25">
         <v>13087975</v>
       </c>
-      <c r="C40" s="14">
-        <v>245055</v>
+      <c r="C40" s="154">
+        <v>245125</v>
       </c>
       <c r="D40" s="25">
         <v>21508031</v>
@@ -12471,7 +12475,7 @@
       </c>
       <c r="J40" s="15">
         <f t="shared" si="3"/>
-        <v>1.3317627494456763</v>
+        <v>1.3321431676883613</v>
       </c>
       <c r="K40" s="15">
         <f t="shared" si="4"/>
@@ -12502,8 +12506,8 @@
       <c r="B41" s="25">
         <v>13315075</v>
       </c>
-      <c r="C41" s="14">
-        <v>252860.5</v>
+      <c r="C41" s="154">
+        <v>248815</v>
       </c>
       <c r="D41" s="25">
         <v>21763469</v>
@@ -12525,7 +12529,7 @@
       </c>
       <c r="J41" s="15">
         <f t="shared" si="3"/>
-        <v>1.3741821007782271</v>
+        <v>1.3521966436241903</v>
       </c>
       <c r="K41" s="15">
         <f t="shared" si="4"/>
@@ -12619,12 +12623,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
@@ -12637,6 +12635,12 @@
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13453,7 +13457,7 @@
       </c>
       <c r="D22" s="136">
         <f>'United States Workbook'!J30</f>
-        <v>1.3958740924307638</v>
+        <v>1.395874092430764</v>
       </c>
       <c r="E22" s="136">
         <f>'United States Workbook'!K30</f>
@@ -13712,7 +13716,7 @@
       </c>
       <c r="D29" s="136">
         <f>'United States Workbook'!J37</f>
-        <v>1.4253238989609147</v>
+        <v>1.4252423807660537</v>
       </c>
       <c r="E29" s="136">
         <f>'United States Workbook'!K37</f>
@@ -13749,7 +13753,7 @@
       </c>
       <c r="D30" s="136">
         <f>'United States Workbook'!J38</f>
-        <v>1.4099386983174644</v>
+        <v>1.4100365201512979</v>
       </c>
       <c r="E30" s="136">
         <f>'United States Workbook'!K38</f>
@@ -13786,7 +13790,7 @@
       </c>
       <c r="D31" s="136">
         <f>'United States Workbook'!J39</f>
-        <v>1.3323170731707317</v>
+        <v>1.3320833876787965</v>
       </c>
       <c r="E31" s="136">
         <f>'United States Workbook'!K39</f>
@@ -13823,7 +13827,7 @@
       </c>
       <c r="D32" s="136">
         <f>'United States Workbook'!J40</f>
-        <v>1.3317627494456763</v>
+        <v>1.3321431676883613</v>
       </c>
       <c r="E32" s="136">
         <f>'United States Workbook'!K40</f>
@@ -13860,7 +13864,7 @@
       </c>
       <c r="D33" s="136">
         <f>'United States Workbook'!J41</f>
-        <v>1.3741821007782271</v>
+        <v>1.3521966436241903</v>
       </c>
       <c r="E33" s="136">
         <f>'United States Workbook'!K41</f>
@@ -13922,24 +13926,24 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="141" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
+      <c r="A5" s="141"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="39">
@@ -15027,34 +15031,34 @@
       <c r="A28" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="142" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="140" t="s">
+      <c r="D28" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="140" t="s">
+      <c r="E28" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="140" t="s">
+      <c r="F28" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="140" t="s">
+      <c r="G28" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="140" t="s">
+      <c r="H28" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="140" t="s">
+      <c r="I28" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="140" t="s">
+      <c r="J28" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="140" t="s">
+      <c r="K28" s="142" t="s">
         <v>75</v>
       </c>
       <c r="L28" s="144" t="s">
@@ -15063,10 +15067,10 @@
       <c r="M28" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="N28" s="140" t="s">
+      <c r="N28" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="140" t="s">
+      <c r="O28" s="142" t="s">
         <v>95</v>
       </c>
       <c r="P28" s="144" t="s">
@@ -15075,25 +15079,25 @@
       <c r="Q28" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="140" t="s">
+      <c r="R28" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="S28" s="140" t="s">
+      <c r="S28" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="T28" s="140" t="s">
+      <c r="T28" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="U28" s="140" t="s">
+      <c r="U28" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="V28" s="140" t="s">
+      <c r="V28" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="W28" s="140" t="s">
+      <c r="W28" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="X28" s="142" t="s">
+      <c r="X28" s="148" t="s">
         <v>37</v>
       </c>
       <c r="Y28" s="144" t="s">
@@ -15102,63 +15106,63 @@
       <c r="Z28" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="AA28" s="140" t="s">
+      <c r="AA28" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AB28" s="140" t="s">
+      <c r="AB28" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="AC28" s="140" t="s">
+      <c r="AC28" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="AD28" s="140" t="s">
+      <c r="AD28" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="AE28" s="140" t="s">
+      <c r="AE28" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="AF28" s="140" t="s">
+      <c r="AF28" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="AG28" s="142" t="s">
+      <c r="AG28" s="148" t="s">
         <v>94</v>
       </c>
       <c r="AI28" s="63"/>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="145"/>
-      <c r="B29" s="141"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="147"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
       <c r="L29" s="145"/>
       <c r="M29" s="147"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
       <c r="P29" s="145"/>
       <c r="Q29" s="147"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="141"/>
-      <c r="T29" s="141"/>
-      <c r="U29" s="141"/>
-      <c r="V29" s="141"/>
-      <c r="W29" s="141"/>
-      <c r="X29" s="143"/>
+      <c r="R29" s="143"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="143"/>
+      <c r="W29" s="143"/>
+      <c r="X29" s="149"/>
       <c r="Y29" s="145"/>
       <c r="Z29" s="147"/>
-      <c r="AA29" s="141"/>
-      <c r="AB29" s="141"/>
-      <c r="AC29" s="141"/>
-      <c r="AD29" s="141"/>
-      <c r="AE29" s="141"/>
-      <c r="AF29" s="141"/>
-      <c r="AG29" s="143"/>
+      <c r="AA29" s="143"/>
+      <c r="AB29" s="143"/>
+      <c r="AC29" s="143"/>
+      <c r="AD29" s="143"/>
+      <c r="AE29" s="143"/>
+      <c r="AF29" s="143"/>
+      <c r="AG29" s="149"/>
       <c r="AI29" s="112"/>
     </row>
     <row r="30" spans="1:35">
@@ -19463,6 +19467,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
@@ -19478,24 +19500,6 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -25697,55 +25701,55 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16"/>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="148" t="s">
+      <c r="E5" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="149"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="151"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16">
@@ -27611,23 +27615,23 @@
     </row>
     <row r="3" spans="1:61">
       <c r="A3" s="16"/>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="149"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:61" ht="16.5" customHeight="1">
       <c r="A4" s="16"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
       <c r="I4" s="9"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -27684,16 +27688,16 @@
     </row>
     <row r="5" spans="1:61" ht="15" customHeight="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="148" t="s">
+      <c r="E5" s="150" t="s">
         <v>11</v>
       </c>
     </row>
@@ -27701,10 +27705,10 @@
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -29594,7 +29598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:R44"/>
     </sheetView>
   </sheetViews>
@@ -29640,14 +29644,14 @@
       <c r="J1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="151">
+      <c r="K1" s="137">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="152" t="s">
+      <c r="N1" s="138" t="s">
         <v>158</v>
       </c>
       <c r="O1" t="s">
@@ -29699,32 +29703,32 @@
       <c r="J2" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="151">
+      <c r="K2" s="137">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152">
-        <f>EXP(lambda_L*B2)</f>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138">
+        <f t="shared" ref="M2:M33" si="0">EXP(lambda_L*B2)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="152">
-        <f>EXP(lambda_E*B2)</f>
+      <c r="N2" s="138">
+        <f t="shared" ref="N2:N33" si="1">EXP(lambda_E*B2)</f>
         <v>1</v>
       </c>
       <c r="O2">
-        <f>E2^alpha * (M2*D2)^beta</f>
+        <f t="shared" ref="O2:O33" si="2">E2^alpha * (M2*D2)^beta</f>
         <v>1</v>
       </c>
       <c r="P2">
-        <f>((1-gamma_E)^1 * O2^phi + gamma_E^1 * ($N2*F2)^phi)^invPhi</f>
+        <f t="shared" ref="P2:P22" si="3">((1-gamma_E)^1 * O2^phi + gamma_E^1 * ($N2*F2)^phi)^invPhi</f>
         <v>1</v>
       </c>
       <c r="Q2" s="123">
-        <f>((1-gamma_E)^1 * P2^phi + gamma_E^1 * ($N2*G2)^phi)^invPhi</f>
+        <f t="shared" ref="Q2:Q22" si="4">((1-gamma_E)^1 * P2^phi + gamma_E^1 * ($N2*G2)^phi)^invPhi</f>
         <v>1</v>
       </c>
       <c r="R2" s="123">
-        <f>((1-gamma_E)^1 * Q2^phi + gamma_E^1 * ($N2*H2)^phi)^invPhi</f>
+        <f t="shared" ref="R2:R22" si="5">((1-gamma_E)^1 * Q2^phi + gamma_E^1 * ($N2*H2)^phi)^invPhi</f>
         <v>1</v>
       </c>
     </row>
@@ -29764,32 +29768,32 @@
       <c r="J3" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="151">
+      <c r="K3" s="137">
         <v>0.72599999999999998</v>
       </c>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152">
-        <f>EXP(lambda_L*B3)</f>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138">
+        <f t="shared" si="0"/>
         <v>1.0140984589384923</v>
       </c>
-      <c r="N3" s="152">
-        <f>EXP(lambda_E*B3)</f>
+      <c r="N3" s="138">
+        <f t="shared" si="1"/>
         <v>1.0217327903373821</v>
       </c>
       <c r="O3" s="123">
-        <f>E3^alpha * (M3*D3)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.0205785007443666</v>
       </c>
       <c r="P3" s="123">
-        <f>((1-gamma_E)^1 * O3^phi + gamma_E^1 * ($N3*F3)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.0204736215500438</v>
       </c>
       <c r="Q3" s="123">
-        <f>((1-gamma_E)^1 * P3^phi + gamma_E^1 * ($N3*G3)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.0203680908554074</v>
       </c>
       <c r="R3" s="123">
-        <f>((1-gamma_E)^1 * Q3^phi + gamma_E^1 * ($N3*H3)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.0202306018014293</v>
       </c>
     </row>
@@ -29829,32 +29833,32 @@
       <c r="J4" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="151">
+      <c r="K4" s="137">
         <v>1.4E-2</v>
       </c>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152">
-        <f>EXP(lambda_L*B4)</f>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138">
+        <f t="shared" si="0"/>
         <v>1.028395684421425</v>
       </c>
-      <c r="N4" s="152">
-        <f>EXP(lambda_E*B4)</f>
+      <c r="N4" s="138">
+        <f t="shared" si="1"/>
         <v>1.0439378948506126</v>
       </c>
       <c r="O4" s="123">
-        <f>E4^alpha * (M4*D4)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.0259882977800701</v>
       </c>
       <c r="P4" s="123">
-        <f>((1-gamma_E)^1 * O4^phi + gamma_E^1 * ($N4*F4)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.0258396382572177</v>
       </c>
       <c r="Q4" s="123">
-        <f>((1-gamma_E)^1 * P4^phi + gamma_E^1 * ($N4*G4)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.0256899820668377</v>
       </c>
       <c r="R4" s="123">
-        <f>((1-gamma_E)^1 * Q4^phi + gamma_E^1 * ($N4*H4)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.0255237079030171</v>
       </c>
     </row>
@@ -29894,32 +29898,32 @@
       <c r="J5" t="s">
         <v>148</v>
       </c>
-      <c r="K5" s="151">
+      <c r="K5" s="137">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="L5" s="152"/>
-      <c r="M5" s="152">
-        <f>EXP(lambda_L*B5)</f>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138">
+        <f t="shared" si="0"/>
         <v>1.0428944787507632</v>
       </c>
-      <c r="N5" s="152">
-        <f>EXP(lambda_E*B5)</f>
+      <c r="N5" s="138">
+        <f t="shared" si="1"/>
         <v>1.066625578244649</v>
       </c>
       <c r="O5" s="123">
-        <f>E5^alpha * (M5*D5)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.057454399273293</v>
       </c>
       <c r="P5" s="123">
-        <f>((1-gamma_E)^1 * O5^phi + gamma_E^1 * ($N5*F5)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.0572887745364343</v>
       </c>
       <c r="Q5" s="123">
-        <f>((1-gamma_E)^1 * P5^phi + gamma_E^1 * ($N5*G5)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.0571226163790735</v>
       </c>
       <c r="R5" s="123">
-        <f>((1-gamma_E)^1 * Q5^phi + gamma_E^1 * ($N5*H5)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.0569474056228705</v>
       </c>
     </row>
@@ -29966,28 +29970,28 @@
       <c r="L6" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="152">
-        <f>EXP(lambda_L*B6)</f>
+      <c r="M6" s="138">
+        <f t="shared" si="0"/>
         <v>1.0575976837366112</v>
       </c>
-      <c r="N6" s="152">
-        <f>EXP(lambda_E*B6)</f>
+      <c r="N6" s="138">
+        <f t="shared" si="1"/>
         <v>1.0898063283051287</v>
       </c>
       <c r="O6" s="123">
-        <f>E6^alpha * (M6*D6)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.118810046641995</v>
       </c>
       <c r="P6" s="123">
-        <f>((1-gamma_E)^1 * O6^phi + gamma_E^1 * ($N6*F6)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.1186468206858819</v>
       </c>
       <c r="Q6" s="123">
-        <f>((1-gamma_E)^1 * P6^phi + gamma_E^1 * ($N6*G6)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.1184827499997807</v>
       </c>
       <c r="R6" s="123">
-        <f>((1-gamma_E)^1 * Q6^phi + gamma_E^1 * ($N6*H6)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.1183069963859926</v>
       </c>
     </row>
@@ -30034,28 +30038,28 @@
       <c r="L7" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="M7" s="152">
-        <f>EXP(lambda_L*B7)</f>
+      <c r="M7" s="138">
+        <f t="shared" si="0"/>
         <v>1.0725081812542165</v>
       </c>
-      <c r="N7" s="152">
-        <f>EXP(lambda_E*B7)</f>
+      <c r="N7" s="138">
+        <f t="shared" si="1"/>
         <v>1.1134908607465361</v>
       </c>
       <c r="O7" s="123">
-        <f>E7^alpha * (M7*D7)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.1617640869622503</v>
       </c>
       <c r="P7" s="123">
-        <f>((1-gamma_E)^1 * O7^phi + gamma_E^1 * ($N7*F7)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.1615797656379097</v>
       </c>
       <c r="Q7" s="123">
-        <f>((1-gamma_E)^1 * P7^phi + gamma_E^1 * ($N7*G7)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.1613950569165381</v>
       </c>
       <c r="R7" s="123">
-        <f>((1-gamma_E)^1 * Q7^phi + gamma_E^1 * ($N7*H7)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.1612104564787413</v>
       </c>
     </row>
@@ -30102,28 +30106,28 @@
       <c r="L8" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="M8" s="152">
-        <f>EXP(lambda_L*B8)</f>
+      <c r="M8" s="138">
+        <f t="shared" si="0"/>
         <v>1.0876288938088261</v>
       </c>
-      <c r="N8" s="152">
-        <f>EXP(lambda_E*B8)</f>
+      <c r="N8" s="138">
+        <f t="shared" si="1"/>
         <v>1.1376901241657316</v>
       </c>
       <c r="O8" s="123">
-        <f>E8^alpha * (M8*D8)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.1959986897647981</v>
       </c>
       <c r="P8" s="123">
-        <f>((1-gamma_E)^1 * O8^phi + gamma_E^1 * ($N8*F8)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.1958062473635533</v>
       </c>
       <c r="Q8" s="123">
-        <f>((1-gamma_E)^1 * P8^phi + gamma_E^1 * ($N8*G8)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.195613438838903</v>
       </c>
       <c r="R8" s="123">
-        <f>((1-gamma_E)^1 * Q8^phi + gamma_E^1 * ($N8*H8)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.1954167121773991</v>
       </c>
     </row>
@@ -30167,28 +30171,28 @@
         <f>1-K3</f>
         <v>0.27400000000000002</v>
       </c>
-      <c r="M9" s="152">
-        <f>EXP(lambda_L*B9)</f>
+      <c r="M9" s="138">
+        <f t="shared" si="0"/>
         <v>1.1029627851085078</v>
       </c>
-      <c r="N9" s="152">
-        <f>EXP(lambda_E*B9)</f>
+      <c r="N9" s="138">
+        <f t="shared" si="1"/>
         <v>1.1624153051031354</v>
       </c>
       <c r="O9" s="123">
-        <f>E9^alpha * (M9*D9)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.2438456543998093</v>
       </c>
       <c r="P9" s="123">
-        <f>((1-gamma_E)^1 * O9^phi + gamma_E^1 * ($N9*F9)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.2436555272562895</v>
       </c>
       <c r="Q9" s="123">
-        <f>((1-gamma_E)^1 * P9^phi + gamma_E^1 * ($N9*G9)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.2434648204059637</v>
       </c>
       <c r="R9" s="123">
-        <f>((1-gamma_E)^1 * Q9^phi + gamma_E^1 * ($N9*H9)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.2432683685025845</v>
       </c>
     </row>
@@ -30225,28 +30229,28 @@
         <f>USData!H10</f>
         <v>1.0731648261553837</v>
       </c>
-      <c r="M10" s="152">
-        <f>EXP(lambda_L*B10)</f>
+      <c r="M10" s="138">
+        <f t="shared" si="0"/>
         <v>1.1185128606450452</v>
       </c>
-      <c r="N10" s="152">
-        <f>EXP(lambda_E*B10)</f>
+      <c r="N10" s="138">
+        <f t="shared" si="1"/>
         <v>1.187677833213906</v>
       </c>
       <c r="O10" s="123">
-        <f>E10^alpha * (M10*D10)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.2959506948180715</v>
       </c>
       <c r="P10" s="123">
-        <f>((1-gamma_E)^1 * O10^phi + gamma_E^1 * ($N10*F10)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.2957939540283201</v>
       </c>
       <c r="Q10" s="123">
-        <f>((1-gamma_E)^1 * P10^phi + gamma_E^1 * ($N10*G10)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.2956355493647942</v>
       </c>
       <c r="R10" s="123">
-        <f>((1-gamma_E)^1 * Q10^phi + gamma_E^1 * ($N10*H10)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.2955271333901193</v>
       </c>
     </row>
@@ -30283,28 +30287,28 @@
         <f>USData!H11</f>
         <v>1.132762084079274</v>
       </c>
-      <c r="M11" s="152">
-        <f>EXP(lambda_L*B11)</f>
+      <c r="M11" s="138">
+        <f t="shared" si="0"/>
         <v>1.1342821682830251</v>
       </c>
-      <c r="N11" s="152">
-        <f>EXP(lambda_E*B11)</f>
+      <c r="N11" s="138">
+        <f t="shared" si="1"/>
         <v>1.2134893865514997</v>
       </c>
       <c r="O11" s="123">
-        <f>E11^alpha * (M11*D11)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.3480210435078956</v>
       </c>
       <c r="P11" s="123">
-        <f>((1-gamma_E)^1 * O11^phi + gamma_E^1 * ($N11*F11)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.3479025060598049</v>
       </c>
       <c r="Q11" s="123">
-        <f>((1-gamma_E)^1 * P11^phi + gamma_E^1 * ($N11*G11)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.3477770577594308</v>
       </c>
       <c r="R11" s="123">
-        <f>((1-gamma_E)^1 * Q11^phi + gamma_E^1 * ($N11*H11)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.3480618663282531</v>
       </c>
     </row>
@@ -30341,28 +30345,28 @@
         <f>USData!H12</f>
         <v>1.1515878312567835</v>
       </c>
-      <c r="M12" s="152">
-        <f>EXP(lambda_L*B12)</f>
+      <c r="M12" s="138">
+        <f t="shared" si="0"/>
         <v>1.1502737988572274</v>
       </c>
-      <c r="N12" s="152">
-        <f>EXP(lambda_E*B12)</f>
+      <c r="N12" s="138">
+        <f t="shared" si="1"/>
         <v>1.2398618969660617</v>
       </c>
       <c r="O12" s="123">
-        <f>E12^alpha * (M12*D12)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.3748755368458783</v>
       </c>
       <c r="P12" s="123">
-        <f>((1-gamma_E)^1 * O12^phi + gamma_E^1 * ($N12*F12)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.3747933249920963</v>
       </c>
       <c r="Q12" s="123">
-        <f>((1-gamma_E)^1 * P12^phi + gamma_E^1 * ($N12*G12)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.3746976473463661</v>
       </c>
       <c r="R12" s="123">
-        <f>((1-gamma_E)^1 * Q12^phi + gamma_E^1 * ($N12*H12)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.3755624562599085</v>
       </c>
     </row>
@@ -30399,28 +30403,28 @@
         <f>USData!H13</f>
         <v>1.1388630838040485</v>
       </c>
-      <c r="M13" s="152">
-        <f>EXP(lambda_L*B13)</f>
+      <c r="M13" s="138">
+        <f t="shared" si="0"/>
         <v>1.1664908867784396</v>
       </c>
-      <c r="N13" s="152">
-        <f>EXP(lambda_E*B13)</f>
+      <c r="N13" s="138">
+        <f t="shared" si="1"/>
         <v>1.2668075556201339</v>
       </c>
       <c r="O13" s="123">
-        <f>E13^alpha * (M13*D13)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.3831632243924659</v>
       </c>
       <c r="P13" s="123">
-        <f>((1-gamma_E)^1 * O13^phi + gamma_E^1 * ($N13*F13)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.3832137716976249</v>
       </c>
       <c r="Q13" s="123">
-        <f>((1-gamma_E)^1 * P13^phi + gamma_E^1 * ($N13*G13)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.3832341216856923</v>
       </c>
       <c r="R13" s="123">
-        <f>((1-gamma_E)^1 * Q13^phi + gamma_E^1 * ($N13*H13)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.3843083616339238</v>
       </c>
     </row>
@@ -30457,28 +30461,28 @@
         <f>USData!H14</f>
         <v>1.1874189587884159</v>
       </c>
-      <c r="M14" s="152">
-        <f>EXP(lambda_L*B14)</f>
+      <c r="M14" s="138">
+        <f t="shared" si="0"/>
         <v>1.1829366106478107</v>
       </c>
-      <c r="N14" s="152">
-        <f>EXP(lambda_E*B14)</f>
+      <c r="N14" s="138">
+        <f t="shared" si="1"/>
         <v>1.2943388186242377</v>
       </c>
       <c r="O14" s="123">
-        <f>E14^alpha * (M14*D14)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.407864557586376</v>
       </c>
       <c r="P14" s="123">
-        <f>((1-gamma_E)^1 * O14^phi + gamma_E^1 * ($N14*F14)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.4082301382342552</v>
       </c>
       <c r="Q14" s="123">
-        <f>((1-gamma_E)^1 * P14^phi + gamma_E^1 * ($N14*G14)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.4085315460038599</v>
       </c>
       <c r="R14" s="123">
-        <f>((1-gamma_E)^1 * Q14^phi + gamma_E^1 * ($N14*H14)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.4160317854407301</v>
       </c>
     </row>
@@ -30515,28 +30519,28 @@
         <f>USData!H15</f>
         <v>1.1995642582030086</v>
       </c>
-      <c r="M15" s="152">
-        <f>EXP(lambda_L*B15)</f>
+      <c r="M15" s="138">
+        <f t="shared" si="0"/>
         <v>1.1996141938798683</v>
       </c>
-      <c r="N15" s="152">
-        <f>EXP(lambda_E*B15)</f>
+      <c r="N15" s="138">
+        <f t="shared" si="1"/>
         <v>1.3224684127949329</v>
       </c>
       <c r="O15" s="123">
-        <f>E15^alpha * (M15*D15)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.4580450868502455</v>
       </c>
       <c r="P15" s="123">
-        <f>((1-gamma_E)^1 * O15^phi + gamma_E^1 * ($N15*F15)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.4585823658919383</v>
       </c>
       <c r="Q15" s="123">
-        <f>((1-gamma_E)^1 * P15^phi + gamma_E^1 * ($N15*G15)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.45903325052458</v>
       </c>
       <c r="R15" s="123">
-        <f>((1-gamma_E)^1 * Q15^phi + gamma_E^1 * ($N15*H15)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.465813727971905</v>
       </c>
     </row>
@@ -30573,28 +30577,28 @@
         <f>USData!H16</f>
         <v>1.2387054028291842</v>
       </c>
-      <c r="M16" s="152">
-        <f>EXP(lambda_L*B16)</f>
+      <c r="M16" s="138">
+        <f t="shared" si="0"/>
         <v>1.2165269053343162</v>
       </c>
-      <c r="N16" s="152">
-        <f>EXP(lambda_E*B16)</f>
+      <c r="N16" s="138">
+        <f t="shared" si="1"/>
         <v>1.3512093415380155</v>
       </c>
       <c r="O16" s="123">
-        <f>E16^alpha * (M16*D16)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.5204090274417355</v>
       </c>
       <c r="P16" s="123">
-        <f>((1-gamma_E)^1 * O16^phi + gamma_E^1 * ($N16*F16)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.5209334832863295</v>
       </c>
       <c r="Q16" s="123">
-        <f>((1-gamma_E)^1 * P16^phi + gamma_E^1 * ($N16*G16)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.5213719754703734</v>
       </c>
       <c r="R16" s="123">
-        <f>((1-gamma_E)^1 * Q16^phi + gamma_E^1 * ($N16*H16)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.5323700014114352</v>
       </c>
     </row>
@@ -30631,28 +30635,28 @@
         <f>USData!H17</f>
         <v>1.2919642899061348</v>
       </c>
-      <c r="M17" s="152">
-        <f>EXP(lambda_L*B17)</f>
+      <c r="M17" s="138">
+        <f t="shared" si="0"/>
         <v>1.2336780599567432</v>
       </c>
-      <c r="N17" s="152">
-        <f>EXP(lambda_E*B17)</f>
+      <c r="N17" s="138">
+        <f t="shared" si="1"/>
         <v>1.3805748908595732</v>
       </c>
       <c r="O17" s="123">
-        <f>E17^alpha * (M17*D17)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.5791838766471218</v>
       </c>
       <c r="P17" s="123">
-        <f>((1-gamma_E)^1 * O17^phi + gamma_E^1 * ($N17*F17)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.5799261041795343</v>
       </c>
       <c r="Q17" s="123">
-        <f>((1-gamma_E)^1 * P17^phi + gamma_E^1 * ($N17*G17)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.5805307983871659</v>
       </c>
       <c r="R17" s="123">
-        <f>((1-gamma_E)^1 * Q17^phi + gamma_E^1 * ($N17*H17)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.6072462701191914</v>
       </c>
     </row>
@@ -30689,28 +30693,28 @@
         <f>USData!H18</f>
         <v>1.3335423024180206</v>
       </c>
-      <c r="M18" s="152">
-        <f>EXP(lambda_L*B18)</f>
+      <c r="M18" s="138">
+        <f t="shared" si="0"/>
         <v>1.2510710194283623</v>
       </c>
-      <c r="N18" s="152">
-        <f>EXP(lambda_E*B18)</f>
+      <c r="N18" s="138">
+        <f t="shared" si="1"/>
         <v>1.4105786355076784</v>
       </c>
       <c r="O18" s="123">
-        <f>E18^alpha * (M18*D18)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.628399752153936</v>
       </c>
       <c r="P18" s="123">
-        <f>((1-gamma_E)^1 * O18^phi + gamma_E^1 * ($N18*F18)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.6307284911297213</v>
       </c>
       <c r="Q18" s="123">
-        <f>((1-gamma_E)^1 * P18^phi + gamma_E^1 * ($N18*G18)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.6326459067009078</v>
       </c>
       <c r="R18" s="123">
-        <f>((1-gamma_E)^1 * Q18^phi + gamma_E^1 * ($N18*H18)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.6811550747054322</v>
       </c>
     </row>
@@ -30747,28 +30751,28 @@
         <f>USData!H19</f>
         <v>1.3522881805788678</v>
       </c>
-      <c r="M19" s="152">
-        <f>EXP(lambda_L*B19)</f>
+      <c r="M19" s="138">
+        <f t="shared" si="0"/>
         <v>1.2687091928249108</v>
       </c>
-      <c r="N19" s="152">
-        <f>EXP(lambda_E*B19)</f>
+      <c r="N19" s="138">
+        <f t="shared" si="1"/>
         <v>1.4412344452475572</v>
       </c>
       <c r="O19" s="123">
-        <f>E19^alpha * (M19*D19)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.7017232981524548</v>
       </c>
       <c r="P19" s="123">
-        <f>((1-gamma_E)^1 * O19^phi + gamma_E^1 * ($N19*F19)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.7029795236792338</v>
       </c>
       <c r="Q19" s="123">
-        <f>((1-gamma_E)^1 * P19^phi + gamma_E^1 * ($N19*G19)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.704042984943352</v>
       </c>
       <c r="R19" s="123">
-        <f>((1-gamma_E)^1 * Q19^phi + gamma_E^1 * ($N19*H19)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.7460845792467194</v>
       </c>
     </row>
@@ -30805,28 +30809,28 @@
         <f>USData!H20</f>
         <v>1.3668763473090262</v>
       </c>
-      <c r="M20" s="152">
-        <f>EXP(lambda_L*B20)</f>
+      <c r="M20" s="138">
+        <f t="shared" si="0"/>
         <v>1.2865960372848406</v>
       </c>
-      <c r="N20" s="152">
-        <f>EXP(lambda_E*B20)</f>
+      <c r="N20" s="138">
+        <f t="shared" si="1"/>
         <v>1.4725564912731353</v>
       </c>
       <c r="O20" s="123">
-        <f>E20^alpha * (M20*D20)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.7717267491093867</v>
       </c>
       <c r="P20" s="123">
-        <f>((1-gamma_E)^1 * O20^phi + gamma_E^1 * ($N20*F20)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.7724064362271621</v>
       </c>
       <c r="Q20" s="123">
-        <f>((1-gamma_E)^1 * P20^phi + gamma_E^1 * ($N20*G20)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.7729783328829083</v>
       </c>
       <c r="R20" s="123">
-        <f>((1-gamma_E)^1 * Q20^phi + gamma_E^1 * ($N20*H20)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.8086661664064663</v>
       </c>
     </row>
@@ -30863,28 +30867,28 @@
         <f>USData!H21</f>
         <v>1.4091187520234514</v>
       </c>
-      <c r="M21" s="152">
-        <f>EXP(lambda_L*B21)</f>
+      <c r="M21" s="138">
+        <f t="shared" si="0"/>
         <v>1.304735058686928</v>
       </c>
-      <c r="N21" s="152">
-        <f>EXP(lambda_E*B21)</f>
+      <c r="N21" s="138">
+        <f t="shared" si="1"/>
         <v>1.5045592527579252</v>
       </c>
       <c r="O21" s="123">
-        <f>E21^alpha * (M21*D21)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.8441911279784078</v>
       </c>
       <c r="P21" s="123">
-        <f>((1-gamma_E)^1 * O21^phi + gamma_E^1 * ($N21*F21)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.8447987851443208</v>
       </c>
       <c r="Q21" s="123">
-        <f>((1-gamma_E)^1 * P21^phi + gamma_E^1 * ($N21*G21)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.8452989159947781</v>
       </c>
       <c r="R21" s="123">
-        <f>((1-gamma_E)^1 * Q21^phi + gamma_E^1 * ($N21*H21)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.8964476649164279</v>
       </c>
     </row>
@@ -30903,7 +30907,7 @@
       </c>
       <c r="D22" s="123">
         <f>USData!D22</f>
-        <v>1.3958740924307638</v>
+        <v>1.395874092430764</v>
       </c>
       <c r="E22" s="123">
         <f>USData!E22</f>
@@ -30921,28 +30925,28 @@
         <f>USData!H22</f>
         <v>1.3964447355801066</v>
       </c>
-      <c r="M22" s="152">
-        <f>EXP(lambda_L*B22)</f>
+      <c r="M22" s="138">
+        <f t="shared" si="0"/>
         <v>1.3231298123374369</v>
       </c>
-      <c r="N22" s="152">
-        <f>EXP(lambda_E*B22)</f>
+      <c r="N22" s="138">
+        <f t="shared" si="1"/>
         <v>1.5372575235482813</v>
       </c>
       <c r="O22" s="123">
-        <f>E22^alpha * (M22*D22)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.9119530966962257</v>
       </c>
       <c r="P22" s="123">
-        <f>((1-gamma_E)^1 * O22^phi + gamma_E^1 * ($N22*F22)^phi)^invPhi</f>
+        <f t="shared" si="3"/>
         <v>1.9128560525642373</v>
       </c>
       <c r="Q22" s="123">
-        <f>((1-gamma_E)^1 * P22^phi + gamma_E^1 * ($N22*G22)^phi)^invPhi</f>
+        <f t="shared" si="4"/>
         <v>1.9136189768293614</v>
       </c>
       <c r="R22" s="123">
-        <f>((1-gamma_E)^1 * Q22^phi + gamma_E^1 * ($N22*H22)^phi)^invPhi</f>
+        <f t="shared" si="5"/>
         <v>1.9405119932307708</v>
       </c>
     </row>
@@ -30979,24 +30983,24 @@
         <f>USData!H23</f>
         <v>NA</v>
       </c>
-      <c r="M23" s="152">
-        <f>EXP(lambda_L*B23)</f>
+      <c r="M23" s="138">
+        <f t="shared" si="0"/>
         <v>1.3417839036669714</v>
       </c>
-      <c r="N23" s="152">
-        <f>EXP(lambda_E*B23)</f>
+      <c r="N23" s="138">
+        <f t="shared" si="1"/>
         <v>1.5706664190021191</v>
       </c>
       <c r="O23" s="123">
-        <f>E23^alpha * (M23*D23)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.940796506358619</v>
       </c>
       <c r="P23" s="123">
-        <f>((1-gamma_E)^1 * O23^phi + gamma_E^1 * ($N23*F23)^phi)^invPhi</f>
+        <f t="shared" ref="P23:P33" si="6">((1-gamma_E)^1 * O23^phi + gamma_E^1 * ($N23*F23)^phi)^invPhi</f>
         <v>1.9410869139354936</v>
       </c>
       <c r="Q23" s="123">
-        <f>((1-gamma_E)^1 * P23^phi + gamma_E^1 * ($N23*G23)^phi)^invPhi</f>
+        <f t="shared" ref="Q23:Q33" si="7">((1-gamma_E)^1 * P23^phi + gamma_E^1 * ($N23*G23)^phi)^invPhi</f>
         <v>1.941311580975815</v>
       </c>
       <c r="R23" s="123"/>
@@ -31034,24 +31038,24 @@
         <f>USData!H24</f>
         <v>NA</v>
       </c>
-      <c r="M24" s="152">
-        <f>EXP(lambda_L*B24)</f>
+      <c r="M24" s="138">
+        <f t="shared" si="0"/>
         <v>1.3607009889371502</v>
       </c>
-      <c r="N24" s="152">
-        <f>EXP(lambda_E*B24)</f>
+      <c r="N24" s="138">
+        <f t="shared" si="1"/>
         <v>1.6048013829762589</v>
       </c>
       <c r="O24" s="123">
-        <f>E24^alpha * (M24*D24)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.9633465485969452</v>
       </c>
       <c r="P24" s="123">
-        <f>((1-gamma_E)^1 * O24^phi + gamma_E^1 * ($N24*F24)^phi)^invPhi</f>
+        <f t="shared" si="6"/>
         <v>1.9649820658088395</v>
       </c>
       <c r="Q24" s="123">
-        <f>((1-gamma_E)^1 * P24^phi + gamma_E^1 * ($N24*G24)^phi)^invPhi</f>
+        <f t="shared" si="7"/>
         <v>1.966331666465913</v>
       </c>
       <c r="R24" s="123"/>
@@ -31089,24 +31093,24 @@
         <f>USData!H25</f>
         <v>NA</v>
       </c>
-      <c r="M25" s="152">
-        <f>EXP(lambda_L*B25)</f>
+      <c r="M25" s="138">
+        <f t="shared" si="0"/>
         <v>1.3798847759572466</v>
       </c>
-      <c r="N25" s="152">
-        <f>EXP(lambda_E*B25)</f>
+      <c r="N25" s="138">
+        <f t="shared" si="1"/>
         <v>1.6396781949656225</v>
       </c>
       <c r="O25" s="123">
-        <f>E25^alpha * (M25*D25)^beta</f>
+        <f t="shared" si="2"/>
         <v>1.9972917768058769</v>
       </c>
       <c r="P25" s="123">
-        <f>((1-gamma_E)^1 * O25^phi + gamma_E^1 * ($N25*F25)^phi)^invPhi</f>
+        <f t="shared" si="6"/>
         <v>1.9995546343483528</v>
       </c>
       <c r="Q25" s="123">
-        <f>((1-gamma_E)^1 * P25^phi + gamma_E^1 * ($N25*G25)^phi)^invPhi</f>
+        <f t="shared" si="7"/>
         <v>2.0014276737644066</v>
       </c>
       <c r="R25" s="123"/>
@@ -31144,24 +31148,24 @@
         <f>USData!H26</f>
         <v>NA</v>
       </c>
-      <c r="M26" s="152">
-        <f>EXP(lambda_L*B26)</f>
+      <c r="M26" s="138">
+        <f t="shared" si="0"/>
         <v>1.3993390248109305</v>
       </c>
-      <c r="N26" s="152">
-        <f>EXP(lambda_E*B26)</f>
+      <c r="N26" s="138">
+        <f t="shared" si="1"/>
         <v>1.6753129773975874</v>
       </c>
       <c r="O26" s="123">
-        <f>E26^alpha * (M26*D26)^beta</f>
+        <f t="shared" si="2"/>
         <v>2.0580640683865337</v>
       </c>
       <c r="P26" s="123">
-        <f>((1-gamma_E)^1 * O26^phi + gamma_E^1 * ($N26*F26)^phi)^invPhi</f>
+        <f t="shared" si="6"/>
         <v>2.061386958998451</v>
       </c>
       <c r="Q26" s="123">
-        <f>((1-gamma_E)^1 * P26^phi + gamma_E^1 * ($N26*G26)^phi)^invPhi</f>
+        <f t="shared" si="7"/>
         <v>2.0641215142971117</v>
       </c>
       <c r="R26" s="123"/>
@@ -31199,24 +31203,24 @@
         <f>USData!H27</f>
         <v>NA</v>
       </c>
-      <c r="M27" s="152">
-        <f>EXP(lambda_L*B27)</f>
+      <c r="M27" s="138">
+        <f t="shared" si="0"/>
         <v>1.4190675485932573</v>
       </c>
-      <c r="N27" s="152">
-        <f>EXP(lambda_E*B27)</f>
+      <c r="N27" s="138">
+        <f t="shared" si="1"/>
         <v>1.7117222030848642</v>
       </c>
       <c r="O27" s="123">
-        <f>E27^alpha * (M27*D27)^beta</f>
+        <f t="shared" si="2"/>
         <v>2.1283216373394844</v>
       </c>
       <c r="P27" s="123">
-        <f>((1-gamma_E)^1 * O27^phi + gamma_E^1 * ($N27*F27)^phi)^invPhi</f>
+        <f t="shared" si="6"/>
         <v>2.13043897797295</v>
       </c>
       <c r="Q27" s="123">
-        <f>((1-gamma_E)^1 * P27^phi + gamma_E^1 * ($N27*G27)^phi)^invPhi</f>
+        <f t="shared" si="7"/>
         <v>2.1321915962558844</v>
       </c>
       <c r="R27" s="123"/>
@@ -31254,24 +31258,24 @@
         <f>USData!H28</f>
         <v>NA</v>
       </c>
-      <c r="M28" s="152">
-        <f>EXP(lambda_L*B28)</f>
+      <c r="M28" s="138">
+        <f t="shared" si="0"/>
         <v>1.4390742141580464</v>
       </c>
-      <c r="N28" s="152">
-        <f>EXP(lambda_E*B28)</f>
+      <c r="N28" s="138">
+        <f t="shared" si="1"/>
         <v>1.7489227028403491</v>
       </c>
       <c r="O28" s="123">
-        <f>E28^alpha * (M28*D28)^beta</f>
+        <f t="shared" si="2"/>
         <v>2.204099675454867</v>
       </c>
       <c r="P28" s="123">
-        <f>((1-gamma_E)^1 * O28^phi + gamma_E^1 * ($N28*F28)^phi)^invPhi</f>
+        <f t="shared" si="6"/>
         <v>2.2049028499886405</v>
       </c>
       <c r="Q28" s="123">
-        <f>((1-gamma_E)^1 * P28^phi + gamma_E^1 * ($N28*G28)^phi)^invPhi</f>
+        <f t="shared" si="7"/>
         <v>2.2055366663613434</v>
       </c>
       <c r="R28" s="123"/>
@@ -31291,7 +31295,7 @@
       </c>
       <c r="D29" s="123">
         <f>USData!D29</f>
-        <v>1.4253238989609147</v>
+        <v>1.4252423807660537</v>
       </c>
       <c r="E29" s="123">
         <f>USData!E29</f>
@@ -31309,25 +31313,25 @@
         <f>USData!H29</f>
         <v>NA</v>
       </c>
-      <c r="M29" s="152">
-        <f>EXP(lambda_L*B29)</f>
+      <c r="M29" s="138">
+        <f t="shared" si="0"/>
         <v>1.4593629428757966</v>
       </c>
-      <c r="N29" s="152">
-        <f>EXP(lambda_E*B29)</f>
+      <c r="N29" s="138">
+        <f t="shared" si="1"/>
         <v>1.7869316732574658</v>
       </c>
       <c r="O29" s="123">
-        <f>E29^alpha * (M29*D29)^beta</f>
-        <v>2.2600276513888584</v>
+        <f t="shared" si="2"/>
+        <v>2.2599338099272752</v>
       </c>
       <c r="P29" s="123">
-        <f>((1-gamma_E)^1 * O29^phi + gamma_E^1 * ($N29*F29)^phi)^invPhi</f>
-        <v>2.2616989357881314</v>
+        <f t="shared" si="6"/>
+        <v>2.2616084690041798</v>
       </c>
       <c r="Q29" s="123">
-        <f>((1-gamma_E)^1 * P29^phi + gamma_E^1 * ($N29*G29)^phi)^invPhi</f>
-        <v>2.263045948176289</v>
+        <f t="shared" si="7"/>
+        <v>2.2629582310254754</v>
       </c>
       <c r="R29" s="123"/>
     </row>
@@ -31346,7 +31350,7 @@
       </c>
       <c r="D30" s="123">
         <f>USData!D30</f>
-        <v>1.4099386983174644</v>
+        <v>1.4100365201512979</v>
       </c>
       <c r="E30" s="123">
         <f>USData!E30</f>
@@ -31364,25 +31368,25 @@
         <f>USData!H30</f>
         <v>NA</v>
       </c>
-      <c r="M30" s="152">
-        <f>EXP(lambda_L*B30)</f>
+      <c r="M30" s="138">
+        <f t="shared" si="0"/>
         <v>1.4799377114022885</v>
       </c>
-      <c r="N30" s="152">
-        <f>EXP(lambda_E*B30)</f>
+      <c r="N30" s="138">
+        <f t="shared" si="1"/>
         <v>1.8257666846595977</v>
       </c>
       <c r="O30" s="123">
-        <f>E30^alpha * (M30*D30)^beta</f>
-        <v>2.280916357906436</v>
+        <f t="shared" si="2"/>
+        <v>2.281031246634678</v>
       </c>
       <c r="P30" s="123">
-        <f>((1-gamma_E)^1 * O30^phi + gamma_E^1 * ($N30*F30)^phi)^invPhi</f>
-        <v>2.2818543088894514</v>
+        <f t="shared" si="6"/>
+        <v>2.2819665352527334</v>
       </c>
       <c r="Q30" s="123">
-        <f>((1-gamma_E)^1 * P30^phi + gamma_E^1 * ($N30*G30)^phi)^invPhi</f>
-        <v>2.2825619266122987</v>
+        <f t="shared" si="7"/>
+        <v>2.2826719959151704</v>
       </c>
       <c r="R30" s="123"/>
     </row>
@@ -31401,7 +31405,7 @@
       </c>
       <c r="D31" s="123">
         <f>USData!D31</f>
-        <v>1.3323170731707317</v>
+        <v>1.3320833876787965</v>
       </c>
       <c r="E31" s="123">
         <f>USData!E31</f>
@@ -31419,25 +31423,25 @@
         <f>USData!H31</f>
         <v>NA</v>
       </c>
-      <c r="M31" s="152">
-        <f>EXP(lambda_L*B31)</f>
+      <c r="M31" s="138">
+        <f t="shared" si="0"/>
         <v>1.50080255245802</v>
       </c>
-      <c r="N31" s="152">
-        <f>EXP(lambda_E*B31)</f>
+      <c r="N31" s="138">
+        <f t="shared" si="1"/>
         <v>1.8654456892222817</v>
       </c>
       <c r="O31" s="123">
-        <f>E31^alpha * (M31*D31)^beta</f>
-        <v>2.2148252234317427</v>
+        <f t="shared" si="2"/>
+        <v>2.2145431834516218</v>
       </c>
       <c r="P31" s="123">
-        <f>((1-gamma_E)^1 * O31^phi + gamma_E^1 * ($N31*F31)^phi)^invPhi</f>
-        <v>2.2160813457043989</v>
+        <f t="shared" si="6"/>
+        <v>2.2158075810351896</v>
       </c>
       <c r="Q31" s="123">
-        <f>((1-gamma_E)^1 * P31^phi + gamma_E^1 * ($N31*G31)^phi)^invPhi</f>
-        <v>2.2169806645566514</v>
+        <f t="shared" si="7"/>
+        <v>2.2167132080181866</v>
       </c>
       <c r="R31" s="123"/>
     </row>
@@ -31456,7 +31460,7 @@
       </c>
       <c r="D32" s="123">
         <f>USData!D32</f>
-        <v>1.3317627494456763</v>
+        <v>1.3321431676883613</v>
       </c>
       <c r="E32" s="123">
         <f>USData!E32</f>
@@ -31474,25 +31478,25 @@
         <f>USData!H32</f>
         <v>NA</v>
       </c>
-      <c r="M32" s="152">
-        <f>EXP(lambda_L*B32)</f>
+      <c r="M32" s="138">
+        <f t="shared" si="0"/>
         <v>1.5219615556186337</v>
       </c>
-      <c r="N32" s="152">
-        <f>EXP(lambda_E*B32)</f>
+      <c r="N32" s="138">
+        <f t="shared" si="1"/>
         <v>1.9059870292719225</v>
       </c>
       <c r="O32" s="123">
-        <f>E32^alpha * (M32*D32)^beta</f>
-        <v>2.2411706361689756</v>
+        <f t="shared" si="2"/>
+        <v>2.2416353964678675</v>
       </c>
       <c r="P32" s="123">
-        <f>((1-gamma_E)^1 * O32^phi + gamma_E^1 * ($N32*F32)^phi)^invPhi</f>
-        <v>2.2494521352935246</v>
+        <f t="shared" si="6"/>
+        <v>2.2498505799067563</v>
       </c>
       <c r="Q32" s="123">
-        <f>((1-gamma_E)^1 * P32^phi + gamma_E^1 * ($N32*G32)^phi)^invPhi</f>
-        <v>2.2553014933279099</v>
+        <f t="shared" si="7"/>
+        <v>2.2556582465405937</v>
       </c>
       <c r="R32" s="123"/>
     </row>
@@ -31511,7 +31515,7 @@
       </c>
       <c r="D33" s="123">
         <f>USData!D33</f>
-        <v>1.3741821007782271</v>
+        <v>1.3521966436241903</v>
       </c>
       <c r="E33" s="123">
         <f>USData!E33</f>
@@ -31529,25 +31533,25 @@
         <f>USData!H33</f>
         <v>NA</v>
       </c>
-      <c r="M33" s="152">
-        <f>EXP(lambda_L*B33)</f>
+      <c r="M33" s="138">
+        <f t="shared" si="0"/>
         <v>1.5434188681164871</v>
       </c>
-      <c r="N33" s="152">
-        <f>EXP(lambda_E*B33)</f>
+      <c r="N33" s="138">
+        <f t="shared" si="1"/>
         <v>1.947409445764859</v>
       </c>
       <c r="O33" s="123">
-        <f>E33^alpha * (M33*D33)^beta</f>
-        <v>2.3237011284659856</v>
+        <f t="shared" si="2"/>
+        <v>2.2966512396662986</v>
       </c>
       <c r="P33" s="123">
-        <f>((1-gamma_E)^1 * O33^phi + gamma_E^1 * ($N33*F33)^phi)^invPhi</f>
-        <v>2.3267584930386085</v>
+        <f t="shared" si="6"/>
+        <v>2.301680692031975</v>
       </c>
       <c r="Q33" s="123">
-        <f>((1-gamma_E)^1 * P33^phi + gamma_E^1 * ($N33*G33)^phi)^invPhi</f>
-        <v>2.3289156298921472</v>
+        <f t="shared" si="7"/>
+        <v>2.3051818817875227</v>
       </c>
       <c r="R33" s="123"/>
     </row>
